--- a/src/TC.xlsx
+++ b/src/TC.xlsx
@@ -3494,6 +3494,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3561,15 +3564,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3851,9 +3845,9 @@
   <dimension ref="A1:V504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1020" topLeftCell="A340" activePane="bottomLeft"/>
+      <pane ySplit="1020" topLeftCell="A477" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="D344" sqref="D344"/>
+      <selection pane="bottomLeft" activeCell="A483" sqref="A483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" outlineLevelRow="1"/>
@@ -3902,88 +3896,88 @@
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="39" customHeight="1" outlineLevel="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="61" t="s">
         <v>918</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="O5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" ht="37.5">
       <c r="A7" s="40" t="s">
@@ -4033,11 +4027,11 @@
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" ht="37.5">
       <c r="A8" s="40" t="s">
@@ -4087,11 +4081,11 @@
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" ht="37.5">
       <c r="A9" s="40" t="s">
@@ -4141,11 +4135,11 @@
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="1:22" ht="37.5">
       <c r="A10" s="40" t="s">
@@ -4195,11 +4189,11 @@
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" ht="37.5">
       <c r="A11" s="40" t="s">
@@ -4249,11 +4243,11 @@
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" ht="37.5">
       <c r="A12" s="40" t="s">
@@ -4309,13 +4303,13 @@
       <c r="Q12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" ht="75">
       <c r="A13" s="40" t="s">
@@ -4365,11 +4359,11 @@
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" ht="56.25">
       <c r="A14" s="40" t="s">
@@ -4419,11 +4413,11 @@
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="11"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" spans="1:22" ht="56.25">
       <c r="A15" s="40" t="s">
@@ -4473,11 +4467,11 @@
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
     </row>
     <row r="16" spans="1:22" ht="37.5">
       <c r="A16" s="40" t="s">
@@ -4533,13 +4527,13 @@
       <c r="Q16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="56" t="s">
+      <c r="R16" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="1:22" ht="37.5">
       <c r="A17" s="40" t="s">
@@ -4589,11 +4583,11 @@
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="1:22" ht="37.5">
       <c r="A18" s="40" t="s">
@@ -4643,11 +4637,11 @@
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="1:22" ht="37.5">
       <c r="A19" s="40" t="s">
@@ -4697,11 +4691,11 @@
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="1:22" ht="37.5">
       <c r="A20" s="40" t="s">
@@ -4751,11 +4745,11 @@
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="1:22" ht="56.25">
       <c r="A21" s="40" t="s">
@@ -4805,11 +4799,11 @@
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
     </row>
     <row r="22" spans="1:22" ht="37.5">
       <c r="A22" s="44" t="s">
@@ -4865,13 +4859,13 @@
       <c r="Q22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="R22" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="1:22" ht="37.5">
       <c r="A23" s="40" t="s">
@@ -4921,11 +4915,11 @@
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
     </row>
     <row r="24" spans="1:22" ht="56.25">
       <c r="A24" s="44" t="s">
@@ -4981,13 +4975,13 @@
       <c r="Q24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R24" s="56" t="s">
+      <c r="R24" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" spans="1:22" ht="56.25">
       <c r="A25" s="40" t="s">
@@ -5037,11 +5031,11 @@
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
     </row>
     <row r="26" spans="1:22" ht="56.25">
       <c r="A26" s="40" t="s">
@@ -5091,11 +5085,11 @@
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" spans="1:22" ht="56.25">
       <c r="A27" s="40" t="s">
@@ -5151,13 +5145,13 @@
       <c r="Q27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="56" t="s">
+      <c r="R27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
     </row>
     <row r="28" spans="1:22" ht="56.25">
       <c r="A28" s="40" t="s">
@@ -5207,11 +5201,11 @@
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
     </row>
     <row r="29" spans="1:22" ht="75">
       <c r="A29" s="40" t="s">
@@ -5261,11 +5255,11 @@
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
     </row>
     <row r="30" spans="1:22" ht="37.5">
       <c r="A30" s="44" t="s">
@@ -5321,13 +5315,13 @@
       <c r="Q30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R30" s="56" t="s">
+      <c r="R30" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
     </row>
     <row r="31" spans="1:22" ht="37.5">
       <c r="A31" s="44" t="s">
@@ -5383,13 +5377,13 @@
       <c r="Q31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R31" s="56" t="s">
+      <c r="R31" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
     </row>
     <row r="32" spans="1:22" ht="37.5">
       <c r="A32" s="40" t="s">
@@ -5439,11 +5433,11 @@
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="11"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
     </row>
     <row r="33" spans="1:22" ht="37.5">
       <c r="A33" s="40" t="s">
@@ -5501,13 +5495,13 @@
       <c r="Q33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="R33" s="57" t="s">
+      <c r="R33" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
     </row>
     <row r="34" spans="1:22" ht="93.75">
       <c r="A34" s="44" t="s">
@@ -5563,13 +5557,13 @@
       <c r="Q34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R34" s="56" t="s">
+      <c r="R34" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
     </row>
     <row r="35" spans="1:22" ht="56.25">
       <c r="A35" s="40" t="s">
@@ -5619,11 +5613,11 @@
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="11"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
     </row>
     <row r="36" spans="1:22" ht="56.25">
       <c r="A36" s="40" t="s">
@@ -5679,13 +5673,13 @@
       <c r="Q36" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="R36" s="57" t="s">
+      <c r="R36" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
     </row>
     <row r="37" spans="1:22" ht="56.25">
       <c r="A37" s="40" t="s">
@@ -5735,11 +5729,11 @@
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="11"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
     </row>
     <row r="38" spans="1:22" ht="37.5">
       <c r="A38" s="44" t="s">
@@ -5795,13 +5789,13 @@
       <c r="Q38" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R38" s="56" t="s">
+      <c r="R38" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
     </row>
     <row r="39" spans="1:22" ht="37.5">
       <c r="A39" s="40" t="s">
@@ -5851,11 +5845,11 @@
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
     </row>
     <row r="40" spans="1:22" ht="75">
       <c r="A40" s="44" t="s">
@@ -5911,13 +5905,13 @@
       <c r="Q40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R40" s="56" t="s">
+      <c r="R40" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
     </row>
     <row r="41" spans="1:22" ht="37.5">
       <c r="A41" s="40" t="s">
@@ -5967,11 +5961,11 @@
       </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
     </row>
     <row r="42" spans="1:22" ht="37.5">
       <c r="A42" s="40" t="s">
@@ -6021,11 +6015,11 @@
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
     </row>
     <row r="43" spans="1:22" ht="37.5">
       <c r="A43" s="44" t="s">
@@ -6081,13 +6075,13 @@
       <c r="Q43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R43" s="56" t="s">
+      <c r="R43" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
     </row>
     <row r="44" spans="1:22" ht="56.25">
       <c r="A44" s="40" t="s">
@@ -6137,11 +6131,11 @@
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
     </row>
     <row r="45" spans="1:22" ht="93.75">
       <c r="A45" s="40" t="s">
@@ -6191,11 +6185,11 @@
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="40" t="s">
@@ -6251,13 +6245,13 @@
       <c r="Q46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R46" s="56" t="s">
+      <c r="R46" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="59"/>
+      <c r="V46" s="59"/>
     </row>
     <row r="47" spans="1:22" ht="37.5">
       <c r="A47" s="40" t="s">
@@ -6307,11 +6301,11 @@
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="11"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="59"/>
     </row>
     <row r="48" spans="1:22" ht="37.5">
       <c r="A48" s="44" t="s">
@@ -6367,13 +6361,13 @@
       <c r="Q48" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R48" s="56" t="s">
+      <c r="R48" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="59"/>
+      <c r="V48" s="59"/>
     </row>
     <row r="49" spans="1:22" ht="56.25">
       <c r="A49" s="44" t="s">
@@ -6429,13 +6423,13 @@
       <c r="Q49" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R49" s="56" t="s">
+      <c r="R49" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
     </row>
     <row r="50" spans="1:22" ht="37.5">
       <c r="A50" s="44" t="s">
@@ -6491,13 +6485,13 @@
       <c r="Q50" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="56" t="s">
+      <c r="R50" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="59"/>
     </row>
     <row r="51" spans="1:22" ht="37.5">
       <c r="A51" s="40" t="s">
@@ -6547,11 +6541,11 @@
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
     </row>
     <row r="52" spans="1:22" ht="37.5">
       <c r="A52" s="40" t="s">
@@ -6601,11 +6595,11 @@
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
     </row>
     <row r="53" spans="1:22" ht="37.5">
       <c r="A53" s="40" t="s">
@@ -6655,11 +6649,11 @@
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="11"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
     </row>
     <row r="54" spans="1:22" ht="56.25">
       <c r="A54" s="44" t="s">
@@ -6715,13 +6709,13 @@
       <c r="Q54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R54" s="56" t="s">
+      <c r="R54" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
     </row>
     <row r="55" spans="1:22" ht="37.5">
       <c r="A55" s="40" t="s">
@@ -6771,11 +6765,11 @@
       </c>
       <c r="P55" s="10"/>
       <c r="Q55" s="11"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
     </row>
     <row r="56" spans="1:22" ht="56.25">
       <c r="A56" s="44" t="s">
@@ -6831,13 +6825,13 @@
       <c r="Q56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R56" s="56" t="s">
+      <c r="R56" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
     </row>
     <row r="57" spans="1:22" ht="93.75">
       <c r="A57" s="40" t="s">
@@ -6893,13 +6887,13 @@
       <c r="Q57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R57" s="56" t="s">
+      <c r="R57" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
     </row>
     <row r="58" spans="1:22" ht="56.25">
       <c r="A58" s="44" t="s">
@@ -6955,13 +6949,13 @@
       <c r="Q58" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="R58" s="57" t="s">
+      <c r="R58" s="60" t="s">
         <v>916</v>
       </c>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
     </row>
     <row r="59" spans="1:22" ht="56.25">
       <c r="A59" s="40" t="s">
@@ -7011,11 +7005,11 @@
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="11"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
     </row>
     <row r="60" spans="1:22" ht="56.25">
       <c r="A60" s="40" t="s">
@@ -7065,11 +7059,11 @@
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="11"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
     </row>
     <row r="61" spans="1:22" ht="56.25">
       <c r="A61" s="40" t="s">
@@ -7125,13 +7119,13 @@
       <c r="Q61" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R61" s="56" t="s">
+      <c r="R61" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
     </row>
     <row r="62" spans="1:22" ht="37.5">
       <c r="A62" s="44" t="s">
@@ -7187,13 +7181,13 @@
       <c r="Q62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R62" s="56" t="s">
+      <c r="R62" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="56"/>
-      <c r="V62" s="56"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
     </row>
     <row r="63" spans="1:22" ht="56.25">
       <c r="A63" s="40" t="s">
@@ -7243,11 +7237,11 @@
       </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="11"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="56"/>
-      <c r="V63" s="56"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
     </row>
     <row r="64" spans="1:22" ht="56.25">
       <c r="A64" s="40" t="s">
@@ -7297,11 +7291,11 @@
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="11"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
-      <c r="V64" s="56"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
     </row>
     <row r="65" spans="1:22" ht="56.25">
       <c r="A65" s="44" t="s">
@@ -7357,13 +7351,13 @@
       <c r="Q65" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R65" s="56" t="s">
+      <c r="R65" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
+      <c r="S65" s="59"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
     </row>
     <row r="66" spans="1:22" ht="56.25">
       <c r="A66" s="40" t="s">
@@ -7413,11 +7407,11 @@
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="11"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="59"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
     </row>
     <row r="67" spans="1:22" ht="56.25">
       <c r="A67" s="40" t="s">
@@ -7467,11 +7461,11 @@
       </c>
       <c r="P67" s="10"/>
       <c r="Q67" s="11"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
     </row>
     <row r="68" spans="1:22" ht="56.25">
       <c r="A68" s="40" t="s">
@@ -7527,13 +7521,13 @@
       <c r="Q68" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R68" s="56" t="s">
+      <c r="R68" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
+      <c r="S68" s="59"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
     </row>
     <row r="69" spans="1:22" ht="37.5">
       <c r="A69" s="40" t="s">
@@ -7589,13 +7583,13 @@
       <c r="Q69" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="R69" s="57" t="s">
+      <c r="R69" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="S69" s="57"/>
-      <c r="T69" s="57"/>
-      <c r="U69" s="57"/>
-      <c r="V69" s="57"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
     </row>
     <row r="70" spans="1:22" ht="56.25">
       <c r="A70" s="40" t="s">
@@ -7645,11 +7639,11 @@
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="11"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="59"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="59"/>
+      <c r="V70" s="59"/>
     </row>
     <row r="71" spans="1:22" ht="37.5">
       <c r="A71" s="44" t="s">
@@ -7705,13 +7699,13 @@
       <c r="Q71" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R71" s="56" t="s">
+      <c r="R71" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
+      <c r="S71" s="59"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
     </row>
     <row r="72" spans="1:22" ht="37.5">
       <c r="A72" s="40" t="s">
@@ -7761,11 +7755,11 @@
       </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="11"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="56"/>
-      <c r="V72" s="56"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
     </row>
     <row r="73" spans="1:22" ht="37.5">
       <c r="A73" s="40" t="s">
@@ -7815,11 +7809,11 @@
       </c>
       <c r="P73" s="10"/>
       <c r="Q73" s="11"/>
-      <c r="R73" s="56"/>
-      <c r="S73" s="56"/>
-      <c r="T73" s="56"/>
-      <c r="U73" s="56"/>
-      <c r="V73" s="56"/>
+      <c r="R73" s="59"/>
+      <c r="S73" s="59"/>
+      <c r="T73" s="59"/>
+      <c r="U73" s="59"/>
+      <c r="V73" s="59"/>
     </row>
     <row r="74" spans="1:22" ht="56.25">
       <c r="A74" s="40" t="s">
@@ -7869,11 +7863,11 @@
       </c>
       <c r="P74" s="10"/>
       <c r="Q74" s="11"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="56"/>
-      <c r="T74" s="56"/>
-      <c r="U74" s="56"/>
-      <c r="V74" s="56"/>
+      <c r="R74" s="59"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="59"/>
     </row>
     <row r="75" spans="1:22" ht="37.5">
       <c r="A75" s="40" t="s">
@@ -7923,11 +7917,11 @@
       </c>
       <c r="P75" s="10"/>
       <c r="Q75" s="11"/>
-      <c r="R75" s="56"/>
-      <c r="S75" s="56"/>
-      <c r="T75" s="56"/>
-      <c r="U75" s="56"/>
-      <c r="V75" s="56"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="59"/>
     </row>
     <row r="76" spans="1:22" ht="37.5">
       <c r="A76" s="40" t="s">
@@ -7977,11 +7971,11 @@
       </c>
       <c r="P76" s="10"/>
       <c r="Q76" s="11"/>
-      <c r="R76" s="56"/>
-      <c r="S76" s="56"/>
-      <c r="T76" s="56"/>
-      <c r="U76" s="56"/>
-      <c r="V76" s="56"/>
+      <c r="R76" s="59"/>
+      <c r="S76" s="59"/>
+      <c r="T76" s="59"/>
+      <c r="U76" s="59"/>
+      <c r="V76" s="59"/>
     </row>
     <row r="77" spans="1:22" ht="56.25">
       <c r="A77" s="40" t="s">
@@ -8037,13 +8031,13 @@
       <c r="Q77" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R77" s="56" t="s">
+      <c r="R77" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56"/>
-      <c r="U77" s="56"/>
-      <c r="V77" s="56"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="59"/>
     </row>
     <row r="78" spans="1:22" ht="56.25">
       <c r="A78" s="40" t="s">
@@ -8093,11 +8087,11 @@
       </c>
       <c r="P78" s="10"/>
       <c r="Q78" s="11"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="56"/>
-      <c r="T78" s="56"/>
-      <c r="U78" s="56"/>
-      <c r="V78" s="56"/>
+      <c r="R78" s="59"/>
+      <c r="S78" s="59"/>
+      <c r="T78" s="59"/>
+      <c r="U78" s="59"/>
+      <c r="V78" s="59"/>
     </row>
     <row r="79" spans="1:22" ht="37.5">
       <c r="A79" s="40" t="s">
@@ -8147,11 +8141,11 @@
       </c>
       <c r="P79" s="10"/>
       <c r="Q79" s="11"/>
-      <c r="R79" s="56"/>
-      <c r="S79" s="56"/>
-      <c r="T79" s="56"/>
-      <c r="U79" s="56"/>
-      <c r="V79" s="56"/>
+      <c r="R79" s="59"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="59"/>
+      <c r="U79" s="59"/>
+      <c r="V79" s="59"/>
     </row>
     <row r="80" spans="1:22" ht="37.5">
       <c r="A80" s="40" t="s">
@@ -8201,11 +8195,11 @@
       </c>
       <c r="P80" s="10"/>
       <c r="Q80" s="11"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
+      <c r="R80" s="59"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="59"/>
+      <c r="U80" s="59"/>
+      <c r="V80" s="59"/>
     </row>
     <row r="81" spans="1:22" ht="56.25">
       <c r="A81" s="40" t="s">
@@ -8255,11 +8249,11 @@
       </c>
       <c r="P81" s="10"/>
       <c r="Q81" s="11"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="59"/>
+      <c r="U81" s="59"/>
+      <c r="V81" s="59"/>
     </row>
     <row r="82" spans="1:22" ht="37.5">
       <c r="A82" s="40" t="s">
@@ -8309,11 +8303,11 @@
       </c>
       <c r="P82" s="10"/>
       <c r="Q82" s="11"/>
-      <c r="R82" s="56"/>
-      <c r="S82" s="56"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="56"/>
-      <c r="V82" s="56"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="59"/>
+      <c r="V82" s="59"/>
     </row>
     <row r="83" spans="1:22" ht="37.5">
       <c r="A83" s="40" t="s">
@@ -8363,11 +8357,11 @@
       </c>
       <c r="P83" s="10"/>
       <c r="Q83" s="11"/>
-      <c r="R83" s="56"/>
-      <c r="S83" s="56"/>
-      <c r="T83" s="56"/>
-      <c r="U83" s="56"/>
-      <c r="V83" s="56"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="59"/>
+      <c r="U83" s="59"/>
+      <c r="V83" s="59"/>
     </row>
     <row r="84" spans="1:22" ht="37.5">
       <c r="A84" s="40" t="s">
@@ -8417,11 +8411,11 @@
       </c>
       <c r="P84" s="10"/>
       <c r="Q84" s="11"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
     </row>
     <row r="85" spans="1:22" ht="37.5">
       <c r="A85" s="40" t="s">
@@ -8477,13 +8471,13 @@
       <c r="Q85" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R85" s="56" t="s">
+      <c r="R85" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="56"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="59"/>
+      <c r="V85" s="59"/>
     </row>
     <row r="86" spans="1:22" ht="37.5">
       <c r="A86" s="40" t="s">
@@ -8533,11 +8527,11 @@
       </c>
       <c r="P86" s="10"/>
       <c r="Q86" s="11"/>
-      <c r="R86" s="56"/>
-      <c r="S86" s="56"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="56"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
     </row>
     <row r="87" spans="1:22" ht="37.5">
       <c r="A87" s="40" t="s">
@@ -8587,11 +8581,11 @@
       </c>
       <c r="P87" s="10"/>
       <c r="Q87" s="11"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59"/>
     </row>
     <row r="88" spans="1:22" ht="37.5">
       <c r="A88" s="40" t="s">
@@ -8641,11 +8635,11 @@
       </c>
       <c r="P88" s="10"/>
       <c r="Q88" s="11"/>
-      <c r="R88" s="56"/>
-      <c r="S88" s="56"/>
-      <c r="T88" s="56"/>
-      <c r="U88" s="56"/>
-      <c r="V88" s="56"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
+      <c r="U88" s="59"/>
+      <c r="V88" s="59"/>
     </row>
     <row r="89" spans="1:22" ht="37.5">
       <c r="A89" s="40" t="s">
@@ -8695,11 +8689,11 @@
       </c>
       <c r="P89" s="10"/>
       <c r="Q89" s="11"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
+      <c r="R89" s="59"/>
+      <c r="S89" s="59"/>
+      <c r="T89" s="59"/>
+      <c r="U89" s="59"/>
+      <c r="V89" s="59"/>
     </row>
     <row r="90" spans="1:22" ht="37.5">
       <c r="A90" s="44" t="s">
@@ -8755,13 +8749,13 @@
       <c r="Q90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R90" s="56" t="s">
+      <c r="R90" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S90" s="56"/>
-      <c r="T90" s="56"/>
-      <c r="U90" s="56"/>
-      <c r="V90" s="56"/>
+      <c r="S90" s="59"/>
+      <c r="T90" s="59"/>
+      <c r="U90" s="59"/>
+      <c r="V90" s="59"/>
     </row>
     <row r="91" spans="1:22" ht="37.5">
       <c r="A91" s="40" t="s">
@@ -8811,11 +8805,11 @@
       </c>
       <c r="P91" s="10"/>
       <c r="Q91" s="11"/>
-      <c r="R91" s="56"/>
-      <c r="S91" s="56"/>
-      <c r="T91" s="56"/>
-      <c r="U91" s="56"/>
-      <c r="V91" s="56"/>
+      <c r="R91" s="59"/>
+      <c r="S91" s="59"/>
+      <c r="T91" s="59"/>
+      <c r="U91" s="59"/>
+      <c r="V91" s="59"/>
     </row>
     <row r="92" spans="1:22" ht="37.5">
       <c r="A92" s="40" t="s">
@@ -8871,13 +8865,13 @@
       <c r="Q92" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R92" s="56" t="s">
+      <c r="R92" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S92" s="56"/>
-      <c r="T92" s="56"/>
-      <c r="U92" s="56"/>
-      <c r="V92" s="56"/>
+      <c r="S92" s="59"/>
+      <c r="T92" s="59"/>
+      <c r="U92" s="59"/>
+      <c r="V92" s="59"/>
     </row>
     <row r="93" spans="1:22" ht="56.25">
       <c r="A93" s="40" t="s">
@@ -8927,11 +8921,11 @@
       </c>
       <c r="P93" s="10"/>
       <c r="Q93" s="11"/>
-      <c r="R93" s="56"/>
-      <c r="S93" s="56"/>
-      <c r="T93" s="56"/>
-      <c r="U93" s="56"/>
-      <c r="V93" s="56"/>
+      <c r="R93" s="59"/>
+      <c r="S93" s="59"/>
+      <c r="T93" s="59"/>
+      <c r="U93" s="59"/>
+      <c r="V93" s="59"/>
     </row>
     <row r="94" spans="1:22" ht="56.25">
       <c r="A94" s="40" t="s">
@@ -8987,13 +8981,13 @@
       <c r="Q94" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R94" s="56" t="s">
+      <c r="R94" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S94" s="56"/>
-      <c r="T94" s="56"/>
-      <c r="U94" s="56"/>
-      <c r="V94" s="56"/>
+      <c r="S94" s="59"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="59"/>
+      <c r="V94" s="59"/>
     </row>
     <row r="95" spans="1:22" ht="37.5">
       <c r="A95" s="40" t="s">
@@ -9043,11 +9037,11 @@
       </c>
       <c r="P95" s="10"/>
       <c r="Q95" s="11"/>
-      <c r="R95" s="56"/>
-      <c r="S95" s="56"/>
-      <c r="T95" s="56"/>
-      <c r="U95" s="56"/>
-      <c r="V95" s="56"/>
+      <c r="R95" s="59"/>
+      <c r="S95" s="59"/>
+      <c r="T95" s="59"/>
+      <c r="U95" s="59"/>
+      <c r="V95" s="59"/>
     </row>
     <row r="96" spans="1:22" ht="37.5">
       <c r="A96" s="40" t="s">
@@ -9097,11 +9091,11 @@
       </c>
       <c r="P96" s="10"/>
       <c r="Q96" s="11"/>
-      <c r="R96" s="56"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="56"/>
-      <c r="U96" s="56"/>
-      <c r="V96" s="56"/>
+      <c r="R96" s="59"/>
+      <c r="S96" s="59"/>
+      <c r="T96" s="59"/>
+      <c r="U96" s="59"/>
+      <c r="V96" s="59"/>
     </row>
     <row r="97" spans="1:22" ht="37.5">
       <c r="A97" s="40" t="s">
@@ -9157,13 +9151,13 @@
       <c r="Q97" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R97" s="56" t="s">
+      <c r="R97" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S97" s="56"/>
-      <c r="T97" s="56"/>
-      <c r="U97" s="56"/>
-      <c r="V97" s="56"/>
+      <c r="S97" s="59"/>
+      <c r="T97" s="59"/>
+      <c r="U97" s="59"/>
+      <c r="V97" s="59"/>
     </row>
     <row r="98" spans="1:22" ht="56.25">
       <c r="A98" s="40" t="s">
@@ -9213,11 +9207,11 @@
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="11"/>
-      <c r="R98" s="56"/>
-      <c r="S98" s="56"/>
-      <c r="T98" s="56"/>
-      <c r="U98" s="56"/>
-      <c r="V98" s="56"/>
+      <c r="R98" s="59"/>
+      <c r="S98" s="59"/>
+      <c r="T98" s="59"/>
+      <c r="U98" s="59"/>
+      <c r="V98" s="59"/>
     </row>
     <row r="99" spans="1:22" ht="56.25">
       <c r="A99" s="40" t="s">
@@ -9273,13 +9267,13 @@
       <c r="Q99" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R99" s="56" t="s">
+      <c r="R99" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S99" s="56"/>
-      <c r="T99" s="56"/>
-      <c r="U99" s="56"/>
-      <c r="V99" s="56"/>
+      <c r="S99" s="59"/>
+      <c r="T99" s="59"/>
+      <c r="U99" s="59"/>
+      <c r="V99" s="59"/>
     </row>
     <row r="100" spans="1:22" ht="56.25">
       <c r="A100" s="40" t="s">
@@ -9335,13 +9329,13 @@
       <c r="Q100" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="R100" s="57" t="s">
+      <c r="R100" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="S100" s="57"/>
-      <c r="T100" s="57"/>
-      <c r="U100" s="57"/>
-      <c r="V100" s="57"/>
+      <c r="S100" s="60"/>
+      <c r="T100" s="60"/>
+      <c r="U100" s="60"/>
+      <c r="V100" s="60"/>
     </row>
     <row r="101" spans="1:22" ht="56.25">
       <c r="A101" s="40" t="s">
@@ -9391,11 +9385,11 @@
       </c>
       <c r="P101" s="10"/>
       <c r="Q101" s="11"/>
-      <c r="R101" s="56"/>
-      <c r="S101" s="56"/>
-      <c r="T101" s="56"/>
-      <c r="U101" s="56"/>
-      <c r="V101" s="56"/>
+      <c r="R101" s="59"/>
+      <c r="S101" s="59"/>
+      <c r="T101" s="59"/>
+      <c r="U101" s="59"/>
+      <c r="V101" s="59"/>
     </row>
     <row r="102" spans="1:22" ht="56.25">
       <c r="A102" s="40" t="s">
@@ -9445,11 +9439,11 @@
       </c>
       <c r="P102" s="10"/>
       <c r="Q102" s="11"/>
-      <c r="R102" s="56"/>
-      <c r="S102" s="56"/>
-      <c r="T102" s="56"/>
-      <c r="U102" s="56"/>
-      <c r="V102" s="56"/>
+      <c r="R102" s="59"/>
+      <c r="S102" s="59"/>
+      <c r="T102" s="59"/>
+      <c r="U102" s="59"/>
+      <c r="V102" s="59"/>
     </row>
     <row r="103" spans="1:22" ht="56.25">
       <c r="A103" s="44" t="s">
@@ -9505,13 +9499,13 @@
       <c r="Q103" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R103" s="56" t="s">
+      <c r="R103" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S103" s="56"/>
-      <c r="T103" s="56"/>
-      <c r="U103" s="56"/>
-      <c r="V103" s="56"/>
+      <c r="S103" s="59"/>
+      <c r="T103" s="59"/>
+      <c r="U103" s="59"/>
+      <c r="V103" s="59"/>
     </row>
     <row r="104" spans="1:22" ht="56.25">
       <c r="A104" s="40" t="s">
@@ -9561,11 +9555,11 @@
       </c>
       <c r="P104" s="10"/>
       <c r="Q104" s="11"/>
-      <c r="R104" s="56"/>
-      <c r="S104" s="56"/>
-      <c r="T104" s="56"/>
-      <c r="U104" s="56"/>
-      <c r="V104" s="56"/>
+      <c r="R104" s="59"/>
+      <c r="S104" s="59"/>
+      <c r="T104" s="59"/>
+      <c r="U104" s="59"/>
+      <c r="V104" s="59"/>
     </row>
     <row r="105" spans="1:22" ht="56.25">
       <c r="A105" s="40" t="s">
@@ -9621,13 +9615,13 @@
       <c r="Q105" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R105" s="56" t="s">
+      <c r="R105" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S105" s="56"/>
-      <c r="T105" s="56"/>
-      <c r="U105" s="56"/>
-      <c r="V105" s="56"/>
+      <c r="S105" s="59"/>
+      <c r="T105" s="59"/>
+      <c r="U105" s="59"/>
+      <c r="V105" s="59"/>
     </row>
     <row r="106" spans="1:22" ht="56.25">
       <c r="A106" s="40" t="s">
@@ -9677,11 +9671,11 @@
       </c>
       <c r="P106" s="10"/>
       <c r="Q106" s="11"/>
-      <c r="R106" s="56"/>
-      <c r="S106" s="56"/>
-      <c r="T106" s="56"/>
-      <c r="U106" s="56"/>
-      <c r="V106" s="56"/>
+      <c r="R106" s="59"/>
+      <c r="S106" s="59"/>
+      <c r="T106" s="59"/>
+      <c r="U106" s="59"/>
+      <c r="V106" s="59"/>
     </row>
     <row r="107" spans="1:22" ht="56.25">
       <c r="A107" s="40" t="s">
@@ -9731,11 +9725,11 @@
       </c>
       <c r="P107" s="10"/>
       <c r="Q107" s="11"/>
-      <c r="R107" s="56"/>
-      <c r="S107" s="56"/>
-      <c r="T107" s="56"/>
-      <c r="U107" s="56"/>
-      <c r="V107" s="56"/>
+      <c r="R107" s="59"/>
+      <c r="S107" s="59"/>
+      <c r="T107" s="59"/>
+      <c r="U107" s="59"/>
+      <c r="V107" s="59"/>
     </row>
     <row r="108" spans="1:22" ht="56.25">
       <c r="A108" s="40" t="s">
@@ -9785,11 +9779,11 @@
       </c>
       <c r="P108" s="10"/>
       <c r="Q108" s="11"/>
-      <c r="R108" s="56"/>
-      <c r="S108" s="56"/>
-      <c r="T108" s="56"/>
-      <c r="U108" s="56"/>
-      <c r="V108" s="56"/>
+      <c r="R108" s="59"/>
+      <c r="S108" s="59"/>
+      <c r="T108" s="59"/>
+      <c r="U108" s="59"/>
+      <c r="V108" s="59"/>
     </row>
     <row r="109" spans="1:22" ht="56.25">
       <c r="A109" s="44" t="s">
@@ -9845,13 +9839,13 @@
       <c r="Q109" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R109" s="56" t="s">
+      <c r="R109" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S109" s="56"/>
-      <c r="T109" s="56"/>
-      <c r="U109" s="56"/>
-      <c r="V109" s="56"/>
+      <c r="S109" s="59"/>
+      <c r="T109" s="59"/>
+      <c r="U109" s="59"/>
+      <c r="V109" s="59"/>
     </row>
     <row r="110" spans="1:22" ht="56.25">
       <c r="A110" s="40" t="s">
@@ -9901,11 +9895,11 @@
       </c>
       <c r="P110" s="10"/>
       <c r="Q110" s="11"/>
-      <c r="R110" s="56"/>
-      <c r="S110" s="56"/>
-      <c r="T110" s="56"/>
-      <c r="U110" s="56"/>
-      <c r="V110" s="56"/>
+      <c r="R110" s="59"/>
+      <c r="S110" s="59"/>
+      <c r="T110" s="59"/>
+      <c r="U110" s="59"/>
+      <c r="V110" s="59"/>
     </row>
     <row r="111" spans="1:22" ht="37.5">
       <c r="A111" s="44" t="s">
@@ -9961,13 +9955,13 @@
       <c r="Q111" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R111" s="56" t="s">
+      <c r="R111" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S111" s="56"/>
-      <c r="T111" s="56"/>
-      <c r="U111" s="56"/>
-      <c r="V111" s="56"/>
+      <c r="S111" s="59"/>
+      <c r="T111" s="59"/>
+      <c r="U111" s="59"/>
+      <c r="V111" s="59"/>
     </row>
     <row r="112" spans="1:22" ht="56.25">
       <c r="A112" s="40" t="s">
@@ -10017,11 +10011,11 @@
       </c>
       <c r="P112" s="10"/>
       <c r="Q112" s="11"/>
-      <c r="R112" s="56"/>
-      <c r="S112" s="56"/>
-      <c r="T112" s="56"/>
-      <c r="U112" s="56"/>
-      <c r="V112" s="56"/>
+      <c r="R112" s="59"/>
+      <c r="S112" s="59"/>
+      <c r="T112" s="59"/>
+      <c r="U112" s="59"/>
+      <c r="V112" s="59"/>
     </row>
     <row r="113" spans="1:22" ht="56.25">
       <c r="A113" s="40" t="s">
@@ -10071,11 +10065,11 @@
       </c>
       <c r="P113" s="10"/>
       <c r="Q113" s="11"/>
-      <c r="R113" s="56"/>
-      <c r="S113" s="56"/>
-      <c r="T113" s="56"/>
-      <c r="U113" s="56"/>
-      <c r="V113" s="56"/>
+      <c r="R113" s="59"/>
+      <c r="S113" s="59"/>
+      <c r="T113" s="59"/>
+      <c r="U113" s="59"/>
+      <c r="V113" s="59"/>
     </row>
     <row r="114" spans="1:22" ht="37.5">
       <c r="A114" s="40" t="s">
@@ -10125,11 +10119,11 @@
       </c>
       <c r="P114" s="10"/>
       <c r="Q114" s="11"/>
-      <c r="R114" s="56"/>
-      <c r="S114" s="56"/>
-      <c r="T114" s="56"/>
-      <c r="U114" s="56"/>
-      <c r="V114" s="56"/>
+      <c r="R114" s="59"/>
+      <c r="S114" s="59"/>
+      <c r="T114" s="59"/>
+      <c r="U114" s="59"/>
+      <c r="V114" s="59"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="40" t="s">
@@ -10179,11 +10173,11 @@
       </c>
       <c r="P115" s="10"/>
       <c r="Q115" s="11"/>
-      <c r="R115" s="56"/>
-      <c r="S115" s="56"/>
-      <c r="T115" s="56"/>
-      <c r="U115" s="56"/>
-      <c r="V115" s="56"/>
+      <c r="R115" s="59"/>
+      <c r="S115" s="59"/>
+      <c r="T115" s="59"/>
+      <c r="U115" s="59"/>
+      <c r="V115" s="59"/>
     </row>
     <row r="116" spans="1:22" ht="37.5">
       <c r="A116" s="40" t="s">
@@ -10233,11 +10227,11 @@
       </c>
       <c r="P116" s="10"/>
       <c r="Q116" s="11"/>
-      <c r="R116" s="56"/>
-      <c r="S116" s="56"/>
-      <c r="T116" s="56"/>
-      <c r="U116" s="56"/>
-      <c r="V116" s="56"/>
+      <c r="R116" s="59"/>
+      <c r="S116" s="59"/>
+      <c r="T116" s="59"/>
+      <c r="U116" s="59"/>
+      <c r="V116" s="59"/>
     </row>
     <row r="117" spans="1:22" ht="37.5">
       <c r="A117" s="40" t="s">
@@ -10287,11 +10281,11 @@
       </c>
       <c r="P117" s="10"/>
       <c r="Q117" s="11"/>
-      <c r="R117" s="56"/>
-      <c r="S117" s="56"/>
-      <c r="T117" s="56"/>
-      <c r="U117" s="56"/>
-      <c r="V117" s="56"/>
+      <c r="R117" s="59"/>
+      <c r="S117" s="59"/>
+      <c r="T117" s="59"/>
+      <c r="U117" s="59"/>
+      <c r="V117" s="59"/>
     </row>
     <row r="118" spans="1:22" ht="37.5">
       <c r="A118" s="40" t="s">
@@ -10341,11 +10335,11 @@
       </c>
       <c r="P118" s="10"/>
       <c r="Q118" s="11"/>
-      <c r="R118" s="56"/>
-      <c r="S118" s="56"/>
-      <c r="T118" s="56"/>
-      <c r="U118" s="56"/>
-      <c r="V118" s="56"/>
+      <c r="R118" s="59"/>
+      <c r="S118" s="59"/>
+      <c r="T118" s="59"/>
+      <c r="U118" s="59"/>
+      <c r="V118" s="59"/>
     </row>
     <row r="119" spans="1:22" ht="37.5">
       <c r="A119" s="40" t="s">
@@ -10395,11 +10389,11 @@
       </c>
       <c r="P119" s="10"/>
       <c r="Q119" s="11"/>
-      <c r="R119" s="56"/>
-      <c r="S119" s="56"/>
-      <c r="T119" s="56"/>
-      <c r="U119" s="56"/>
-      <c r="V119" s="56"/>
+      <c r="R119" s="59"/>
+      <c r="S119" s="59"/>
+      <c r="T119" s="59"/>
+      <c r="U119" s="59"/>
+      <c r="V119" s="59"/>
     </row>
     <row r="120" spans="1:22" ht="56.25">
       <c r="A120" s="40" t="s">
@@ -10449,11 +10443,11 @@
       </c>
       <c r="P120" s="10"/>
       <c r="Q120" s="11"/>
-      <c r="R120" s="56"/>
-      <c r="S120" s="56"/>
-      <c r="T120" s="56"/>
-      <c r="U120" s="56"/>
-      <c r="V120" s="56"/>
+      <c r="R120" s="59"/>
+      <c r="S120" s="59"/>
+      <c r="T120" s="59"/>
+      <c r="U120" s="59"/>
+      <c r="V120" s="59"/>
     </row>
     <row r="121" spans="1:22" ht="56.25">
       <c r="A121" s="40" t="s">
@@ -10503,11 +10497,11 @@
       </c>
       <c r="P121" s="10"/>
       <c r="Q121" s="11"/>
-      <c r="R121" s="56"/>
-      <c r="S121" s="56"/>
-      <c r="T121" s="56"/>
-      <c r="U121" s="56"/>
-      <c r="V121" s="56"/>
+      <c r="R121" s="59"/>
+      <c r="S121" s="59"/>
+      <c r="T121" s="59"/>
+      <c r="U121" s="59"/>
+      <c r="V121" s="59"/>
     </row>
     <row r="122" spans="1:22" ht="56.25">
       <c r="A122" s="40" t="s">
@@ -10557,11 +10551,11 @@
       </c>
       <c r="P122" s="10"/>
       <c r="Q122" s="11"/>
-      <c r="R122" s="56"/>
-      <c r="S122" s="56"/>
-      <c r="T122" s="56"/>
-      <c r="U122" s="56"/>
-      <c r="V122" s="56"/>
+      <c r="R122" s="59"/>
+      <c r="S122" s="59"/>
+      <c r="T122" s="59"/>
+      <c r="U122" s="59"/>
+      <c r="V122" s="59"/>
     </row>
     <row r="123" spans="1:22" ht="56.25">
       <c r="A123" s="40" t="s">
@@ -10611,11 +10605,11 @@
       </c>
       <c r="P123" s="10"/>
       <c r="Q123" s="11"/>
-      <c r="R123" s="56"/>
-      <c r="S123" s="56"/>
-      <c r="T123" s="56"/>
-      <c r="U123" s="56"/>
-      <c r="V123" s="56"/>
+      <c r="R123" s="59"/>
+      <c r="S123" s="59"/>
+      <c r="T123" s="59"/>
+      <c r="U123" s="59"/>
+      <c r="V123" s="59"/>
     </row>
     <row r="124" spans="1:22" ht="56.25">
       <c r="A124" s="44" t="s">
@@ -10671,13 +10665,13 @@
       <c r="Q124" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R124" s="56" t="s">
+      <c r="R124" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S124" s="56"/>
-      <c r="T124" s="56"/>
-      <c r="U124" s="56"/>
-      <c r="V124" s="56"/>
+      <c r="S124" s="59"/>
+      <c r="T124" s="59"/>
+      <c r="U124" s="59"/>
+      <c r="V124" s="59"/>
     </row>
     <row r="125" spans="1:22" ht="56.25">
       <c r="A125" s="40" t="s">
@@ -10727,11 +10721,11 @@
       </c>
       <c r="P125" s="10"/>
       <c r="Q125" s="11"/>
-      <c r="R125" s="56"/>
-      <c r="S125" s="56"/>
-      <c r="T125" s="56"/>
-      <c r="U125" s="56"/>
-      <c r="V125" s="56"/>
+      <c r="R125" s="59"/>
+      <c r="S125" s="59"/>
+      <c r="T125" s="59"/>
+      <c r="U125" s="59"/>
+      <c r="V125" s="59"/>
     </row>
     <row r="126" spans="1:22" ht="56.25">
       <c r="A126" s="40" t="s">
@@ -10781,11 +10775,11 @@
       </c>
       <c r="P126" s="10"/>
       <c r="Q126" s="11"/>
-      <c r="R126" s="56"/>
-      <c r="S126" s="56"/>
-      <c r="T126" s="56"/>
-      <c r="U126" s="56"/>
-      <c r="V126" s="56"/>
+      <c r="R126" s="59"/>
+      <c r="S126" s="59"/>
+      <c r="T126" s="59"/>
+      <c r="U126" s="59"/>
+      <c r="V126" s="59"/>
     </row>
     <row r="127" spans="1:22" ht="56.25">
       <c r="A127" s="40" t="s">
@@ -10835,11 +10829,11 @@
       </c>
       <c r="P127" s="10"/>
       <c r="Q127" s="11"/>
-      <c r="R127" s="56"/>
-      <c r="S127" s="56"/>
-      <c r="T127" s="56"/>
-      <c r="U127" s="56"/>
-      <c r="V127" s="56"/>
+      <c r="R127" s="59"/>
+      <c r="S127" s="59"/>
+      <c r="T127" s="59"/>
+      <c r="U127" s="59"/>
+      <c r="V127" s="59"/>
     </row>
     <row r="128" spans="1:22" ht="56.25">
       <c r="A128" s="40" t="s">
@@ -10889,11 +10883,11 @@
       </c>
       <c r="P128" s="10"/>
       <c r="Q128" s="11"/>
-      <c r="R128" s="56"/>
-      <c r="S128" s="56"/>
-      <c r="T128" s="56"/>
-      <c r="U128" s="56"/>
-      <c r="V128" s="56"/>
+      <c r="R128" s="59"/>
+      <c r="S128" s="59"/>
+      <c r="T128" s="59"/>
+      <c r="U128" s="59"/>
+      <c r="V128" s="59"/>
     </row>
     <row r="129" spans="1:22" ht="37.5">
       <c r="A129" s="40" t="s">
@@ -10943,11 +10937,11 @@
       </c>
       <c r="P129" s="10"/>
       <c r="Q129" s="11"/>
-      <c r="R129" s="56"/>
-      <c r="S129" s="56"/>
-      <c r="T129" s="56"/>
-      <c r="U129" s="56"/>
-      <c r="V129" s="56"/>
+      <c r="R129" s="59"/>
+      <c r="S129" s="59"/>
+      <c r="T129" s="59"/>
+      <c r="U129" s="59"/>
+      <c r="V129" s="59"/>
     </row>
     <row r="130" spans="1:22" ht="37.5">
       <c r="A130" s="40" t="s">
@@ -10997,11 +10991,11 @@
       </c>
       <c r="P130" s="10"/>
       <c r="Q130" s="11"/>
-      <c r="R130" s="56"/>
-      <c r="S130" s="56"/>
-      <c r="T130" s="56"/>
-      <c r="U130" s="56"/>
-      <c r="V130" s="56"/>
+      <c r="R130" s="59"/>
+      <c r="S130" s="59"/>
+      <c r="T130" s="59"/>
+      <c r="U130" s="59"/>
+      <c r="V130" s="59"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="40" t="s">
@@ -11051,11 +11045,11 @@
       </c>
       <c r="P131" s="10"/>
       <c r="Q131" s="11"/>
-      <c r="R131" s="56"/>
-      <c r="S131" s="56"/>
-      <c r="T131" s="56"/>
-      <c r="U131" s="56"/>
-      <c r="V131" s="56"/>
+      <c r="R131" s="59"/>
+      <c r="S131" s="59"/>
+      <c r="T131" s="59"/>
+      <c r="U131" s="59"/>
+      <c r="V131" s="59"/>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="40" t="s">
@@ -11105,11 +11099,11 @@
       </c>
       <c r="P132" s="10"/>
       <c r="Q132" s="11"/>
-      <c r="R132" s="56"/>
-      <c r="S132" s="56"/>
-      <c r="T132" s="56"/>
-      <c r="U132" s="56"/>
-      <c r="V132" s="56"/>
+      <c r="R132" s="59"/>
+      <c r="S132" s="59"/>
+      <c r="T132" s="59"/>
+      <c r="U132" s="59"/>
+      <c r="V132" s="59"/>
     </row>
     <row r="133" spans="1:22" ht="37.5">
       <c r="A133" s="40" t="s">
@@ -11159,11 +11153,11 @@
       </c>
       <c r="P133" s="10"/>
       <c r="Q133" s="11"/>
-      <c r="R133" s="56"/>
-      <c r="S133" s="56"/>
-      <c r="T133" s="56"/>
-      <c r="U133" s="56"/>
-      <c r="V133" s="56"/>
+      <c r="R133" s="59"/>
+      <c r="S133" s="59"/>
+      <c r="T133" s="59"/>
+      <c r="U133" s="59"/>
+      <c r="V133" s="59"/>
     </row>
     <row r="134" spans="1:22" ht="37.5">
       <c r="A134" s="40" t="s">
@@ -11213,11 +11207,11 @@
       </c>
       <c r="P134" s="10"/>
       <c r="Q134" s="11"/>
-      <c r="R134" s="56"/>
-      <c r="S134" s="56"/>
-      <c r="T134" s="56"/>
-      <c r="U134" s="56"/>
-      <c r="V134" s="56"/>
+      <c r="R134" s="59"/>
+      <c r="S134" s="59"/>
+      <c r="T134" s="59"/>
+      <c r="U134" s="59"/>
+      <c r="V134" s="59"/>
     </row>
     <row r="135" spans="1:22" ht="56.25">
       <c r="A135" s="40" t="s">
@@ -11267,11 +11261,11 @@
       </c>
       <c r="P135" s="10"/>
       <c r="Q135" s="11"/>
-      <c r="R135" s="56"/>
-      <c r="S135" s="56"/>
-      <c r="T135" s="56"/>
-      <c r="U135" s="56"/>
-      <c r="V135" s="56"/>
+      <c r="R135" s="59"/>
+      <c r="S135" s="59"/>
+      <c r="T135" s="59"/>
+      <c r="U135" s="59"/>
+      <c r="V135" s="59"/>
     </row>
     <row r="136" spans="1:22" ht="56.25">
       <c r="A136" s="44" t="s">
@@ -11327,13 +11321,13 @@
       <c r="Q136" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R136" s="56" t="s">
+      <c r="R136" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S136" s="56"/>
-      <c r="T136" s="56"/>
-      <c r="U136" s="56"/>
-      <c r="V136" s="56"/>
+      <c r="S136" s="59"/>
+      <c r="T136" s="59"/>
+      <c r="U136" s="59"/>
+      <c r="V136" s="59"/>
     </row>
     <row r="137" spans="1:22" ht="56.25">
       <c r="A137" s="40" t="s">
@@ -11383,11 +11377,11 @@
       </c>
       <c r="P137" s="10"/>
       <c r="Q137" s="11"/>
-      <c r="R137" s="56"/>
-      <c r="S137" s="56"/>
-      <c r="T137" s="56"/>
-      <c r="U137" s="56"/>
-      <c r="V137" s="56"/>
+      <c r="R137" s="59"/>
+      <c r="S137" s="59"/>
+      <c r="T137" s="59"/>
+      <c r="U137" s="59"/>
+      <c r="V137" s="59"/>
     </row>
     <row r="138" spans="1:22" ht="56.25">
       <c r="A138" s="40" t="s">
@@ -11443,13 +11437,13 @@
       <c r="Q138" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R138" s="56" t="s">
+      <c r="R138" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S138" s="56"/>
-      <c r="T138" s="56"/>
-      <c r="U138" s="56"/>
-      <c r="V138" s="56"/>
+      <c r="S138" s="59"/>
+      <c r="T138" s="59"/>
+      <c r="U138" s="59"/>
+      <c r="V138" s="59"/>
     </row>
     <row r="139" spans="1:22" ht="56.25">
       <c r="A139" s="40" t="s">
@@ -11505,13 +11499,13 @@
       <c r="Q139" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R139" s="56" t="s">
+      <c r="R139" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S139" s="56"/>
-      <c r="T139" s="56"/>
-      <c r="U139" s="56"/>
-      <c r="V139" s="56"/>
+      <c r="S139" s="59"/>
+      <c r="T139" s="59"/>
+      <c r="U139" s="59"/>
+      <c r="V139" s="59"/>
     </row>
     <row r="140" spans="1:22" ht="37.5">
       <c r="A140" s="40" t="s">
@@ -11561,11 +11555,11 @@
       </c>
       <c r="P140" s="10"/>
       <c r="Q140" s="11"/>
-      <c r="R140" s="56"/>
-      <c r="S140" s="56"/>
-      <c r="T140" s="56"/>
-      <c r="U140" s="56"/>
-      <c r="V140" s="56"/>
+      <c r="R140" s="59"/>
+      <c r="S140" s="59"/>
+      <c r="T140" s="59"/>
+      <c r="U140" s="59"/>
+      <c r="V140" s="59"/>
     </row>
     <row r="141" spans="1:22" ht="56.25">
       <c r="A141" s="40" t="s">
@@ -11615,11 +11609,11 @@
       </c>
       <c r="P141" s="10"/>
       <c r="Q141" s="11"/>
-      <c r="R141" s="56"/>
-      <c r="S141" s="56"/>
-      <c r="T141" s="56"/>
-      <c r="U141" s="56"/>
-      <c r="V141" s="56"/>
+      <c r="R141" s="59"/>
+      <c r="S141" s="59"/>
+      <c r="T141" s="59"/>
+      <c r="U141" s="59"/>
+      <c r="V141" s="59"/>
     </row>
     <row r="142" spans="1:22" ht="93.75">
       <c r="A142" s="40" t="s">
@@ -11669,11 +11663,11 @@
       </c>
       <c r="P142" s="10"/>
       <c r="Q142" s="11"/>
-      <c r="R142" s="56"/>
-      <c r="S142" s="56"/>
-      <c r="T142" s="56"/>
-      <c r="U142" s="56"/>
-      <c r="V142" s="56"/>
+      <c r="R142" s="59"/>
+      <c r="S142" s="59"/>
+      <c r="T142" s="59"/>
+      <c r="U142" s="59"/>
+      <c r="V142" s="59"/>
     </row>
     <row r="143" spans="1:22" ht="37.5">
       <c r="A143" s="40" t="s">
@@ -11729,13 +11723,13 @@
       <c r="Q143" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R143" s="56" t="s">
+      <c r="R143" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S143" s="56"/>
-      <c r="T143" s="56"/>
-      <c r="U143" s="56"/>
-      <c r="V143" s="56"/>
+      <c r="S143" s="59"/>
+      <c r="T143" s="59"/>
+      <c r="U143" s="59"/>
+      <c r="V143" s="59"/>
     </row>
     <row r="144" spans="1:22" ht="56.25">
       <c r="A144" s="40" t="s">
@@ -11791,13 +11785,13 @@
       <c r="Q144" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="R144" s="57" t="s">
+      <c r="R144" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="S144" s="57"/>
-      <c r="T144" s="57"/>
-      <c r="U144" s="57"/>
-      <c r="V144" s="57"/>
+      <c r="S144" s="60"/>
+      <c r="T144" s="60"/>
+      <c r="U144" s="60"/>
+      <c r="V144" s="60"/>
     </row>
     <row r="145" spans="1:22" ht="37.5">
       <c r="A145" s="40" t="s">
@@ -11847,11 +11841,11 @@
       </c>
       <c r="P145" s="10"/>
       <c r="Q145" s="11"/>
-      <c r="R145" s="56"/>
-      <c r="S145" s="56"/>
-      <c r="T145" s="56"/>
-      <c r="U145" s="56"/>
-      <c r="V145" s="56"/>
+      <c r="R145" s="59"/>
+      <c r="S145" s="59"/>
+      <c r="T145" s="59"/>
+      <c r="U145" s="59"/>
+      <c r="V145" s="59"/>
     </row>
     <row r="146" spans="1:22" ht="56.25">
       <c r="A146" s="40" t="s">
@@ -11901,11 +11895,11 @@
       </c>
       <c r="P146" s="10"/>
       <c r="Q146" s="11"/>
-      <c r="R146" s="56"/>
-      <c r="S146" s="56"/>
-      <c r="T146" s="56"/>
-      <c r="U146" s="56"/>
-      <c r="V146" s="56"/>
+      <c r="R146" s="59"/>
+      <c r="S146" s="59"/>
+      <c r="T146" s="59"/>
+      <c r="U146" s="59"/>
+      <c r="V146" s="59"/>
     </row>
     <row r="147" spans="1:22" ht="56.25">
       <c r="A147" s="40" t="s">
@@ -11955,11 +11949,11 @@
       </c>
       <c r="P147" s="10"/>
       <c r="Q147" s="11"/>
-      <c r="R147" s="56"/>
-      <c r="S147" s="56"/>
-      <c r="T147" s="56"/>
-      <c r="U147" s="56"/>
-      <c r="V147" s="56"/>
+      <c r="R147" s="59"/>
+      <c r="S147" s="59"/>
+      <c r="T147" s="59"/>
+      <c r="U147" s="59"/>
+      <c r="V147" s="59"/>
     </row>
     <row r="148" spans="1:22" ht="56.25">
       <c r="A148" s="40" t="s">
@@ -12009,11 +12003,11 @@
       </c>
       <c r="P148" s="10"/>
       <c r="Q148" s="11"/>
-      <c r="R148" s="56"/>
-      <c r="S148" s="56"/>
-      <c r="T148" s="56"/>
-      <c r="U148" s="56"/>
-      <c r="V148" s="56"/>
+      <c r="R148" s="59"/>
+      <c r="S148" s="59"/>
+      <c r="T148" s="59"/>
+      <c r="U148" s="59"/>
+      <c r="V148" s="59"/>
     </row>
     <row r="149" spans="1:22" ht="56.25">
       <c r="A149" s="40" t="s">
@@ -12063,11 +12057,11 @@
       </c>
       <c r="P149" s="10"/>
       <c r="Q149" s="11"/>
-      <c r="R149" s="56"/>
-      <c r="S149" s="56"/>
-      <c r="T149" s="56"/>
-      <c r="U149" s="56"/>
-      <c r="V149" s="56"/>
+      <c r="R149" s="59"/>
+      <c r="S149" s="59"/>
+      <c r="T149" s="59"/>
+      <c r="U149" s="59"/>
+      <c r="V149" s="59"/>
     </row>
     <row r="150" spans="1:22" ht="56.25">
       <c r="A150" s="40" t="s">
@@ -12123,13 +12117,13 @@
       <c r="Q150" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R150" s="56" t="s">
+      <c r="R150" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S150" s="56"/>
-      <c r="T150" s="56"/>
-      <c r="U150" s="56"/>
-      <c r="V150" s="56"/>
+      <c r="S150" s="59"/>
+      <c r="T150" s="59"/>
+      <c r="U150" s="59"/>
+      <c r="V150" s="59"/>
     </row>
     <row r="151" spans="1:22" ht="56.25">
       <c r="A151" s="44" t="s">
@@ -12185,13 +12179,13 @@
       <c r="Q151" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R151" s="56" t="s">
+      <c r="R151" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S151" s="56"/>
-      <c r="T151" s="56"/>
-      <c r="U151" s="56"/>
-      <c r="V151" s="56"/>
+      <c r="S151" s="59"/>
+      <c r="T151" s="59"/>
+      <c r="U151" s="59"/>
+      <c r="V151" s="59"/>
     </row>
     <row r="152" spans="1:22" ht="56.25">
       <c r="A152" s="40" t="s">
@@ -12247,13 +12241,13 @@
       <c r="Q152" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R152" s="56" t="s">
+      <c r="R152" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S152" s="56"/>
-      <c r="T152" s="56"/>
-      <c r="U152" s="56"/>
-      <c r="V152" s="56"/>
+      <c r="S152" s="59"/>
+      <c r="T152" s="59"/>
+      <c r="U152" s="59"/>
+      <c r="V152" s="59"/>
     </row>
     <row r="153" spans="1:22" ht="56.25">
       <c r="A153" s="40" t="s">
@@ -12303,11 +12297,11 @@
       </c>
       <c r="P153" s="10"/>
       <c r="Q153" s="11"/>
-      <c r="R153" s="56"/>
-      <c r="S153" s="56"/>
-      <c r="T153" s="56"/>
-      <c r="U153" s="56"/>
-      <c r="V153" s="56"/>
+      <c r="R153" s="59"/>
+      <c r="S153" s="59"/>
+      <c r="T153" s="59"/>
+      <c r="U153" s="59"/>
+      <c r="V153" s="59"/>
     </row>
     <row r="154" spans="1:22" ht="56.25">
       <c r="A154" s="44" t="s">
@@ -12363,13 +12357,13 @@
       <c r="Q154" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R154" s="56" t="s">
+      <c r="R154" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S154" s="56"/>
-      <c r="T154" s="56"/>
-      <c r="U154" s="56"/>
-      <c r="V154" s="56"/>
+      <c r="S154" s="59"/>
+      <c r="T154" s="59"/>
+      <c r="U154" s="59"/>
+      <c r="V154" s="59"/>
     </row>
     <row r="155" spans="1:22" ht="56.25">
       <c r="A155" s="40" t="s">
@@ -12419,11 +12413,11 @@
       </c>
       <c r="P155" s="10"/>
       <c r="Q155" s="11"/>
-      <c r="R155" s="56"/>
-      <c r="S155" s="56"/>
-      <c r="T155" s="56"/>
-      <c r="U155" s="56"/>
-      <c r="V155" s="56"/>
+      <c r="R155" s="59"/>
+      <c r="S155" s="59"/>
+      <c r="T155" s="59"/>
+      <c r="U155" s="59"/>
+      <c r="V155" s="59"/>
     </row>
     <row r="156" spans="1:22" ht="56.25">
       <c r="A156" s="40" t="s">
@@ -12473,11 +12467,11 @@
       </c>
       <c r="P156" s="10"/>
       <c r="Q156" s="11"/>
-      <c r="R156" s="56"/>
-      <c r="S156" s="56"/>
-      <c r="T156" s="56"/>
-      <c r="U156" s="56"/>
-      <c r="V156" s="56"/>
+      <c r="R156" s="59"/>
+      <c r="S156" s="59"/>
+      <c r="T156" s="59"/>
+      <c r="U156" s="59"/>
+      <c r="V156" s="59"/>
     </row>
     <row r="157" spans="1:22" ht="37.5">
       <c r="A157" s="40" t="s">
@@ -12527,11 +12521,11 @@
       </c>
       <c r="P157" s="10"/>
       <c r="Q157" s="11"/>
-      <c r="R157" s="56"/>
-      <c r="S157" s="56"/>
-      <c r="T157" s="56"/>
-      <c r="U157" s="56"/>
-      <c r="V157" s="56"/>
+      <c r="R157" s="59"/>
+      <c r="S157" s="59"/>
+      <c r="T157" s="59"/>
+      <c r="U157" s="59"/>
+      <c r="V157" s="59"/>
     </row>
     <row r="158" spans="1:22" ht="37.5">
       <c r="A158" s="44" t="s">
@@ -12587,13 +12581,13 @@
       <c r="Q158" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R158" s="56" t="s">
+      <c r="R158" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S158" s="56"/>
-      <c r="T158" s="56"/>
-      <c r="U158" s="56"/>
-      <c r="V158" s="56"/>
+      <c r="S158" s="59"/>
+      <c r="T158" s="59"/>
+      <c r="U158" s="59"/>
+      <c r="V158" s="59"/>
     </row>
     <row r="159" spans="1:22" ht="37.5">
       <c r="A159" s="40" t="s">
@@ -12643,11 +12637,11 @@
       </c>
       <c r="P159" s="10"/>
       <c r="Q159" s="11"/>
-      <c r="R159" s="56"/>
-      <c r="S159" s="56"/>
-      <c r="T159" s="56"/>
-      <c r="U159" s="56"/>
-      <c r="V159" s="56"/>
+      <c r="R159" s="59"/>
+      <c r="S159" s="59"/>
+      <c r="T159" s="59"/>
+      <c r="U159" s="59"/>
+      <c r="V159" s="59"/>
     </row>
     <row r="160" spans="1:22" ht="37.5">
       <c r="A160" s="44" t="s">
@@ -12703,13 +12697,13 @@
       <c r="Q160" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R160" s="56" t="s">
+      <c r="R160" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S160" s="56"/>
-      <c r="T160" s="56"/>
-      <c r="U160" s="56"/>
-      <c r="V160" s="56"/>
+      <c r="S160" s="59"/>
+      <c r="T160" s="59"/>
+      <c r="U160" s="59"/>
+      <c r="V160" s="59"/>
     </row>
     <row r="161" spans="1:22" ht="37.5">
       <c r="A161" s="40" t="s">
@@ -12759,11 +12753,11 @@
       </c>
       <c r="P161" s="10"/>
       <c r="Q161" s="11"/>
-      <c r="R161" s="56"/>
-      <c r="S161" s="56"/>
-      <c r="T161" s="56"/>
-      <c r="U161" s="56"/>
-      <c r="V161" s="56"/>
+      <c r="R161" s="59"/>
+      <c r="S161" s="59"/>
+      <c r="T161" s="59"/>
+      <c r="U161" s="59"/>
+      <c r="V161" s="59"/>
     </row>
     <row r="162" spans="1:22" ht="37.5">
       <c r="A162" s="40" t="s">
@@ -12813,11 +12807,11 @@
       </c>
       <c r="P162" s="10"/>
       <c r="Q162" s="11"/>
-      <c r="R162" s="56"/>
-      <c r="S162" s="56"/>
-      <c r="T162" s="56"/>
-      <c r="U162" s="56"/>
-      <c r="V162" s="56"/>
+      <c r="R162" s="59"/>
+      <c r="S162" s="59"/>
+      <c r="T162" s="59"/>
+      <c r="U162" s="59"/>
+      <c r="V162" s="59"/>
     </row>
     <row r="163" spans="1:22" ht="37.5">
       <c r="A163" s="40" t="s">
@@ -12867,11 +12861,11 @@
       </c>
       <c r="P163" s="10"/>
       <c r="Q163" s="11"/>
-      <c r="R163" s="56"/>
-      <c r="S163" s="56"/>
-      <c r="T163" s="56"/>
-      <c r="U163" s="56"/>
-      <c r="V163" s="56"/>
+      <c r="R163" s="59"/>
+      <c r="S163" s="59"/>
+      <c r="T163" s="59"/>
+      <c r="U163" s="59"/>
+      <c r="V163" s="59"/>
     </row>
     <row r="164" spans="1:22" ht="37.5">
       <c r="A164" s="40" t="s">
@@ -12927,13 +12921,13 @@
       <c r="Q164" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R164" s="56" t="s">
+      <c r="R164" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S164" s="56"/>
-      <c r="T164" s="56"/>
-      <c r="U164" s="56"/>
-      <c r="V164" s="56"/>
+      <c r="S164" s="59"/>
+      <c r="T164" s="59"/>
+      <c r="U164" s="59"/>
+      <c r="V164" s="59"/>
     </row>
     <row r="165" spans="1:22" ht="37.5">
       <c r="A165" s="40" t="s">
@@ -12983,11 +12977,11 @@
       </c>
       <c r="P165" s="10"/>
       <c r="Q165" s="11"/>
-      <c r="R165" s="56"/>
-      <c r="S165" s="56"/>
-      <c r="T165" s="56"/>
-      <c r="U165" s="56"/>
-      <c r="V165" s="56"/>
+      <c r="R165" s="59"/>
+      <c r="S165" s="59"/>
+      <c r="T165" s="59"/>
+      <c r="U165" s="59"/>
+      <c r="V165" s="59"/>
     </row>
     <row r="166" spans="1:22" ht="37.5">
       <c r="A166" s="40" t="s">
@@ -13037,11 +13031,11 @@
       </c>
       <c r="P166" s="10"/>
       <c r="Q166" s="11"/>
-      <c r="R166" s="56"/>
-      <c r="S166" s="56"/>
-      <c r="T166" s="56"/>
-      <c r="U166" s="56"/>
-      <c r="V166" s="56"/>
+      <c r="R166" s="59"/>
+      <c r="S166" s="59"/>
+      <c r="T166" s="59"/>
+      <c r="U166" s="59"/>
+      <c r="V166" s="59"/>
     </row>
     <row r="167" spans="1:22" ht="37.5">
       <c r="A167" s="44" t="s">
@@ -13097,13 +13091,13 @@
       <c r="Q167" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R167" s="56" t="s">
+      <c r="R167" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S167" s="56"/>
-      <c r="T167" s="56"/>
-      <c r="U167" s="56"/>
-      <c r="V167" s="56"/>
+      <c r="S167" s="59"/>
+      <c r="T167" s="59"/>
+      <c r="U167" s="59"/>
+      <c r="V167" s="59"/>
     </row>
     <row r="168" spans="1:22" ht="37.5">
       <c r="A168" s="40" t="s">
@@ -13153,11 +13147,11 @@
       </c>
       <c r="P168" s="10"/>
       <c r="Q168" s="11"/>
-      <c r="R168" s="56"/>
-      <c r="S168" s="56"/>
-      <c r="T168" s="56"/>
-      <c r="U168" s="56"/>
-      <c r="V168" s="56"/>
+      <c r="R168" s="59"/>
+      <c r="S168" s="59"/>
+      <c r="T168" s="59"/>
+      <c r="U168" s="59"/>
+      <c r="V168" s="59"/>
     </row>
     <row r="169" spans="1:22" ht="37.5">
       <c r="A169" s="40" t="s">
@@ -13207,11 +13201,11 @@
       </c>
       <c r="P169" s="10"/>
       <c r="Q169" s="11"/>
-      <c r="R169" s="56"/>
-      <c r="S169" s="56"/>
-      <c r="T169" s="56"/>
-      <c r="U169" s="56"/>
-      <c r="V169" s="56"/>
+      <c r="R169" s="59"/>
+      <c r="S169" s="59"/>
+      <c r="T169" s="59"/>
+      <c r="U169" s="59"/>
+      <c r="V169" s="59"/>
     </row>
     <row r="170" spans="1:22" ht="37.5">
       <c r="A170" s="44" t="s">
@@ -13267,13 +13261,13 @@
       <c r="Q170" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R170" s="56" t="s">
+      <c r="R170" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S170" s="56"/>
-      <c r="T170" s="56"/>
-      <c r="U170" s="56"/>
-      <c r="V170" s="56"/>
+      <c r="S170" s="59"/>
+      <c r="T170" s="59"/>
+      <c r="U170" s="59"/>
+      <c r="V170" s="59"/>
     </row>
     <row r="171" spans="1:22" ht="37.5">
       <c r="A171" s="40" t="s">
@@ -13329,13 +13323,13 @@
       <c r="Q171" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="R171" s="57" t="s">
+      <c r="R171" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="S171" s="57"/>
-      <c r="T171" s="57"/>
-      <c r="U171" s="57"/>
-      <c r="V171" s="57"/>
+      <c r="S171" s="60"/>
+      <c r="T171" s="60"/>
+      <c r="U171" s="60"/>
+      <c r="V171" s="60"/>
     </row>
     <row r="172" spans="1:22" ht="37.5">
       <c r="A172" s="40" t="s">
@@ -13385,11 +13379,11 @@
       </c>
       <c r="P172" s="10"/>
       <c r="Q172" s="11"/>
-      <c r="R172" s="56"/>
-      <c r="S172" s="56"/>
-      <c r="T172" s="56"/>
-      <c r="U172" s="56"/>
-      <c r="V172" s="56"/>
+      <c r="R172" s="59"/>
+      <c r="S172" s="59"/>
+      <c r="T172" s="59"/>
+      <c r="U172" s="59"/>
+      <c r="V172" s="59"/>
     </row>
     <row r="173" spans="1:22" ht="37.5">
       <c r="A173" s="44" t="s">
@@ -13445,13 +13439,13 @@
       <c r="Q173" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R173" s="56" t="s">
+      <c r="R173" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S173" s="56"/>
-      <c r="T173" s="56"/>
-      <c r="U173" s="56"/>
-      <c r="V173" s="56"/>
+      <c r="S173" s="59"/>
+      <c r="T173" s="59"/>
+      <c r="U173" s="59"/>
+      <c r="V173" s="59"/>
     </row>
     <row r="174" spans="1:22" ht="37.5">
       <c r="A174" s="40" t="s">
@@ -13501,11 +13495,11 @@
       </c>
       <c r="P174" s="10"/>
       <c r="Q174" s="11"/>
-      <c r="R174" s="56"/>
-      <c r="S174" s="56"/>
-      <c r="T174" s="56"/>
-      <c r="U174" s="56"/>
-      <c r="V174" s="56"/>
+      <c r="R174" s="59"/>
+      <c r="S174" s="59"/>
+      <c r="T174" s="59"/>
+      <c r="U174" s="59"/>
+      <c r="V174" s="59"/>
     </row>
     <row r="175" spans="1:22" ht="37.5">
       <c r="A175" s="44" t="s">
@@ -13561,13 +13555,13 @@
       <c r="Q175" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R175" s="56" t="s">
+      <c r="R175" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S175" s="56"/>
-      <c r="T175" s="56"/>
-      <c r="U175" s="56"/>
-      <c r="V175" s="56"/>
+      <c r="S175" s="59"/>
+      <c r="T175" s="59"/>
+      <c r="U175" s="59"/>
+      <c r="V175" s="59"/>
     </row>
     <row r="176" spans="1:22" ht="37.5">
       <c r="A176" s="40" t="s">
@@ -13617,11 +13611,11 @@
       </c>
       <c r="P176" s="10"/>
       <c r="Q176" s="11"/>
-      <c r="R176" s="56"/>
-      <c r="S176" s="56"/>
-      <c r="T176" s="56"/>
-      <c r="U176" s="56"/>
-      <c r="V176" s="56"/>
+      <c r="R176" s="59"/>
+      <c r="S176" s="59"/>
+      <c r="T176" s="59"/>
+      <c r="U176" s="59"/>
+      <c r="V176" s="59"/>
     </row>
     <row r="177" spans="1:22" ht="56.25">
       <c r="A177" s="40" t="s">
@@ -13677,13 +13671,13 @@
       <c r="Q177" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="R177" s="57" t="s">
+      <c r="R177" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="S177" s="57"/>
-      <c r="T177" s="57"/>
-      <c r="U177" s="57"/>
-      <c r="V177" s="57"/>
+      <c r="S177" s="60"/>
+      <c r="T177" s="60"/>
+      <c r="U177" s="60"/>
+      <c r="V177" s="60"/>
     </row>
     <row r="178" spans="1:22" ht="37.5">
       <c r="A178" s="40" t="s">
@@ -13733,11 +13727,11 @@
       </c>
       <c r="P178" s="10"/>
       <c r="Q178" s="11"/>
-      <c r="R178" s="56"/>
-      <c r="S178" s="56"/>
-      <c r="T178" s="56"/>
-      <c r="U178" s="56"/>
-      <c r="V178" s="56"/>
+      <c r="R178" s="59"/>
+      <c r="S178" s="59"/>
+      <c r="T178" s="59"/>
+      <c r="U178" s="59"/>
+      <c r="V178" s="59"/>
     </row>
     <row r="179" spans="1:22" ht="37.5">
       <c r="A179" s="40" t="s">
@@ -13787,11 +13781,11 @@
       </c>
       <c r="P179" s="10"/>
       <c r="Q179" s="11"/>
-      <c r="R179" s="56"/>
-      <c r="S179" s="56"/>
-      <c r="T179" s="56"/>
-      <c r="U179" s="56"/>
-      <c r="V179" s="56"/>
+      <c r="R179" s="59"/>
+      <c r="S179" s="59"/>
+      <c r="T179" s="59"/>
+      <c r="U179" s="59"/>
+      <c r="V179" s="59"/>
     </row>
     <row r="180" spans="1:22" ht="37.5">
       <c r="A180" s="40" t="s">
@@ -13841,11 +13835,11 @@
       </c>
       <c r="P180" s="10"/>
       <c r="Q180" s="11"/>
-      <c r="R180" s="56"/>
-      <c r="S180" s="56"/>
-      <c r="T180" s="56"/>
-      <c r="U180" s="56"/>
-      <c r="V180" s="56"/>
+      <c r="R180" s="59"/>
+      <c r="S180" s="59"/>
+      <c r="T180" s="59"/>
+      <c r="U180" s="59"/>
+      <c r="V180" s="59"/>
     </row>
     <row r="181" spans="1:22" ht="37.5">
       <c r="A181" s="40" t="s">
@@ -13901,13 +13895,13 @@
       <c r="Q181" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R181" s="56" t="s">
+      <c r="R181" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S181" s="56"/>
-      <c r="T181" s="56"/>
-      <c r="U181" s="56"/>
-      <c r="V181" s="56"/>
+      <c r="S181" s="59"/>
+      <c r="T181" s="59"/>
+      <c r="U181" s="59"/>
+      <c r="V181" s="59"/>
     </row>
     <row r="182" spans="1:22" ht="37.5">
       <c r="A182" s="40" t="s">
@@ -13963,13 +13957,13 @@
       <c r="Q182" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R182" s="56" t="s">
+      <c r="R182" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S182" s="56"/>
-      <c r="T182" s="56"/>
-      <c r="U182" s="56"/>
-      <c r="V182" s="56"/>
+      <c r="S182" s="59"/>
+      <c r="T182" s="59"/>
+      <c r="U182" s="59"/>
+      <c r="V182" s="59"/>
     </row>
     <row r="183" spans="1:22" ht="37.5">
       <c r="A183" s="40" t="s">
@@ -14019,11 +14013,11 @@
       </c>
       <c r="P183" s="10"/>
       <c r="Q183" s="11"/>
-      <c r="R183" s="56"/>
-      <c r="S183" s="56"/>
-      <c r="T183" s="56"/>
-      <c r="U183" s="56"/>
-      <c r="V183" s="56"/>
+      <c r="R183" s="59"/>
+      <c r="S183" s="59"/>
+      <c r="T183" s="59"/>
+      <c r="U183" s="59"/>
+      <c r="V183" s="59"/>
     </row>
     <row r="184" spans="1:22" ht="37.5">
       <c r="A184" s="40" t="s">
@@ -14073,11 +14067,11 @@
       </c>
       <c r="P184" s="10"/>
       <c r="Q184" s="11"/>
-      <c r="R184" s="56"/>
-      <c r="S184" s="56"/>
-      <c r="T184" s="56"/>
-      <c r="U184" s="56"/>
-      <c r="V184" s="56"/>
+      <c r="R184" s="59"/>
+      <c r="S184" s="59"/>
+      <c r="T184" s="59"/>
+      <c r="U184" s="59"/>
+      <c r="V184" s="59"/>
     </row>
     <row r="185" spans="1:22" ht="37.5">
       <c r="A185" s="44" t="s">
@@ -14133,13 +14127,13 @@
       <c r="Q185" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R185" s="56" t="s">
+      <c r="R185" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S185" s="56"/>
-      <c r="T185" s="56"/>
-      <c r="U185" s="56"/>
-      <c r="V185" s="56"/>
+      <c r="S185" s="59"/>
+      <c r="T185" s="59"/>
+      <c r="U185" s="59"/>
+      <c r="V185" s="59"/>
     </row>
     <row r="186" spans="1:22" ht="37.5">
       <c r="A186" s="40" t="s">
@@ -14189,11 +14183,11 @@
       </c>
       <c r="P186" s="10"/>
       <c r="Q186" s="11"/>
-      <c r="R186" s="56"/>
-      <c r="S186" s="56"/>
-      <c r="T186" s="56"/>
-      <c r="U186" s="56"/>
-      <c r="V186" s="56"/>
+      <c r="R186" s="59"/>
+      <c r="S186" s="59"/>
+      <c r="T186" s="59"/>
+      <c r="U186" s="59"/>
+      <c r="V186" s="59"/>
     </row>
     <row r="187" spans="1:22" ht="56.25">
       <c r="A187" s="40" t="s">
@@ -14243,11 +14237,11 @@
       </c>
       <c r="P187" s="10"/>
       <c r="Q187" s="11"/>
-      <c r="R187" s="56"/>
-      <c r="S187" s="56"/>
-      <c r="T187" s="56"/>
-      <c r="U187" s="56"/>
-      <c r="V187" s="56"/>
+      <c r="R187" s="59"/>
+      <c r="S187" s="59"/>
+      <c r="T187" s="59"/>
+      <c r="U187" s="59"/>
+      <c r="V187" s="59"/>
     </row>
     <row r="188" spans="1:22" ht="56.25">
       <c r="A188" s="40" t="s">
@@ -14297,11 +14291,11 @@
       </c>
       <c r="P188" s="10"/>
       <c r="Q188" s="11"/>
-      <c r="R188" s="56"/>
-      <c r="S188" s="56"/>
-      <c r="T188" s="56"/>
-      <c r="U188" s="56"/>
-      <c r="V188" s="56"/>
+      <c r="R188" s="59"/>
+      <c r="S188" s="59"/>
+      <c r="T188" s="59"/>
+      <c r="U188" s="59"/>
+      <c r="V188" s="59"/>
     </row>
     <row r="189" spans="1:22" ht="37.5">
       <c r="A189" s="44" t="s">
@@ -14357,13 +14351,13 @@
       <c r="Q189" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R189" s="56" t="s">
+      <c r="R189" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S189" s="56"/>
-      <c r="T189" s="56"/>
-      <c r="U189" s="56"/>
-      <c r="V189" s="56"/>
+      <c r="S189" s="59"/>
+      <c r="T189" s="59"/>
+      <c r="U189" s="59"/>
+      <c r="V189" s="59"/>
     </row>
     <row r="190" spans="1:22" ht="56.25">
       <c r="A190" s="40" t="s">
@@ -14413,11 +14407,11 @@
       </c>
       <c r="P190" s="10"/>
       <c r="Q190" s="11"/>
-      <c r="R190" s="56"/>
-      <c r="S190" s="56"/>
-      <c r="T190" s="56"/>
-      <c r="U190" s="56"/>
-      <c r="V190" s="56"/>
+      <c r="R190" s="59"/>
+      <c r="S190" s="59"/>
+      <c r="T190" s="59"/>
+      <c r="U190" s="59"/>
+      <c r="V190" s="59"/>
     </row>
     <row r="191" spans="1:22" ht="56.25">
       <c r="A191" s="40" t="s">
@@ -14467,11 +14461,11 @@
       </c>
       <c r="P191" s="10"/>
       <c r="Q191" s="11"/>
-      <c r="R191" s="56"/>
-      <c r="S191" s="56"/>
-      <c r="T191" s="56"/>
-      <c r="U191" s="56"/>
-      <c r="V191" s="56"/>
+      <c r="R191" s="59"/>
+      <c r="S191" s="59"/>
+      <c r="T191" s="59"/>
+      <c r="U191" s="59"/>
+      <c r="V191" s="59"/>
     </row>
     <row r="192" spans="1:22" ht="56.25">
       <c r="A192" s="40" t="s">
@@ -14521,11 +14515,11 @@
       </c>
       <c r="P192" s="10"/>
       <c r="Q192" s="11"/>
-      <c r="R192" s="56"/>
-      <c r="S192" s="56"/>
-      <c r="T192" s="56"/>
-      <c r="U192" s="56"/>
-      <c r="V192" s="56"/>
+      <c r="R192" s="59"/>
+      <c r="S192" s="59"/>
+      <c r="T192" s="59"/>
+      <c r="U192" s="59"/>
+      <c r="V192" s="59"/>
     </row>
     <row r="193" spans="1:22" ht="56.25">
       <c r="A193" s="44" t="s">
@@ -14581,13 +14575,13 @@
       <c r="Q193" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R193" s="56" t="s">
+      <c r="R193" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S193" s="56"/>
-      <c r="T193" s="56"/>
-      <c r="U193" s="56"/>
-      <c r="V193" s="56"/>
+      <c r="S193" s="59"/>
+      <c r="T193" s="59"/>
+      <c r="U193" s="59"/>
+      <c r="V193" s="59"/>
     </row>
     <row r="194" spans="1:22" ht="56.25">
       <c r="A194" s="40" t="s">
@@ -14637,11 +14631,11 @@
       </c>
       <c r="P194" s="10"/>
       <c r="Q194" s="11"/>
-      <c r="R194" s="56"/>
-      <c r="S194" s="56"/>
-      <c r="T194" s="56"/>
-      <c r="U194" s="56"/>
-      <c r="V194" s="56"/>
+      <c r="R194" s="59"/>
+      <c r="S194" s="59"/>
+      <c r="T194" s="59"/>
+      <c r="U194" s="59"/>
+      <c r="V194" s="59"/>
     </row>
     <row r="195" spans="1:22" ht="56.25">
       <c r="A195" s="44" t="s">
@@ -14697,13 +14691,13 @@
       <c r="Q195" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R195" s="56" t="s">
+      <c r="R195" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S195" s="56"/>
-      <c r="T195" s="56"/>
-      <c r="U195" s="56"/>
-      <c r="V195" s="56"/>
+      <c r="S195" s="59"/>
+      <c r="T195" s="59"/>
+      <c r="U195" s="59"/>
+      <c r="V195" s="59"/>
     </row>
     <row r="196" spans="1:22" ht="56.25">
       <c r="A196" s="40" t="s">
@@ -14753,11 +14747,11 @@
       </c>
       <c r="P196" s="10"/>
       <c r="Q196" s="11"/>
-      <c r="R196" s="56"/>
-      <c r="S196" s="56"/>
-      <c r="T196" s="56"/>
-      <c r="U196" s="56"/>
-      <c r="V196" s="56"/>
+      <c r="R196" s="59"/>
+      <c r="S196" s="59"/>
+      <c r="T196" s="59"/>
+      <c r="U196" s="59"/>
+      <c r="V196" s="59"/>
     </row>
     <row r="197" spans="1:22" ht="56.25">
       <c r="A197" s="40" t="s">
@@ -14807,11 +14801,11 @@
       </c>
       <c r="P197" s="10"/>
       <c r="Q197" s="11"/>
-      <c r="R197" s="56"/>
-      <c r="S197" s="56"/>
-      <c r="T197" s="56"/>
-      <c r="U197" s="56"/>
-      <c r="V197" s="56"/>
+      <c r="R197" s="59"/>
+      <c r="S197" s="59"/>
+      <c r="T197" s="59"/>
+      <c r="U197" s="59"/>
+      <c r="V197" s="59"/>
     </row>
     <row r="198" spans="1:22" ht="56.25">
       <c r="A198" s="44" t="s">
@@ -14867,13 +14861,13 @@
       <c r="Q198" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R198" s="56" t="s">
+      <c r="R198" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S198" s="56"/>
-      <c r="T198" s="56"/>
-      <c r="U198" s="56"/>
-      <c r="V198" s="56"/>
+      <c r="S198" s="59"/>
+      <c r="T198" s="59"/>
+      <c r="U198" s="59"/>
+      <c r="V198" s="59"/>
     </row>
     <row r="199" spans="1:22" ht="56.25">
       <c r="A199" s="40" t="s">
@@ -14923,11 +14917,11 @@
       </c>
       <c r="P199" s="10"/>
       <c r="Q199" s="11"/>
-      <c r="R199" s="56"/>
-      <c r="S199" s="56"/>
-      <c r="T199" s="56"/>
-      <c r="U199" s="56"/>
-      <c r="V199" s="56"/>
+      <c r="R199" s="59"/>
+      <c r="S199" s="59"/>
+      <c r="T199" s="59"/>
+      <c r="U199" s="59"/>
+      <c r="V199" s="59"/>
     </row>
     <row r="200" spans="1:22" ht="56.25">
       <c r="A200" s="44" t="s">
@@ -14983,13 +14977,13 @@
       <c r="Q200" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R200" s="56" t="s">
+      <c r="R200" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S200" s="56"/>
-      <c r="T200" s="56"/>
-      <c r="U200" s="56"/>
-      <c r="V200" s="56"/>
+      <c r="S200" s="59"/>
+      <c r="T200" s="59"/>
+      <c r="U200" s="59"/>
+      <c r="V200" s="59"/>
     </row>
     <row r="201" spans="1:22" ht="56.25">
       <c r="A201" s="44" t="s">
@@ -15045,13 +15039,13 @@
       <c r="Q201" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R201" s="56" t="s">
+      <c r="R201" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S201" s="56"/>
-      <c r="T201" s="56"/>
-      <c r="U201" s="56"/>
-      <c r="V201" s="56"/>
+      <c r="S201" s="59"/>
+      <c r="T201" s="59"/>
+      <c r="U201" s="59"/>
+      <c r="V201" s="59"/>
     </row>
     <row r="202" spans="1:22" ht="37.5">
       <c r="A202" s="44" t="s">
@@ -15107,13 +15101,13 @@
       <c r="Q202" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R202" s="56" t="s">
+      <c r="R202" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S202" s="56"/>
-      <c r="T202" s="56"/>
-      <c r="U202" s="56"/>
-      <c r="V202" s="56"/>
+      <c r="S202" s="59"/>
+      <c r="T202" s="59"/>
+      <c r="U202" s="59"/>
+      <c r="V202" s="59"/>
     </row>
     <row r="203" spans="1:22" ht="37.5">
       <c r="A203" s="44" t="s">
@@ -15169,13 +15163,13 @@
       <c r="Q203" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R203" s="56" t="s">
+      <c r="R203" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S203" s="56"/>
-      <c r="T203" s="56"/>
-      <c r="U203" s="56"/>
-      <c r="V203" s="56"/>
+      <c r="S203" s="59"/>
+      <c r="T203" s="59"/>
+      <c r="U203" s="59"/>
+      <c r="V203" s="59"/>
     </row>
     <row r="204" spans="1:22" ht="37.5">
       <c r="A204" s="44" t="s">
@@ -15231,13 +15225,13 @@
       <c r="Q204" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R204" s="56" t="s">
+      <c r="R204" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S204" s="56"/>
-      <c r="T204" s="56"/>
-      <c r="U204" s="56"/>
-      <c r="V204" s="56"/>
+      <c r="S204" s="59"/>
+      <c r="T204" s="59"/>
+      <c r="U204" s="59"/>
+      <c r="V204" s="59"/>
     </row>
     <row r="205" spans="1:22" ht="37.5">
       <c r="A205" s="40" t="s">
@@ -15287,11 +15281,11 @@
       </c>
       <c r="P205" s="10"/>
       <c r="Q205" s="11"/>
-      <c r="R205" s="56"/>
-      <c r="S205" s="56"/>
-      <c r="T205" s="56"/>
-      <c r="U205" s="56"/>
-      <c r="V205" s="56"/>
+      <c r="R205" s="59"/>
+      <c r="S205" s="59"/>
+      <c r="T205" s="59"/>
+      <c r="U205" s="59"/>
+      <c r="V205" s="59"/>
     </row>
     <row r="206" spans="1:22" ht="37.5">
       <c r="A206" s="40" t="s">
@@ -15341,11 +15335,11 @@
       </c>
       <c r="P206" s="10"/>
       <c r="Q206" s="11"/>
-      <c r="R206" s="56"/>
-      <c r="S206" s="56"/>
-      <c r="T206" s="56"/>
-      <c r="U206" s="56"/>
-      <c r="V206" s="56"/>
+      <c r="R206" s="59"/>
+      <c r="S206" s="59"/>
+      <c r="T206" s="59"/>
+      <c r="U206" s="59"/>
+      <c r="V206" s="59"/>
     </row>
     <row r="207" spans="1:22" ht="37.5">
       <c r="A207" s="40" t="s">
@@ -15395,11 +15389,11 @@
       </c>
       <c r="P207" s="10"/>
       <c r="Q207" s="11"/>
-      <c r="R207" s="56"/>
-      <c r="S207" s="56"/>
-      <c r="T207" s="56"/>
-      <c r="U207" s="56"/>
-      <c r="V207" s="56"/>
+      <c r="R207" s="59"/>
+      <c r="S207" s="59"/>
+      <c r="T207" s="59"/>
+      <c r="U207" s="59"/>
+      <c r="V207" s="59"/>
     </row>
     <row r="208" spans="1:22" ht="37.5">
       <c r="A208" s="40" t="s">
@@ -15449,11 +15443,11 @@
       </c>
       <c r="P208" s="10"/>
       <c r="Q208" s="11"/>
-      <c r="R208" s="56"/>
-      <c r="S208" s="56"/>
-      <c r="T208" s="56"/>
-      <c r="U208" s="56"/>
-      <c r="V208" s="56"/>
+      <c r="R208" s="59"/>
+      <c r="S208" s="59"/>
+      <c r="T208" s="59"/>
+      <c r="U208" s="59"/>
+      <c r="V208" s="59"/>
     </row>
     <row r="209" spans="1:22" ht="37.5">
       <c r="A209" s="40" t="s">
@@ -15503,11 +15497,11 @@
       </c>
       <c r="P209" s="10"/>
       <c r="Q209" s="11"/>
-      <c r="R209" s="56"/>
-      <c r="S209" s="56"/>
-      <c r="T209" s="56"/>
-      <c r="U209" s="56"/>
-      <c r="V209" s="56"/>
+      <c r="R209" s="59"/>
+      <c r="S209" s="59"/>
+      <c r="T209" s="59"/>
+      <c r="U209" s="59"/>
+      <c r="V209" s="59"/>
     </row>
     <row r="210" spans="1:22" ht="37.5">
       <c r="A210" s="40" t="s">
@@ -15557,11 +15551,11 @@
       </c>
       <c r="P210" s="10"/>
       <c r="Q210" s="11"/>
-      <c r="R210" s="56"/>
-      <c r="S210" s="56"/>
-      <c r="T210" s="56"/>
-      <c r="U210" s="56"/>
-      <c r="V210" s="56"/>
+      <c r="R210" s="59"/>
+      <c r="S210" s="59"/>
+      <c r="T210" s="59"/>
+      <c r="U210" s="59"/>
+      <c r="V210" s="59"/>
     </row>
     <row r="211" spans="1:22" ht="37.5">
       <c r="A211" s="44" t="s">
@@ -15617,13 +15611,13 @@
       <c r="Q211" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R211" s="56" t="s">
+      <c r="R211" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S211" s="56"/>
-      <c r="T211" s="56"/>
-      <c r="U211" s="56"/>
-      <c r="V211" s="56"/>
+      <c r="S211" s="59"/>
+      <c r="T211" s="59"/>
+      <c r="U211" s="59"/>
+      <c r="V211" s="59"/>
     </row>
     <row r="212" spans="1:22" ht="56.25">
       <c r="A212" s="40" t="s">
@@ -15673,11 +15667,11 @@
       </c>
       <c r="P212" s="10"/>
       <c r="Q212" s="11"/>
-      <c r="R212" s="56"/>
-      <c r="S212" s="56"/>
-      <c r="T212" s="56"/>
-      <c r="U212" s="56"/>
-      <c r="V212" s="56"/>
+      <c r="R212" s="59"/>
+      <c r="S212" s="59"/>
+      <c r="T212" s="59"/>
+      <c r="U212" s="59"/>
+      <c r="V212" s="59"/>
     </row>
     <row r="213" spans="1:22" ht="56.25">
       <c r="A213" s="40" t="s">
@@ -15727,11 +15721,11 @@
       </c>
       <c r="P213" s="10"/>
       <c r="Q213" s="11"/>
-      <c r="R213" s="56"/>
-      <c r="S213" s="56"/>
-      <c r="T213" s="56"/>
-      <c r="U213" s="56"/>
-      <c r="V213" s="56"/>
+      <c r="R213" s="59"/>
+      <c r="S213" s="59"/>
+      <c r="T213" s="59"/>
+      <c r="U213" s="59"/>
+      <c r="V213" s="59"/>
     </row>
     <row r="214" spans="1:22" ht="56.25">
       <c r="A214" s="40" t="s">
@@ -15781,11 +15775,11 @@
       </c>
       <c r="P214" s="10"/>
       <c r="Q214" s="11"/>
-      <c r="R214" s="56"/>
-      <c r="S214" s="56"/>
-      <c r="T214" s="56"/>
-      <c r="U214" s="56"/>
-      <c r="V214" s="56"/>
+      <c r="R214" s="59"/>
+      <c r="S214" s="59"/>
+      <c r="T214" s="59"/>
+      <c r="U214" s="59"/>
+      <c r="V214" s="59"/>
     </row>
     <row r="215" spans="1:22" ht="37.5">
       <c r="A215" s="40" t="s">
@@ -15835,11 +15829,11 @@
       </c>
       <c r="P215" s="10"/>
       <c r="Q215" s="11"/>
-      <c r="R215" s="56"/>
-      <c r="S215" s="56"/>
-      <c r="T215" s="56"/>
-      <c r="U215" s="56"/>
-      <c r="V215" s="56"/>
+      <c r="R215" s="59"/>
+      <c r="S215" s="59"/>
+      <c r="T215" s="59"/>
+      <c r="U215" s="59"/>
+      <c r="V215" s="59"/>
     </row>
     <row r="216" spans="1:22" ht="37.5">
       <c r="A216" s="40" t="s">
@@ -15889,11 +15883,11 @@
       </c>
       <c r="P216" s="10"/>
       <c r="Q216" s="11"/>
-      <c r="R216" s="56"/>
-      <c r="S216" s="56"/>
-      <c r="T216" s="56"/>
-      <c r="U216" s="56"/>
-      <c r="V216" s="56"/>
+      <c r="R216" s="59"/>
+      <c r="S216" s="59"/>
+      <c r="T216" s="59"/>
+      <c r="U216" s="59"/>
+      <c r="V216" s="59"/>
     </row>
     <row r="217" spans="1:22" ht="56.25">
       <c r="A217" s="40" t="s">
@@ -15943,11 +15937,11 @@
       </c>
       <c r="P217" s="10"/>
       <c r="Q217" s="11"/>
-      <c r="R217" s="56"/>
-      <c r="S217" s="56"/>
-      <c r="T217" s="56"/>
-      <c r="U217" s="56"/>
-      <c r="V217" s="56"/>
+      <c r="R217" s="59"/>
+      <c r="S217" s="59"/>
+      <c r="T217" s="59"/>
+      <c r="U217" s="59"/>
+      <c r="V217" s="59"/>
     </row>
     <row r="218" spans="1:22" ht="56.25">
       <c r="A218" s="40" t="s">
@@ -15997,11 +15991,11 @@
       </c>
       <c r="P218" s="10"/>
       <c r="Q218" s="11"/>
-      <c r="R218" s="56"/>
-      <c r="S218" s="56"/>
-      <c r="T218" s="56"/>
-      <c r="U218" s="56"/>
-      <c r="V218" s="56"/>
+      <c r="R218" s="59"/>
+      <c r="S218" s="59"/>
+      <c r="T218" s="59"/>
+      <c r="U218" s="59"/>
+      <c r="V218" s="59"/>
     </row>
     <row r="219" spans="1:22" ht="37.5">
       <c r="A219" s="40" t="s">
@@ -16051,11 +16045,11 @@
       </c>
       <c r="P219" s="10"/>
       <c r="Q219" s="11"/>
-      <c r="R219" s="56"/>
-      <c r="S219" s="56"/>
-      <c r="T219" s="56"/>
-      <c r="U219" s="56"/>
-      <c r="V219" s="56"/>
+      <c r="R219" s="59"/>
+      <c r="S219" s="59"/>
+      <c r="T219" s="59"/>
+      <c r="U219" s="59"/>
+      <c r="V219" s="59"/>
     </row>
     <row r="220" spans="1:22" ht="37.5">
       <c r="A220" s="40" t="s">
@@ -16105,11 +16099,11 @@
       </c>
       <c r="P220" s="10"/>
       <c r="Q220" s="11"/>
-      <c r="R220" s="56"/>
-      <c r="S220" s="56"/>
-      <c r="T220" s="56"/>
-      <c r="U220" s="56"/>
-      <c r="V220" s="56"/>
+      <c r="R220" s="59"/>
+      <c r="S220" s="59"/>
+      <c r="T220" s="59"/>
+      <c r="U220" s="59"/>
+      <c r="V220" s="59"/>
     </row>
     <row r="221" spans="1:22" ht="56.25">
       <c r="A221" s="40" t="s">
@@ -16159,11 +16153,11 @@
       </c>
       <c r="P221" s="10"/>
       <c r="Q221" s="11"/>
-      <c r="R221" s="56"/>
-      <c r="S221" s="56"/>
-      <c r="T221" s="56"/>
-      <c r="U221" s="56"/>
-      <c r="V221" s="56"/>
+      <c r="R221" s="59"/>
+      <c r="S221" s="59"/>
+      <c r="T221" s="59"/>
+      <c r="U221" s="59"/>
+      <c r="V221" s="59"/>
     </row>
     <row r="222" spans="1:22" ht="56.25">
       <c r="A222" s="40" t="s">
@@ -16213,11 +16207,11 @@
       </c>
       <c r="P222" s="10"/>
       <c r="Q222" s="11"/>
-      <c r="R222" s="56"/>
-      <c r="S222" s="56"/>
-      <c r="T222" s="56"/>
-      <c r="U222" s="56"/>
-      <c r="V222" s="56"/>
+      <c r="R222" s="59"/>
+      <c r="S222" s="59"/>
+      <c r="T222" s="59"/>
+      <c r="U222" s="59"/>
+      <c r="V222" s="59"/>
     </row>
     <row r="223" spans="1:22" ht="37.5">
       <c r="A223" s="40" t="s">
@@ -16267,11 +16261,11 @@
       </c>
       <c r="P223" s="10"/>
       <c r="Q223" s="11"/>
-      <c r="R223" s="56"/>
-      <c r="S223" s="56"/>
-      <c r="T223" s="56"/>
-      <c r="U223" s="56"/>
-      <c r="V223" s="56"/>
+      <c r="R223" s="59"/>
+      <c r="S223" s="59"/>
+      <c r="T223" s="59"/>
+      <c r="U223" s="59"/>
+      <c r="V223" s="59"/>
     </row>
     <row r="224" spans="1:22" ht="37.5">
       <c r="A224" s="40" t="s">
@@ -16321,11 +16315,11 @@
       </c>
       <c r="P224" s="10"/>
       <c r="Q224" s="11"/>
-      <c r="R224" s="56"/>
-      <c r="S224" s="56"/>
-      <c r="T224" s="56"/>
-      <c r="U224" s="56"/>
-      <c r="V224" s="56"/>
+      <c r="R224" s="59"/>
+      <c r="S224" s="59"/>
+      <c r="T224" s="59"/>
+      <c r="U224" s="59"/>
+      <c r="V224" s="59"/>
     </row>
     <row r="225" spans="1:22" ht="37.5">
       <c r="A225" s="40" t="s">
@@ -16381,13 +16375,13 @@
       <c r="Q225" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="R225" s="57" t="s">
+      <c r="R225" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="S225" s="57"/>
-      <c r="T225" s="57"/>
-      <c r="U225" s="57"/>
-      <c r="V225" s="57"/>
+      <c r="S225" s="60"/>
+      <c r="T225" s="60"/>
+      <c r="U225" s="60"/>
+      <c r="V225" s="60"/>
     </row>
     <row r="226" spans="1:22" ht="56.25">
       <c r="A226" s="40" t="s">
@@ -16437,11 +16431,11 @@
       </c>
       <c r="P226" s="10"/>
       <c r="Q226" s="11"/>
-      <c r="R226" s="56"/>
-      <c r="S226" s="56"/>
-      <c r="T226" s="56"/>
-      <c r="U226" s="56"/>
-      <c r="V226" s="56"/>
+      <c r="R226" s="59"/>
+      <c r="S226" s="59"/>
+      <c r="T226" s="59"/>
+      <c r="U226" s="59"/>
+      <c r="V226" s="59"/>
     </row>
     <row r="227" spans="1:22" ht="37.5">
       <c r="A227" s="40" t="s">
@@ -16491,11 +16485,11 @@
       </c>
       <c r="P227" s="10"/>
       <c r="Q227" s="11"/>
-      <c r="R227" s="56"/>
-      <c r="S227" s="56"/>
-      <c r="T227" s="56"/>
-      <c r="U227" s="56"/>
-      <c r="V227" s="56"/>
+      <c r="R227" s="59"/>
+      <c r="S227" s="59"/>
+      <c r="T227" s="59"/>
+      <c r="U227" s="59"/>
+      <c r="V227" s="59"/>
     </row>
     <row r="228" spans="1:22">
       <c r="A228" s="40" t="s">
@@ -16545,11 +16539,11 @@
       </c>
       <c r="P228" s="10"/>
       <c r="Q228" s="11"/>
-      <c r="R228" s="56"/>
-      <c r="S228" s="56"/>
-      <c r="T228" s="56"/>
-      <c r="U228" s="56"/>
-      <c r="V228" s="56"/>
+      <c r="R228" s="59"/>
+      <c r="S228" s="59"/>
+      <c r="T228" s="59"/>
+      <c r="U228" s="59"/>
+      <c r="V228" s="59"/>
     </row>
     <row r="229" spans="1:22" ht="37.5">
       <c r="A229" s="40" t="s">
@@ -16599,11 +16593,11 @@
       </c>
       <c r="P229" s="10"/>
       <c r="Q229" s="11"/>
-      <c r="R229" s="56"/>
-      <c r="S229" s="56"/>
-      <c r="T229" s="56"/>
-      <c r="U229" s="56"/>
-      <c r="V229" s="56"/>
+      <c r="R229" s="59"/>
+      <c r="S229" s="59"/>
+      <c r="T229" s="59"/>
+      <c r="U229" s="59"/>
+      <c r="V229" s="59"/>
     </row>
     <row r="230" spans="1:22" ht="37.5">
       <c r="A230" s="40" t="s">
@@ -16653,11 +16647,11 @@
       </c>
       <c r="P230" s="10"/>
       <c r="Q230" s="11"/>
-      <c r="R230" s="56"/>
-      <c r="S230" s="56"/>
-      <c r="T230" s="56"/>
-      <c r="U230" s="56"/>
-      <c r="V230" s="56"/>
+      <c r="R230" s="59"/>
+      <c r="S230" s="59"/>
+      <c r="T230" s="59"/>
+      <c r="U230" s="59"/>
+      <c r="V230" s="59"/>
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="40" t="s">
@@ -16707,11 +16701,11 @@
       </c>
       <c r="P231" s="10"/>
       <c r="Q231" s="11"/>
-      <c r="R231" s="56"/>
-      <c r="S231" s="56"/>
-      <c r="T231" s="56"/>
-      <c r="U231" s="56"/>
-      <c r="V231" s="56"/>
+      <c r="R231" s="59"/>
+      <c r="S231" s="59"/>
+      <c r="T231" s="59"/>
+      <c r="U231" s="59"/>
+      <c r="V231" s="59"/>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="40" t="s">
@@ -16761,11 +16755,11 @@
       </c>
       <c r="P232" s="10"/>
       <c r="Q232" s="11"/>
-      <c r="R232" s="56"/>
-      <c r="S232" s="56"/>
-      <c r="T232" s="56"/>
-      <c r="U232" s="56"/>
-      <c r="V232" s="56"/>
+      <c r="R232" s="59"/>
+      <c r="S232" s="59"/>
+      <c r="T232" s="59"/>
+      <c r="U232" s="59"/>
+      <c r="V232" s="59"/>
     </row>
     <row r="233" spans="1:22" ht="37.5">
       <c r="A233" s="40" t="s">
@@ -16815,11 +16809,11 @@
       </c>
       <c r="P233" s="10"/>
       <c r="Q233" s="11"/>
-      <c r="R233" s="56"/>
-      <c r="S233" s="56"/>
-      <c r="T233" s="56"/>
-      <c r="U233" s="56"/>
-      <c r="V233" s="56"/>
+      <c r="R233" s="59"/>
+      <c r="S233" s="59"/>
+      <c r="T233" s="59"/>
+      <c r="U233" s="59"/>
+      <c r="V233" s="59"/>
     </row>
     <row r="234" spans="1:22" ht="37.5">
       <c r="A234" s="40" t="s">
@@ -16869,11 +16863,11 @@
       </c>
       <c r="P234" s="10"/>
       <c r="Q234" s="11"/>
-      <c r="R234" s="56"/>
-      <c r="S234" s="56"/>
-      <c r="T234" s="56"/>
-      <c r="U234" s="56"/>
-      <c r="V234" s="56"/>
+      <c r="R234" s="59"/>
+      <c r="S234" s="59"/>
+      <c r="T234" s="59"/>
+      <c r="U234" s="59"/>
+      <c r="V234" s="59"/>
     </row>
     <row r="235" spans="1:22" ht="37.5">
       <c r="A235" s="40" t="s">
@@ -16923,11 +16917,11 @@
       </c>
       <c r="P235" s="10"/>
       <c r="Q235" s="11"/>
-      <c r="R235" s="56"/>
-      <c r="S235" s="56"/>
-      <c r="T235" s="56"/>
-      <c r="U235" s="56"/>
-      <c r="V235" s="56"/>
+      <c r="R235" s="59"/>
+      <c r="S235" s="59"/>
+      <c r="T235" s="59"/>
+      <c r="U235" s="59"/>
+      <c r="V235" s="59"/>
     </row>
     <row r="236" spans="1:22" ht="56.25">
       <c r="A236" s="40" t="s">
@@ -16983,13 +16977,13 @@
       <c r="Q236" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="R236" s="57" t="s">
+      <c r="R236" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="S236" s="57"/>
-      <c r="T236" s="57"/>
-      <c r="U236" s="57"/>
-      <c r="V236" s="57"/>
+      <c r="S236" s="60"/>
+      <c r="T236" s="60"/>
+      <c r="U236" s="60"/>
+      <c r="V236" s="60"/>
     </row>
     <row r="237" spans="1:22" ht="56.25">
       <c r="A237" s="40" t="s">
@@ -17039,11 +17033,11 @@
       </c>
       <c r="P237" s="10"/>
       <c r="Q237" s="11"/>
-      <c r="R237" s="56"/>
-      <c r="S237" s="56"/>
-      <c r="T237" s="56"/>
-      <c r="U237" s="56"/>
-      <c r="V237" s="56"/>
+      <c r="R237" s="59"/>
+      <c r="S237" s="59"/>
+      <c r="T237" s="59"/>
+      <c r="U237" s="59"/>
+      <c r="V237" s="59"/>
     </row>
     <row r="238" spans="1:22" ht="56.25">
       <c r="A238" s="40" t="s">
@@ -17093,11 +17087,11 @@
       </c>
       <c r="P238" s="10"/>
       <c r="Q238" s="11"/>
-      <c r="R238" s="56"/>
-      <c r="S238" s="56"/>
-      <c r="T238" s="56"/>
-      <c r="U238" s="56"/>
-      <c r="V238" s="56"/>
+      <c r="R238" s="59"/>
+      <c r="S238" s="59"/>
+      <c r="T238" s="59"/>
+      <c r="U238" s="59"/>
+      <c r="V238" s="59"/>
     </row>
     <row r="239" spans="1:22" ht="37.5">
       <c r="A239" s="44" t="s">
@@ -17153,13 +17147,13 @@
       <c r="Q239" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R239" s="56" t="s">
+      <c r="R239" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S239" s="56"/>
-      <c r="T239" s="56"/>
-      <c r="U239" s="56"/>
-      <c r="V239" s="56"/>
+      <c r="S239" s="59"/>
+      <c r="T239" s="59"/>
+      <c r="U239" s="59"/>
+      <c r="V239" s="59"/>
     </row>
     <row r="240" spans="1:22" ht="37.5">
       <c r="A240" s="40" t="s">
@@ -17209,11 +17203,11 @@
       </c>
       <c r="P240" s="10"/>
       <c r="Q240" s="11"/>
-      <c r="R240" s="56"/>
-      <c r="S240" s="56"/>
-      <c r="T240" s="56"/>
-      <c r="U240" s="56"/>
-      <c r="V240" s="56"/>
+      <c r="R240" s="59"/>
+      <c r="S240" s="59"/>
+      <c r="T240" s="59"/>
+      <c r="U240" s="59"/>
+      <c r="V240" s="59"/>
     </row>
     <row r="241" spans="1:22" ht="37.5">
       <c r="A241" s="40" t="s">
@@ -17269,13 +17263,13 @@
       <c r="Q241" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R241" s="56" t="s">
+      <c r="R241" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S241" s="56"/>
-      <c r="T241" s="56"/>
-      <c r="U241" s="56"/>
-      <c r="V241" s="56"/>
+      <c r="S241" s="59"/>
+      <c r="T241" s="59"/>
+      <c r="U241" s="59"/>
+      <c r="V241" s="59"/>
     </row>
     <row r="242" spans="1:22" ht="37.5">
       <c r="A242" s="40" t="s">
@@ -17325,11 +17319,11 @@
       </c>
       <c r="P242" s="10"/>
       <c r="Q242" s="11"/>
-      <c r="R242" s="56"/>
-      <c r="S242" s="56"/>
-      <c r="T242" s="56"/>
-      <c r="U242" s="56"/>
-      <c r="V242" s="56"/>
+      <c r="R242" s="59"/>
+      <c r="S242" s="59"/>
+      <c r="T242" s="59"/>
+      <c r="U242" s="59"/>
+      <c r="V242" s="59"/>
     </row>
     <row r="243" spans="1:22" ht="37.5">
       <c r="A243" s="40" t="s">
@@ -17379,11 +17373,11 @@
       </c>
       <c r="P243" s="10"/>
       <c r="Q243" s="11"/>
-      <c r="R243" s="56"/>
-      <c r="S243" s="56"/>
-      <c r="T243" s="56"/>
-      <c r="U243" s="56"/>
-      <c r="V243" s="56"/>
+      <c r="R243" s="59"/>
+      <c r="S243" s="59"/>
+      <c r="T243" s="59"/>
+      <c r="U243" s="59"/>
+      <c r="V243" s="59"/>
     </row>
     <row r="244" spans="1:22" ht="56.25">
       <c r="A244" s="40" t="s">
@@ -17433,11 +17427,11 @@
       </c>
       <c r="P244" s="10"/>
       <c r="Q244" s="11"/>
-      <c r="R244" s="56"/>
-      <c r="S244" s="56"/>
-      <c r="T244" s="56"/>
-      <c r="U244" s="56"/>
-      <c r="V244" s="56"/>
+      <c r="R244" s="59"/>
+      <c r="S244" s="59"/>
+      <c r="T244" s="59"/>
+      <c r="U244" s="59"/>
+      <c r="V244" s="59"/>
     </row>
     <row r="245" spans="1:22" ht="37.5">
       <c r="A245" s="40" t="s">
@@ -17487,11 +17481,11 @@
       </c>
       <c r="P245" s="10"/>
       <c r="Q245" s="11"/>
-      <c r="R245" s="56"/>
-      <c r="S245" s="56"/>
-      <c r="T245" s="56"/>
-      <c r="U245" s="56"/>
-      <c r="V245" s="56"/>
+      <c r="R245" s="59"/>
+      <c r="S245" s="59"/>
+      <c r="T245" s="59"/>
+      <c r="U245" s="59"/>
+      <c r="V245" s="59"/>
     </row>
     <row r="246" spans="1:22" ht="37.5">
       <c r="A246" s="40" t="s">
@@ -17541,11 +17535,11 @@
       </c>
       <c r="P246" s="10"/>
       <c r="Q246" s="11"/>
-      <c r="R246" s="56"/>
-      <c r="S246" s="56"/>
-      <c r="T246" s="56"/>
-      <c r="U246" s="56"/>
-      <c r="V246" s="56"/>
+      <c r="R246" s="59"/>
+      <c r="S246" s="59"/>
+      <c r="T246" s="59"/>
+      <c r="U246" s="59"/>
+      <c r="V246" s="59"/>
     </row>
     <row r="247" spans="1:22" ht="37.5">
       <c r="A247" s="40" t="s">
@@ -17595,11 +17589,11 @@
       </c>
       <c r="P247" s="10"/>
       <c r="Q247" s="11"/>
-      <c r="R247" s="56"/>
-      <c r="S247" s="56"/>
-      <c r="T247" s="56"/>
-      <c r="U247" s="56"/>
-      <c r="V247" s="56"/>
+      <c r="R247" s="59"/>
+      <c r="S247" s="59"/>
+      <c r="T247" s="59"/>
+      <c r="U247" s="59"/>
+      <c r="V247" s="59"/>
     </row>
     <row r="248" spans="1:22" ht="37.5">
       <c r="A248" s="40" t="s">
@@ -17649,11 +17643,11 @@
       </c>
       <c r="P248" s="10"/>
       <c r="Q248" s="11"/>
-      <c r="R248" s="56"/>
-      <c r="S248" s="56"/>
-      <c r="T248" s="56"/>
-      <c r="U248" s="56"/>
-      <c r="V248" s="56"/>
+      <c r="R248" s="59"/>
+      <c r="S248" s="59"/>
+      <c r="T248" s="59"/>
+      <c r="U248" s="59"/>
+      <c r="V248" s="59"/>
     </row>
     <row r="249" spans="1:22" ht="37.5">
       <c r="A249" s="40" t="s">
@@ -17709,13 +17703,13 @@
       <c r="Q249" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R249" s="56" t="s">
+      <c r="R249" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S249" s="56"/>
-      <c r="T249" s="56"/>
-      <c r="U249" s="56"/>
-      <c r="V249" s="56"/>
+      <c r="S249" s="59"/>
+      <c r="T249" s="59"/>
+      <c r="U249" s="59"/>
+      <c r="V249" s="59"/>
     </row>
     <row r="250" spans="1:22" ht="37.5">
       <c r="A250" s="40" t="s">
@@ -17765,11 +17759,11 @@
       </c>
       <c r="P250" s="10"/>
       <c r="Q250" s="11"/>
-      <c r="R250" s="56"/>
-      <c r="S250" s="56"/>
-      <c r="T250" s="56"/>
-      <c r="U250" s="56"/>
-      <c r="V250" s="56"/>
+      <c r="R250" s="59"/>
+      <c r="S250" s="59"/>
+      <c r="T250" s="59"/>
+      <c r="U250" s="59"/>
+      <c r="V250" s="59"/>
     </row>
     <row r="251" spans="1:22" ht="37.5">
       <c r="A251" s="40" t="s">
@@ -17819,11 +17813,11 @@
       </c>
       <c r="P251" s="10"/>
       <c r="Q251" s="11"/>
-      <c r="R251" s="56"/>
-      <c r="S251" s="56"/>
-      <c r="T251" s="56"/>
-      <c r="U251" s="56"/>
-      <c r="V251" s="56"/>
+      <c r="R251" s="59"/>
+      <c r="S251" s="59"/>
+      <c r="T251" s="59"/>
+      <c r="U251" s="59"/>
+      <c r="V251" s="59"/>
     </row>
     <row r="252" spans="1:22" ht="37.5">
       <c r="A252" s="40" t="s">
@@ -17873,11 +17867,11 @@
       </c>
       <c r="P252" s="10"/>
       <c r="Q252" s="11"/>
-      <c r="R252" s="56"/>
-      <c r="S252" s="56"/>
-      <c r="T252" s="56"/>
-      <c r="U252" s="56"/>
-      <c r="V252" s="56"/>
+      <c r="R252" s="59"/>
+      <c r="S252" s="59"/>
+      <c r="T252" s="59"/>
+      <c r="U252" s="59"/>
+      <c r="V252" s="59"/>
     </row>
     <row r="253" spans="1:22" ht="56.25">
       <c r="A253" s="40" t="s">
@@ -17927,11 +17921,11 @@
       </c>
       <c r="P253" s="10"/>
       <c r="Q253" s="11"/>
-      <c r="R253" s="56"/>
-      <c r="S253" s="56"/>
-      <c r="T253" s="56"/>
-      <c r="U253" s="56"/>
-      <c r="V253" s="56"/>
+      <c r="R253" s="59"/>
+      <c r="S253" s="59"/>
+      <c r="T253" s="59"/>
+      <c r="U253" s="59"/>
+      <c r="V253" s="59"/>
     </row>
     <row r="254" spans="1:22" ht="37.5">
       <c r="A254" s="40" t="s">
@@ -17981,11 +17975,11 @@
       </c>
       <c r="P254" s="10"/>
       <c r="Q254" s="11"/>
-      <c r="R254" s="56"/>
-      <c r="S254" s="56"/>
-      <c r="T254" s="56"/>
-      <c r="U254" s="56"/>
-      <c r="V254" s="56"/>
+      <c r="R254" s="59"/>
+      <c r="S254" s="59"/>
+      <c r="T254" s="59"/>
+      <c r="U254" s="59"/>
+      <c r="V254" s="59"/>
     </row>
     <row r="255" spans="1:22" ht="56.25">
       <c r="A255" s="40" t="s">
@@ -18035,11 +18029,11 @@
       </c>
       <c r="P255" s="10"/>
       <c r="Q255" s="11"/>
-      <c r="R255" s="56"/>
-      <c r="S255" s="56"/>
-      <c r="T255" s="56"/>
-      <c r="U255" s="56"/>
-      <c r="V255" s="56"/>
+      <c r="R255" s="59"/>
+      <c r="S255" s="59"/>
+      <c r="T255" s="59"/>
+      <c r="U255" s="59"/>
+      <c r="V255" s="59"/>
     </row>
     <row r="256" spans="1:22" ht="56.25">
       <c r="A256" s="40" t="s">
@@ -18089,11 +18083,11 @@
       </c>
       <c r="P256" s="10"/>
       <c r="Q256" s="11"/>
-      <c r="R256" s="56"/>
-      <c r="S256" s="56"/>
-      <c r="T256" s="56"/>
-      <c r="U256" s="56"/>
-      <c r="V256" s="56"/>
+      <c r="R256" s="59"/>
+      <c r="S256" s="59"/>
+      <c r="T256" s="59"/>
+      <c r="U256" s="59"/>
+      <c r="V256" s="59"/>
     </row>
     <row r="257" spans="1:22" ht="56.25">
       <c r="A257" s="40" t="s">
@@ -18143,11 +18137,11 @@
       </c>
       <c r="P257" s="10"/>
       <c r="Q257" s="11"/>
-      <c r="R257" s="56"/>
-      <c r="S257" s="56"/>
-      <c r="T257" s="56"/>
-      <c r="U257" s="56"/>
-      <c r="V257" s="56"/>
+      <c r="R257" s="59"/>
+      <c r="S257" s="59"/>
+      <c r="T257" s="59"/>
+      <c r="U257" s="59"/>
+      <c r="V257" s="59"/>
     </row>
     <row r="258" spans="1:22" ht="37.5">
       <c r="A258" s="40" t="s">
@@ -18197,11 +18191,11 @@
       </c>
       <c r="P258" s="10"/>
       <c r="Q258" s="11"/>
-      <c r="R258" s="56"/>
-      <c r="S258" s="56"/>
-      <c r="T258" s="56"/>
-      <c r="U258" s="56"/>
-      <c r="V258" s="56"/>
+      <c r="R258" s="59"/>
+      <c r="S258" s="59"/>
+      <c r="T258" s="59"/>
+      <c r="U258" s="59"/>
+      <c r="V258" s="59"/>
     </row>
     <row r="259" spans="1:22" ht="56.25">
       <c r="A259" s="40" t="s">
@@ -18251,11 +18245,11 @@
       </c>
       <c r="P259" s="10"/>
       <c r="Q259" s="11"/>
-      <c r="R259" s="56"/>
-      <c r="S259" s="56"/>
-      <c r="T259" s="56"/>
-      <c r="U259" s="56"/>
-      <c r="V259" s="56"/>
+      <c r="R259" s="59"/>
+      <c r="S259" s="59"/>
+      <c r="T259" s="59"/>
+      <c r="U259" s="59"/>
+      <c r="V259" s="59"/>
     </row>
     <row r="260" spans="1:22" ht="56.25">
       <c r="A260" s="40" t="s">
@@ -18305,11 +18299,11 @@
       </c>
       <c r="P260" s="10"/>
       <c r="Q260" s="11"/>
-      <c r="R260" s="56"/>
-      <c r="S260" s="56"/>
-      <c r="T260" s="56"/>
-      <c r="U260" s="56"/>
-      <c r="V260" s="56"/>
+      <c r="R260" s="59"/>
+      <c r="S260" s="59"/>
+      <c r="T260" s="59"/>
+      <c r="U260" s="59"/>
+      <c r="V260" s="59"/>
     </row>
     <row r="261" spans="1:22" ht="37.5">
       <c r="A261" s="40" t="s">
@@ -18359,11 +18353,11 @@
       </c>
       <c r="P261" s="10"/>
       <c r="Q261" s="11"/>
-      <c r="R261" s="56"/>
-      <c r="S261" s="56"/>
-      <c r="T261" s="56"/>
-      <c r="U261" s="56"/>
-      <c r="V261" s="56"/>
+      <c r="R261" s="59"/>
+      <c r="S261" s="59"/>
+      <c r="T261" s="59"/>
+      <c r="U261" s="59"/>
+      <c r="V261" s="59"/>
     </row>
     <row r="262" spans="1:22" ht="37.5">
       <c r="A262" s="40" t="s">
@@ -18413,11 +18407,11 @@
       </c>
       <c r="P262" s="10"/>
       <c r="Q262" s="11"/>
-      <c r="R262" s="56"/>
-      <c r="S262" s="56"/>
-      <c r="T262" s="56"/>
-      <c r="U262" s="56"/>
-      <c r="V262" s="56"/>
+      <c r="R262" s="59"/>
+      <c r="S262" s="59"/>
+      <c r="T262" s="59"/>
+      <c r="U262" s="59"/>
+      <c r="V262" s="59"/>
     </row>
     <row r="263" spans="1:22" ht="37.5">
       <c r="A263" s="40" t="s">
@@ -18467,11 +18461,11 @@
       </c>
       <c r="P263" s="10"/>
       <c r="Q263" s="11"/>
-      <c r="R263" s="56"/>
-      <c r="S263" s="56"/>
-      <c r="T263" s="56"/>
-      <c r="U263" s="56"/>
-      <c r="V263" s="56"/>
+      <c r="R263" s="59"/>
+      <c r="S263" s="59"/>
+      <c r="T263" s="59"/>
+      <c r="U263" s="59"/>
+      <c r="V263" s="59"/>
     </row>
     <row r="264" spans="1:22" ht="75">
       <c r="A264" s="40" t="s">
@@ -18527,13 +18521,13 @@
       <c r="Q264" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R264" s="56" t="s">
+      <c r="R264" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S264" s="56"/>
-      <c r="T264" s="56"/>
-      <c r="U264" s="56"/>
-      <c r="V264" s="56"/>
+      <c r="S264" s="59"/>
+      <c r="T264" s="59"/>
+      <c r="U264" s="59"/>
+      <c r="V264" s="59"/>
     </row>
     <row r="265" spans="1:22" ht="37.5">
       <c r="A265" s="40" t="s">
@@ -18583,11 +18577,11 @@
       </c>
       <c r="P265" s="10"/>
       <c r="Q265" s="11"/>
-      <c r="R265" s="56"/>
-      <c r="S265" s="56"/>
-      <c r="T265" s="56"/>
-      <c r="U265" s="56"/>
-      <c r="V265" s="56"/>
+      <c r="R265" s="59"/>
+      <c r="S265" s="59"/>
+      <c r="T265" s="59"/>
+      <c r="U265" s="59"/>
+      <c r="V265" s="59"/>
     </row>
     <row r="266" spans="1:22" ht="56.25">
       <c r="A266" s="40" t="s">
@@ -18637,11 +18631,11 @@
       </c>
       <c r="P266" s="10"/>
       <c r="Q266" s="11"/>
-      <c r="R266" s="56"/>
-      <c r="S266" s="56"/>
-      <c r="T266" s="56"/>
-      <c r="U266" s="56"/>
-      <c r="V266" s="56"/>
+      <c r="R266" s="59"/>
+      <c r="S266" s="59"/>
+      <c r="T266" s="59"/>
+      <c r="U266" s="59"/>
+      <c r="V266" s="59"/>
     </row>
     <row r="267" spans="1:22" ht="37.5">
       <c r="A267" s="40" t="s">
@@ -18691,11 +18685,11 @@
       </c>
       <c r="P267" s="10"/>
       <c r="Q267" s="11"/>
-      <c r="R267" s="56"/>
-      <c r="S267" s="56"/>
-      <c r="T267" s="56"/>
-      <c r="U267" s="56"/>
-      <c r="V267" s="56"/>
+      <c r="R267" s="59"/>
+      <c r="S267" s="59"/>
+      <c r="T267" s="59"/>
+      <c r="U267" s="59"/>
+      <c r="V267" s="59"/>
     </row>
     <row r="268" spans="1:22" ht="37.5">
       <c r="A268" s="40" t="s">
@@ -18745,11 +18739,11 @@
       </c>
       <c r="P268" s="10"/>
       <c r="Q268" s="11"/>
-      <c r="R268" s="56"/>
-      <c r="S268" s="56"/>
-      <c r="T268" s="56"/>
-      <c r="U268" s="56"/>
-      <c r="V268" s="56"/>
+      <c r="R268" s="59"/>
+      <c r="S268" s="59"/>
+      <c r="T268" s="59"/>
+      <c r="U268" s="59"/>
+      <c r="V268" s="59"/>
     </row>
     <row r="269" spans="1:22">
       <c r="A269" s="40" t="s">
@@ -18799,11 +18793,11 @@
       </c>
       <c r="P269" s="10"/>
       <c r="Q269" s="11"/>
-      <c r="R269" s="56"/>
-      <c r="S269" s="56"/>
-      <c r="T269" s="56"/>
-      <c r="U269" s="56"/>
-      <c r="V269" s="56"/>
+      <c r="R269" s="59"/>
+      <c r="S269" s="59"/>
+      <c r="T269" s="59"/>
+      <c r="U269" s="59"/>
+      <c r="V269" s="59"/>
     </row>
     <row r="270" spans="1:22" ht="37.5">
       <c r="A270" s="40" t="s">
@@ -18853,11 +18847,11 @@
       </c>
       <c r="P270" s="10"/>
       <c r="Q270" s="11"/>
-      <c r="R270" s="56"/>
-      <c r="S270" s="56"/>
-      <c r="T270" s="56"/>
-      <c r="U270" s="56"/>
-      <c r="V270" s="56"/>
+      <c r="R270" s="59"/>
+      <c r="S270" s="59"/>
+      <c r="T270" s="59"/>
+      <c r="U270" s="59"/>
+      <c r="V270" s="59"/>
     </row>
     <row r="271" spans="1:22" ht="56.25">
       <c r="A271" s="40" t="s">
@@ -18907,11 +18901,11 @@
       </c>
       <c r="P271" s="10"/>
       <c r="Q271" s="11"/>
-      <c r="R271" s="56"/>
-      <c r="S271" s="56"/>
-      <c r="T271" s="56"/>
-      <c r="U271" s="56"/>
-      <c r="V271" s="56"/>
+      <c r="R271" s="59"/>
+      <c r="S271" s="59"/>
+      <c r="T271" s="59"/>
+      <c r="U271" s="59"/>
+      <c r="V271" s="59"/>
     </row>
     <row r="272" spans="1:22" ht="56.25">
       <c r="A272" s="40" t="s">
@@ -18961,11 +18955,11 @@
       </c>
       <c r="P272" s="10"/>
       <c r="Q272" s="11"/>
-      <c r="R272" s="56"/>
-      <c r="S272" s="56"/>
-      <c r="T272" s="56"/>
-      <c r="U272" s="56"/>
-      <c r="V272" s="56"/>
+      <c r="R272" s="59"/>
+      <c r="S272" s="59"/>
+      <c r="T272" s="59"/>
+      <c r="U272" s="59"/>
+      <c r="V272" s="59"/>
     </row>
     <row r="273" spans="1:22" ht="56.25">
       <c r="A273" s="40" t="s">
@@ -19015,11 +19009,11 @@
       </c>
       <c r="P273" s="10"/>
       <c r="Q273" s="11"/>
-      <c r="R273" s="56"/>
-      <c r="S273" s="56"/>
-      <c r="T273" s="56"/>
-      <c r="U273" s="56"/>
-      <c r="V273" s="56"/>
+      <c r="R273" s="59"/>
+      <c r="S273" s="59"/>
+      <c r="T273" s="59"/>
+      <c r="U273" s="59"/>
+      <c r="V273" s="59"/>
     </row>
     <row r="274" spans="1:22" ht="56.25">
       <c r="A274" s="44" t="s">
@@ -19075,13 +19069,13 @@
       <c r="Q274" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R274" s="56" t="s">
+      <c r="R274" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S274" s="56"/>
-      <c r="T274" s="56"/>
-      <c r="U274" s="56"/>
-      <c r="V274" s="56"/>
+      <c r="S274" s="59"/>
+      <c r="T274" s="59"/>
+      <c r="U274" s="59"/>
+      <c r="V274" s="59"/>
     </row>
     <row r="275" spans="1:22" ht="56.25">
       <c r="A275" s="40" t="s">
@@ -19131,11 +19125,11 @@
       </c>
       <c r="P275" s="10"/>
       <c r="Q275" s="11"/>
-      <c r="R275" s="56"/>
-      <c r="S275" s="56"/>
-      <c r="T275" s="56"/>
-      <c r="U275" s="56"/>
-      <c r="V275" s="56"/>
+      <c r="R275" s="59"/>
+      <c r="S275" s="59"/>
+      <c r="T275" s="59"/>
+      <c r="U275" s="59"/>
+      <c r="V275" s="59"/>
     </row>
     <row r="276" spans="1:22" ht="75">
       <c r="A276" s="40" t="s">
@@ -19191,13 +19185,13 @@
       <c r="Q276" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R276" s="56" t="s">
+      <c r="R276" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S276" s="56"/>
-      <c r="T276" s="56"/>
-      <c r="U276" s="56"/>
-      <c r="V276" s="56"/>
+      <c r="S276" s="59"/>
+      <c r="T276" s="59"/>
+      <c r="U276" s="59"/>
+      <c r="V276" s="59"/>
     </row>
     <row r="277" spans="1:22" ht="75">
       <c r="A277" s="40" t="s">
@@ -19247,11 +19241,11 @@
       </c>
       <c r="P277" s="10"/>
       <c r="Q277" s="11"/>
-      <c r="R277" s="56"/>
-      <c r="S277" s="56"/>
-      <c r="T277" s="56"/>
-      <c r="U277" s="56"/>
-      <c r="V277" s="56"/>
+      <c r="R277" s="59"/>
+      <c r="S277" s="59"/>
+      <c r="T277" s="59"/>
+      <c r="U277" s="59"/>
+      <c r="V277" s="59"/>
     </row>
     <row r="278" spans="1:22" ht="56.25">
       <c r="A278" s="40" t="s">
@@ -19307,13 +19301,13 @@
       <c r="Q278" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R278" s="56" t="s">
+      <c r="R278" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S278" s="56"/>
-      <c r="T278" s="56"/>
-      <c r="U278" s="56"/>
-      <c r="V278" s="56"/>
+      <c r="S278" s="59"/>
+      <c r="T278" s="59"/>
+      <c r="U278" s="59"/>
+      <c r="V278" s="59"/>
     </row>
     <row r="279" spans="1:22" ht="75">
       <c r="A279" s="40" t="s">
@@ -19363,11 +19357,11 @@
       </c>
       <c r="P279" s="10"/>
       <c r="Q279" s="11"/>
-      <c r="R279" s="56"/>
-      <c r="S279" s="56"/>
-      <c r="T279" s="56"/>
-      <c r="U279" s="56"/>
-      <c r="V279" s="56"/>
+      <c r="R279" s="59"/>
+      <c r="S279" s="59"/>
+      <c r="T279" s="59"/>
+      <c r="U279" s="59"/>
+      <c r="V279" s="59"/>
     </row>
     <row r="280" spans="1:22" ht="56.25">
       <c r="A280" s="40" t="s">
@@ -19423,13 +19417,13 @@
       <c r="Q280" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R280" s="56" t="s">
+      <c r="R280" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S280" s="56"/>
-      <c r="T280" s="56"/>
-      <c r="U280" s="56"/>
-      <c r="V280" s="56"/>
+      <c r="S280" s="59"/>
+      <c r="T280" s="59"/>
+      <c r="U280" s="59"/>
+      <c r="V280" s="59"/>
     </row>
     <row r="281" spans="1:22" ht="56.25">
       <c r="A281" s="44" t="s">
@@ -19485,13 +19479,13 @@
       <c r="Q281" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R281" s="56" t="s">
+      <c r="R281" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S281" s="56"/>
-      <c r="T281" s="56"/>
-      <c r="U281" s="56"/>
-      <c r="V281" s="56"/>
+      <c r="S281" s="59"/>
+      <c r="T281" s="59"/>
+      <c r="U281" s="59"/>
+      <c r="V281" s="59"/>
     </row>
     <row r="282" spans="1:22" ht="75">
       <c r="A282" s="40" t="s">
@@ -19547,13 +19541,13 @@
       <c r="Q282" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R282" s="56" t="s">
+      <c r="R282" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S282" s="56"/>
-      <c r="T282" s="56"/>
-      <c r="U282" s="56"/>
-      <c r="V282" s="56"/>
+      <c r="S282" s="59"/>
+      <c r="T282" s="59"/>
+      <c r="U282" s="59"/>
+      <c r="V282" s="59"/>
     </row>
     <row r="283" spans="1:22" ht="56.25">
       <c r="A283" s="40" t="s">
@@ -19609,13 +19603,13 @@
       <c r="Q283" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R283" s="56" t="s">
+      <c r="R283" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S283" s="56"/>
-      <c r="T283" s="56"/>
-      <c r="U283" s="56"/>
-      <c r="V283" s="56"/>
+      <c r="S283" s="59"/>
+      <c r="T283" s="59"/>
+      <c r="U283" s="59"/>
+      <c r="V283" s="59"/>
     </row>
     <row r="284" spans="1:22" ht="56.25">
       <c r="A284" s="40" t="s">
@@ -19665,11 +19659,11 @@
       </c>
       <c r="P284" s="10"/>
       <c r="Q284" s="11"/>
-      <c r="R284" s="56"/>
-      <c r="S284" s="56"/>
-      <c r="T284" s="56"/>
-      <c r="U284" s="56"/>
-      <c r="V284" s="56"/>
+      <c r="R284" s="59"/>
+      <c r="S284" s="59"/>
+      <c r="T284" s="59"/>
+      <c r="U284" s="59"/>
+      <c r="V284" s="59"/>
     </row>
     <row r="285" spans="1:22" ht="56.25">
       <c r="A285" s="40" t="s">
@@ -19725,13 +19719,13 @@
       <c r="Q285" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R285" s="56" t="s">
+      <c r="R285" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S285" s="56"/>
-      <c r="T285" s="56"/>
-      <c r="U285" s="56"/>
-      <c r="V285" s="56"/>
+      <c r="S285" s="59"/>
+      <c r="T285" s="59"/>
+      <c r="U285" s="59"/>
+      <c r="V285" s="59"/>
     </row>
     <row r="286" spans="1:22" ht="56.25">
       <c r="A286" s="40" t="s">
@@ -19787,13 +19781,13 @@
       <c r="Q286" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R286" s="56" t="s">
+      <c r="R286" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S286" s="56"/>
-      <c r="T286" s="56"/>
-      <c r="U286" s="56"/>
-      <c r="V286" s="56"/>
+      <c r="S286" s="59"/>
+      <c r="T286" s="59"/>
+      <c r="U286" s="59"/>
+      <c r="V286" s="59"/>
     </row>
     <row r="287" spans="1:22" ht="75">
       <c r="A287" s="40" t="s">
@@ -19849,13 +19843,13 @@
       <c r="Q287" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R287" s="56" t="s">
+      <c r="R287" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S287" s="56"/>
-      <c r="T287" s="56"/>
-      <c r="U287" s="56"/>
-      <c r="V287" s="56"/>
+      <c r="S287" s="59"/>
+      <c r="T287" s="59"/>
+      <c r="U287" s="59"/>
+      <c r="V287" s="59"/>
     </row>
     <row r="288" spans="1:22" ht="75">
       <c r="A288" s="40" t="s">
@@ -19911,13 +19905,13 @@
       <c r="Q288" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R288" s="56" t="s">
+      <c r="R288" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S288" s="56"/>
-      <c r="T288" s="56"/>
-      <c r="U288" s="56"/>
-      <c r="V288" s="56"/>
+      <c r="S288" s="59"/>
+      <c r="T288" s="59"/>
+      <c r="U288" s="59"/>
+      <c r="V288" s="59"/>
     </row>
     <row r="289" spans="1:22" ht="56.25">
       <c r="A289" s="40" t="s">
@@ -19967,11 +19961,11 @@
       </c>
       <c r="P289" s="10"/>
       <c r="Q289" s="11"/>
-      <c r="R289" s="56"/>
-      <c r="S289" s="56"/>
-      <c r="T289" s="56"/>
-      <c r="U289" s="56"/>
-      <c r="V289" s="56"/>
+      <c r="R289" s="59"/>
+      <c r="S289" s="59"/>
+      <c r="T289" s="59"/>
+      <c r="U289" s="59"/>
+      <c r="V289" s="59"/>
     </row>
     <row r="290" spans="1:22" ht="56.25">
       <c r="A290" s="40" t="s">
@@ -20027,13 +20021,13 @@
       <c r="Q290" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R290" s="56" t="s">
+      <c r="R290" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S290" s="56"/>
-      <c r="T290" s="56"/>
-      <c r="U290" s="56"/>
-      <c r="V290" s="56"/>
+      <c r="S290" s="59"/>
+      <c r="T290" s="59"/>
+      <c r="U290" s="59"/>
+      <c r="V290" s="59"/>
     </row>
     <row r="291" spans="1:22" ht="75">
       <c r="A291" s="44" t="s">
@@ -20089,13 +20083,13 @@
       <c r="Q291" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R291" s="56" t="s">
+      <c r="R291" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S291" s="56"/>
-      <c r="T291" s="56"/>
-      <c r="U291" s="56"/>
-      <c r="V291" s="56"/>
+      <c r="S291" s="59"/>
+      <c r="T291" s="59"/>
+      <c r="U291" s="59"/>
+      <c r="V291" s="59"/>
     </row>
     <row r="292" spans="1:22" ht="75">
       <c r="A292" s="40" t="s">
@@ -20151,13 +20145,13 @@
       <c r="Q292" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R292" s="56" t="s">
+      <c r="R292" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S292" s="56"/>
-      <c r="T292" s="56"/>
-      <c r="U292" s="56"/>
-      <c r="V292" s="56"/>
+      <c r="S292" s="59"/>
+      <c r="T292" s="59"/>
+      <c r="U292" s="59"/>
+      <c r="V292" s="59"/>
     </row>
     <row r="293" spans="1:22" ht="56.25">
       <c r="A293" s="40" t="s">
@@ -20207,11 +20201,11 @@
       </c>
       <c r="P293" s="10"/>
       <c r="Q293" s="11"/>
-      <c r="R293" s="56"/>
-      <c r="S293" s="56"/>
-      <c r="T293" s="56"/>
-      <c r="U293" s="56"/>
-      <c r="V293" s="56"/>
+      <c r="R293" s="59"/>
+      <c r="S293" s="59"/>
+      <c r="T293" s="59"/>
+      <c r="U293" s="59"/>
+      <c r="V293" s="59"/>
     </row>
     <row r="294" spans="1:22" ht="56.25">
       <c r="A294" s="40" t="s">
@@ -20267,13 +20261,13 @@
       <c r="Q294" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R294" s="56" t="s">
+      <c r="R294" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S294" s="56"/>
-      <c r="T294" s="56"/>
-      <c r="U294" s="56"/>
-      <c r="V294" s="56"/>
+      <c r="S294" s="59"/>
+      <c r="T294" s="59"/>
+      <c r="U294" s="59"/>
+      <c r="V294" s="59"/>
     </row>
     <row r="295" spans="1:22" ht="56.25">
       <c r="A295" s="40" t="s">
@@ -20329,13 +20323,13 @@
       <c r="Q295" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R295" s="56" t="s">
+      <c r="R295" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S295" s="56"/>
-      <c r="T295" s="56"/>
-      <c r="U295" s="56"/>
-      <c r="V295" s="56"/>
+      <c r="S295" s="59"/>
+      <c r="T295" s="59"/>
+      <c r="U295" s="59"/>
+      <c r="V295" s="59"/>
     </row>
     <row r="296" spans="1:22" ht="56.25">
       <c r="A296" s="44" t="s">
@@ -20391,13 +20385,13 @@
       <c r="Q296" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R296" s="56" t="s">
+      <c r="R296" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S296" s="56"/>
-      <c r="T296" s="56"/>
-      <c r="U296" s="56"/>
-      <c r="V296" s="56"/>
+      <c r="S296" s="59"/>
+      <c r="T296" s="59"/>
+      <c r="U296" s="59"/>
+      <c r="V296" s="59"/>
     </row>
     <row r="297" spans="1:22" ht="75">
       <c r="A297" s="44" t="s">
@@ -20453,13 +20447,13 @@
       <c r="Q297" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R297" s="56" t="s">
+      <c r="R297" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S297" s="56"/>
-      <c r="T297" s="56"/>
-      <c r="U297" s="56"/>
-      <c r="V297" s="56"/>
+      <c r="S297" s="59"/>
+      <c r="T297" s="59"/>
+      <c r="U297" s="59"/>
+      <c r="V297" s="59"/>
     </row>
     <row r="298" spans="1:22" ht="75">
       <c r="A298" s="40" t="s">
@@ -20509,11 +20503,11 @@
       </c>
       <c r="P298" s="10"/>
       <c r="Q298" s="11"/>
-      <c r="R298" s="56"/>
-      <c r="S298" s="56"/>
-      <c r="T298" s="56"/>
-      <c r="U298" s="56"/>
-      <c r="V298" s="56"/>
+      <c r="R298" s="59"/>
+      <c r="S298" s="59"/>
+      <c r="T298" s="59"/>
+      <c r="U298" s="59"/>
+      <c r="V298" s="59"/>
     </row>
     <row r="299" spans="1:22" ht="75">
       <c r="A299" s="40" t="s">
@@ -20569,13 +20563,13 @@
       <c r="Q299" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R299" s="56" t="s">
+      <c r="R299" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S299" s="56"/>
-      <c r="T299" s="56"/>
-      <c r="U299" s="56"/>
-      <c r="V299" s="56"/>
+      <c r="S299" s="59"/>
+      <c r="T299" s="59"/>
+      <c r="U299" s="59"/>
+      <c r="V299" s="59"/>
     </row>
     <row r="300" spans="1:22" ht="37.5">
       <c r="A300" s="40" t="s">
@@ -20625,11 +20619,11 @@
       </c>
       <c r="P300" s="10"/>
       <c r="Q300" s="11"/>
-      <c r="R300" s="56"/>
-      <c r="S300" s="56"/>
-      <c r="T300" s="56"/>
-      <c r="U300" s="56"/>
-      <c r="V300" s="56"/>
+      <c r="R300" s="59"/>
+      <c r="S300" s="59"/>
+      <c r="T300" s="59"/>
+      <c r="U300" s="59"/>
+      <c r="V300" s="59"/>
     </row>
     <row r="301" spans="1:22" ht="37.5">
       <c r="A301" s="40" t="s">
@@ -20679,11 +20673,11 @@
       </c>
       <c r="P301" s="10"/>
       <c r="Q301" s="11"/>
-      <c r="R301" s="56"/>
-      <c r="S301" s="56"/>
-      <c r="T301" s="56"/>
-      <c r="U301" s="56"/>
-      <c r="V301" s="56"/>
+      <c r="R301" s="59"/>
+      <c r="S301" s="59"/>
+      <c r="T301" s="59"/>
+      <c r="U301" s="59"/>
+      <c r="V301" s="59"/>
     </row>
     <row r="302" spans="1:22" ht="37.5">
       <c r="A302" s="40" t="s">
@@ -20733,11 +20727,11 @@
       </c>
       <c r="P302" s="10"/>
       <c r="Q302" s="11"/>
-      <c r="R302" s="56"/>
-      <c r="S302" s="56"/>
-      <c r="T302" s="56"/>
-      <c r="U302" s="56"/>
-      <c r="V302" s="56"/>
+      <c r="R302" s="59"/>
+      <c r="S302" s="59"/>
+      <c r="T302" s="59"/>
+      <c r="U302" s="59"/>
+      <c r="V302" s="59"/>
     </row>
     <row r="303" spans="1:22" ht="56.25">
       <c r="A303" s="40" t="s">
@@ -20787,11 +20781,11 @@
       </c>
       <c r="P303" s="10"/>
       <c r="Q303" s="11"/>
-      <c r="R303" s="56"/>
-      <c r="S303" s="56"/>
-      <c r="T303" s="56"/>
-      <c r="U303" s="56"/>
-      <c r="V303" s="56"/>
+      <c r="R303" s="59"/>
+      <c r="S303" s="59"/>
+      <c r="T303" s="59"/>
+      <c r="U303" s="59"/>
+      <c r="V303" s="59"/>
     </row>
     <row r="304" spans="1:22" ht="37.5">
       <c r="A304" s="44" t="s">
@@ -20847,13 +20841,13 @@
       <c r="Q304" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R304" s="56" t="s">
+      <c r="R304" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S304" s="56"/>
-      <c r="T304" s="56"/>
-      <c r="U304" s="56"/>
-      <c r="V304" s="56"/>
+      <c r="S304" s="59"/>
+      <c r="T304" s="59"/>
+      <c r="U304" s="59"/>
+      <c r="V304" s="59"/>
     </row>
     <row r="305" spans="1:22" ht="93.75">
       <c r="A305" s="44" t="s">
@@ -20909,13 +20903,13 @@
       <c r="Q305" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R305" s="56" t="s">
+      <c r="R305" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S305" s="56"/>
-      <c r="T305" s="56"/>
-      <c r="U305" s="56"/>
-      <c r="V305" s="56"/>
+      <c r="S305" s="59"/>
+      <c r="T305" s="59"/>
+      <c r="U305" s="59"/>
+      <c r="V305" s="59"/>
     </row>
     <row r="306" spans="1:22" ht="37.5">
       <c r="A306" s="44" t="s">
@@ -20971,13 +20965,13 @@
       <c r="Q306" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R306" s="56" t="s">
+      <c r="R306" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S306" s="56"/>
-      <c r="T306" s="56"/>
-      <c r="U306" s="56"/>
-      <c r="V306" s="56"/>
+      <c r="S306" s="59"/>
+      <c r="T306" s="59"/>
+      <c r="U306" s="59"/>
+      <c r="V306" s="59"/>
     </row>
     <row r="307" spans="1:22" ht="37.5">
       <c r="A307" s="44" t="s">
@@ -21033,13 +21027,13 @@
       <c r="Q307" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R307" s="56" t="s">
+      <c r="R307" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S307" s="56"/>
-      <c r="T307" s="56"/>
-      <c r="U307" s="56"/>
-      <c r="V307" s="56"/>
+      <c r="S307" s="59"/>
+      <c r="T307" s="59"/>
+      <c r="U307" s="59"/>
+      <c r="V307" s="59"/>
     </row>
     <row r="308" spans="1:22" ht="37.5">
       <c r="A308" s="40" t="s">
@@ -21089,11 +21083,11 @@
       </c>
       <c r="P308" s="10"/>
       <c r="Q308" s="11"/>
-      <c r="R308" s="56"/>
-      <c r="S308" s="56"/>
-      <c r="T308" s="56"/>
-      <c r="U308" s="56"/>
-      <c r="V308" s="56"/>
+      <c r="R308" s="59"/>
+      <c r="S308" s="59"/>
+      <c r="T308" s="59"/>
+      <c r="U308" s="59"/>
+      <c r="V308" s="59"/>
     </row>
     <row r="309" spans="1:22" ht="37.5">
       <c r="A309" s="44" t="s">
@@ -21149,13 +21143,13 @@
       <c r="Q309" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R309" s="56" t="s">
+      <c r="R309" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S309" s="56"/>
-      <c r="T309" s="56"/>
-      <c r="U309" s="56"/>
-      <c r="V309" s="56"/>
+      <c r="S309" s="59"/>
+      <c r="T309" s="59"/>
+      <c r="U309" s="59"/>
+      <c r="V309" s="59"/>
     </row>
     <row r="310" spans="1:22" ht="56.25">
       <c r="A310" s="40" t="s">
@@ -21205,11 +21199,11 @@
       </c>
       <c r="P310" s="10"/>
       <c r="Q310" s="11"/>
-      <c r="R310" s="56"/>
-      <c r="S310" s="56"/>
-      <c r="T310" s="56"/>
-      <c r="U310" s="56"/>
-      <c r="V310" s="56"/>
+      <c r="R310" s="59"/>
+      <c r="S310" s="59"/>
+      <c r="T310" s="59"/>
+      <c r="U310" s="59"/>
+      <c r="V310" s="59"/>
     </row>
     <row r="311" spans="1:22" ht="56.25">
       <c r="A311" s="40" t="s">
@@ -21259,11 +21253,11 @@
       </c>
       <c r="P311" s="10"/>
       <c r="Q311" s="11"/>
-      <c r="R311" s="56"/>
-      <c r="S311" s="56"/>
-      <c r="T311" s="56"/>
-      <c r="U311" s="56"/>
-      <c r="V311" s="56"/>
+      <c r="R311" s="59"/>
+      <c r="S311" s="59"/>
+      <c r="T311" s="59"/>
+      <c r="U311" s="59"/>
+      <c r="V311" s="59"/>
     </row>
     <row r="312" spans="1:22" ht="75">
       <c r="A312" s="40" t="s">
@@ -21313,11 +21307,11 @@
       </c>
       <c r="P312" s="10"/>
       <c r="Q312" s="11"/>
-      <c r="R312" s="56"/>
-      <c r="S312" s="56"/>
-      <c r="T312" s="56"/>
-      <c r="U312" s="56"/>
-      <c r="V312" s="56"/>
+      <c r="R312" s="59"/>
+      <c r="S312" s="59"/>
+      <c r="T312" s="59"/>
+      <c r="U312" s="59"/>
+      <c r="V312" s="59"/>
     </row>
     <row r="313" spans="1:22" ht="37.5">
       <c r="A313" s="40" t="s">
@@ -21367,11 +21361,11 @@
       </c>
       <c r="P313" s="10"/>
       <c r="Q313" s="11"/>
-      <c r="R313" s="56"/>
-      <c r="S313" s="56"/>
-      <c r="T313" s="56"/>
-      <c r="U313" s="56"/>
-      <c r="V313" s="56"/>
+      <c r="R313" s="59"/>
+      <c r="S313" s="59"/>
+      <c r="T313" s="59"/>
+      <c r="U313" s="59"/>
+      <c r="V313" s="59"/>
     </row>
     <row r="314" spans="1:22" ht="56.25">
       <c r="A314" s="40" t="s">
@@ -21427,13 +21421,13 @@
       <c r="Q314" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R314" s="56" t="s">
+      <c r="R314" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S314" s="56"/>
-      <c r="T314" s="56"/>
-      <c r="U314" s="56"/>
-      <c r="V314" s="56"/>
+      <c r="S314" s="59"/>
+      <c r="T314" s="59"/>
+      <c r="U314" s="59"/>
+      <c r="V314" s="59"/>
     </row>
     <row r="315" spans="1:22" ht="75">
       <c r="A315" s="40" t="s">
@@ -21483,11 +21477,11 @@
       </c>
       <c r="P315" s="10"/>
       <c r="Q315" s="11"/>
-      <c r="R315" s="56"/>
-      <c r="S315" s="56"/>
-      <c r="T315" s="56"/>
-      <c r="U315" s="56"/>
-      <c r="V315" s="56"/>
+      <c r="R315" s="59"/>
+      <c r="S315" s="59"/>
+      <c r="T315" s="59"/>
+      <c r="U315" s="59"/>
+      <c r="V315" s="59"/>
     </row>
     <row r="316" spans="1:22" ht="75">
       <c r="A316" s="40" t="s">
@@ -21537,11 +21531,11 @@
       </c>
       <c r="P316" s="10"/>
       <c r="Q316" s="11"/>
-      <c r="R316" s="56"/>
-      <c r="S316" s="56"/>
-      <c r="T316" s="56"/>
-      <c r="U316" s="56"/>
-      <c r="V316" s="56"/>
+      <c r="R316" s="59"/>
+      <c r="S316" s="59"/>
+      <c r="T316" s="59"/>
+      <c r="U316" s="59"/>
+      <c r="V316" s="59"/>
     </row>
     <row r="317" spans="1:22" ht="56.25">
       <c r="A317" s="40" t="s">
@@ -21597,13 +21591,13 @@
       <c r="Q317" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R317" s="56" t="s">
+      <c r="R317" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S317" s="56"/>
-      <c r="T317" s="56"/>
-      <c r="U317" s="56"/>
-      <c r="V317" s="56"/>
+      <c r="S317" s="59"/>
+      <c r="T317" s="59"/>
+      <c r="U317" s="59"/>
+      <c r="V317" s="59"/>
     </row>
     <row r="318" spans="1:22" ht="56.25">
       <c r="A318" s="40" t="s">
@@ -21653,11 +21647,11 @@
       </c>
       <c r="P318" s="10"/>
       <c r="Q318" s="11"/>
-      <c r="R318" s="56"/>
-      <c r="S318" s="56"/>
-      <c r="T318" s="56"/>
-      <c r="U318" s="56"/>
-      <c r="V318" s="56"/>
+      <c r="R318" s="59"/>
+      <c r="S318" s="59"/>
+      <c r="T318" s="59"/>
+      <c r="U318" s="59"/>
+      <c r="V318" s="59"/>
     </row>
     <row r="319" spans="1:22" ht="56.25">
       <c r="A319" s="40" t="s">
@@ -21707,11 +21701,11 @@
       </c>
       <c r="P319" s="10"/>
       <c r="Q319" s="11"/>
-      <c r="R319" s="56"/>
-      <c r="S319" s="56"/>
-      <c r="T319" s="56"/>
-      <c r="U319" s="56"/>
-      <c r="V319" s="56"/>
+      <c r="R319" s="59"/>
+      <c r="S319" s="59"/>
+      <c r="T319" s="59"/>
+      <c r="U319" s="59"/>
+      <c r="V319" s="59"/>
     </row>
     <row r="320" spans="1:22" ht="75">
       <c r="A320" s="40" t="s">
@@ -21761,11 +21755,11 @@
       </c>
       <c r="P320" s="10"/>
       <c r="Q320" s="11"/>
-      <c r="R320" s="56"/>
-      <c r="S320" s="56"/>
-      <c r="T320" s="56"/>
-      <c r="U320" s="56"/>
-      <c r="V320" s="56"/>
+      <c r="R320" s="59"/>
+      <c r="S320" s="59"/>
+      <c r="T320" s="59"/>
+      <c r="U320" s="59"/>
+      <c r="V320" s="59"/>
     </row>
     <row r="321" spans="1:22" ht="56.25">
       <c r="A321" s="40" t="s">
@@ -21815,11 +21809,11 @@
       </c>
       <c r="P321" s="10"/>
       <c r="Q321" s="11"/>
-      <c r="R321" s="56"/>
-      <c r="S321" s="56"/>
-      <c r="T321" s="56"/>
-      <c r="U321" s="56"/>
-      <c r="V321" s="56"/>
+      <c r="R321" s="59"/>
+      <c r="S321" s="59"/>
+      <c r="T321" s="59"/>
+      <c r="U321" s="59"/>
+      <c r="V321" s="59"/>
     </row>
     <row r="322" spans="1:22" ht="56.25">
       <c r="A322" s="40" t="s">
@@ -21875,13 +21869,13 @@
       <c r="Q322" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R322" s="56" t="s">
+      <c r="R322" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S322" s="56"/>
-      <c r="T322" s="56"/>
-      <c r="U322" s="56"/>
-      <c r="V322" s="56"/>
+      <c r="S322" s="59"/>
+      <c r="T322" s="59"/>
+      <c r="U322" s="59"/>
+      <c r="V322" s="59"/>
     </row>
     <row r="323" spans="1:22" ht="37.5">
       <c r="A323" s="44" t="s">
@@ -21937,13 +21931,13 @@
       <c r="Q323" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R323" s="56" t="s">
+      <c r="R323" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S323" s="56"/>
-      <c r="T323" s="56"/>
-      <c r="U323" s="56"/>
-      <c r="V323" s="56"/>
+      <c r="S323" s="59"/>
+      <c r="T323" s="59"/>
+      <c r="U323" s="59"/>
+      <c r="V323" s="59"/>
     </row>
     <row r="324" spans="1:22" ht="37.5">
       <c r="A324" s="40" t="s">
@@ -21999,13 +21993,13 @@
       <c r="Q324" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R324" s="56" t="s">
+      <c r="R324" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S324" s="56"/>
-      <c r="T324" s="56"/>
-      <c r="U324" s="56"/>
-      <c r="V324" s="56"/>
+      <c r="S324" s="59"/>
+      <c r="T324" s="59"/>
+      <c r="U324" s="59"/>
+      <c r="V324" s="59"/>
     </row>
     <row r="325" spans="1:22" ht="37.5">
       <c r="A325" s="40" t="s">
@@ -22055,11 +22049,11 @@
       </c>
       <c r="P325" s="10"/>
       <c r="Q325" s="11"/>
-      <c r="R325" s="56"/>
-      <c r="S325" s="56"/>
-      <c r="T325" s="56"/>
-      <c r="U325" s="56"/>
-      <c r="V325" s="56"/>
+      <c r="R325" s="59"/>
+      <c r="S325" s="59"/>
+      <c r="T325" s="59"/>
+      <c r="U325" s="59"/>
+      <c r="V325" s="59"/>
     </row>
     <row r="326" spans="1:22" ht="56.25">
       <c r="A326" s="40" t="s">
@@ -22115,13 +22109,13 @@
       <c r="Q326" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R326" s="56" t="s">
+      <c r="R326" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S326" s="56"/>
-      <c r="T326" s="56"/>
-      <c r="U326" s="56"/>
-      <c r="V326" s="56"/>
+      <c r="S326" s="59"/>
+      <c r="T326" s="59"/>
+      <c r="U326" s="59"/>
+      <c r="V326" s="59"/>
     </row>
     <row r="327" spans="1:22" ht="56.25">
       <c r="A327" s="40" t="s">
@@ -22171,11 +22165,11 @@
       </c>
       <c r="P327" s="10"/>
       <c r="Q327" s="11"/>
-      <c r="R327" s="56"/>
-      <c r="S327" s="56"/>
-      <c r="T327" s="56"/>
-      <c r="U327" s="56"/>
-      <c r="V327" s="56"/>
+      <c r="R327" s="59"/>
+      <c r="S327" s="59"/>
+      <c r="T327" s="59"/>
+      <c r="U327" s="59"/>
+      <c r="V327" s="59"/>
     </row>
     <row r="328" spans="1:22" ht="300">
       <c r="A328" s="40" t="s">
@@ -22225,11 +22219,11 @@
       </c>
       <c r="P328" s="10"/>
       <c r="Q328" s="11"/>
-      <c r="R328" s="56"/>
-      <c r="S328" s="56"/>
-      <c r="T328" s="56"/>
-      <c r="U328" s="56"/>
-      <c r="V328" s="56"/>
+      <c r="R328" s="59"/>
+      <c r="S328" s="59"/>
+      <c r="T328" s="59"/>
+      <c r="U328" s="59"/>
+      <c r="V328" s="59"/>
     </row>
     <row r="329" spans="1:22" ht="56.25">
       <c r="A329" s="40" t="s">
@@ -22285,13 +22279,13 @@
       <c r="Q329" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R329" s="56" t="s">
+      <c r="R329" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S329" s="56"/>
-      <c r="T329" s="56"/>
-      <c r="U329" s="56"/>
-      <c r="V329" s="56"/>
+      <c r="S329" s="59"/>
+      <c r="T329" s="59"/>
+      <c r="U329" s="59"/>
+      <c r="V329" s="59"/>
     </row>
     <row r="330" spans="1:22" ht="56.25">
       <c r="A330" s="40" t="s">
@@ -22341,11 +22335,11 @@
       </c>
       <c r="P330" s="10"/>
       <c r="Q330" s="11"/>
-      <c r="R330" s="56"/>
-      <c r="S330" s="56"/>
-      <c r="T330" s="56"/>
-      <c r="U330" s="56"/>
-      <c r="V330" s="56"/>
+      <c r="R330" s="59"/>
+      <c r="S330" s="59"/>
+      <c r="T330" s="59"/>
+      <c r="U330" s="59"/>
+      <c r="V330" s="59"/>
     </row>
     <row r="331" spans="1:22" ht="56.25">
       <c r="A331" s="40" t="s">
@@ -22395,11 +22389,11 @@
       </c>
       <c r="P331" s="10"/>
       <c r="Q331" s="11"/>
-      <c r="R331" s="56"/>
-      <c r="S331" s="56"/>
-      <c r="T331" s="56"/>
-      <c r="U331" s="56"/>
-      <c r="V331" s="56"/>
+      <c r="R331" s="59"/>
+      <c r="S331" s="59"/>
+      <c r="T331" s="59"/>
+      <c r="U331" s="59"/>
+      <c r="V331" s="59"/>
     </row>
     <row r="332" spans="1:22" ht="37.5">
       <c r="A332" s="40" t="s">
@@ -22449,11 +22443,11 @@
       </c>
       <c r="P332" s="10"/>
       <c r="Q332" s="11"/>
-      <c r="R332" s="56"/>
-      <c r="S332" s="56"/>
-      <c r="T332" s="56"/>
-      <c r="U332" s="56"/>
-      <c r="V332" s="56"/>
+      <c r="R332" s="59"/>
+      <c r="S332" s="59"/>
+      <c r="T332" s="59"/>
+      <c r="U332" s="59"/>
+      <c r="V332" s="59"/>
     </row>
     <row r="333" spans="1:22" ht="37.5">
       <c r="A333" s="44" t="s">
@@ -22509,13 +22503,13 @@
       <c r="Q333" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R333" s="56" t="s">
+      <c r="R333" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S333" s="56"/>
-      <c r="T333" s="56"/>
-      <c r="U333" s="56"/>
-      <c r="V333" s="56"/>
+      <c r="S333" s="59"/>
+      <c r="T333" s="59"/>
+      <c r="U333" s="59"/>
+      <c r="V333" s="59"/>
     </row>
     <row r="334" spans="1:22" ht="56.25">
       <c r="A334" s="40" t="s">
@@ -22565,11 +22559,11 @@
       </c>
       <c r="P334" s="10"/>
       <c r="Q334" s="11"/>
-      <c r="R334" s="56"/>
-      <c r="S334" s="56"/>
-      <c r="T334" s="56"/>
-      <c r="U334" s="56"/>
-      <c r="V334" s="56"/>
+      <c r="R334" s="59"/>
+      <c r="S334" s="59"/>
+      <c r="T334" s="59"/>
+      <c r="U334" s="59"/>
+      <c r="V334" s="59"/>
     </row>
     <row r="335" spans="1:22" ht="56.25">
       <c r="A335" s="40" t="s">
@@ -22625,13 +22619,13 @@
       <c r="Q335" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="R335" s="57" t="s">
+      <c r="R335" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="S335" s="57"/>
-      <c r="T335" s="57"/>
-      <c r="U335" s="57"/>
-      <c r="V335" s="57"/>
+      <c r="S335" s="60"/>
+      <c r="T335" s="60"/>
+      <c r="U335" s="60"/>
+      <c r="V335" s="60"/>
     </row>
     <row r="336" spans="1:22" ht="75">
       <c r="A336" s="40" t="s">
@@ -22681,11 +22675,11 @@
       </c>
       <c r="P336" s="10"/>
       <c r="Q336" s="11"/>
-      <c r="R336" s="56"/>
-      <c r="S336" s="56"/>
-      <c r="T336" s="56"/>
-      <c r="U336" s="56"/>
-      <c r="V336" s="56"/>
+      <c r="R336" s="59"/>
+      <c r="S336" s="59"/>
+      <c r="T336" s="59"/>
+      <c r="U336" s="59"/>
+      <c r="V336" s="59"/>
     </row>
     <row r="337" spans="1:22" ht="56.25">
       <c r="A337" s="40" t="s">
@@ -22735,11 +22729,11 @@
       </c>
       <c r="P337" s="10"/>
       <c r="Q337" s="11"/>
-      <c r="R337" s="56"/>
-      <c r="S337" s="56"/>
-      <c r="T337" s="56"/>
-      <c r="U337" s="56"/>
-      <c r="V337" s="56"/>
+      <c r="R337" s="59"/>
+      <c r="S337" s="59"/>
+      <c r="T337" s="59"/>
+      <c r="U337" s="59"/>
+      <c r="V337" s="59"/>
     </row>
     <row r="338" spans="1:22" ht="56.25">
       <c r="A338" s="40" t="s">
@@ -22789,11 +22783,11 @@
       </c>
       <c r="P338" s="10"/>
       <c r="Q338" s="11"/>
-      <c r="R338" s="56"/>
-      <c r="S338" s="56"/>
-      <c r="T338" s="56"/>
-      <c r="U338" s="56"/>
-      <c r="V338" s="56"/>
+      <c r="R338" s="59"/>
+      <c r="S338" s="59"/>
+      <c r="T338" s="59"/>
+      <c r="U338" s="59"/>
+      <c r="V338" s="59"/>
     </row>
     <row r="339" spans="1:22" ht="56.25">
       <c r="A339" s="40" t="s">
@@ -22843,11 +22837,11 @@
       </c>
       <c r="P339" s="10"/>
       <c r="Q339" s="11"/>
-      <c r="R339" s="56"/>
-      <c r="S339" s="56"/>
-      <c r="T339" s="56"/>
-      <c r="U339" s="56"/>
-      <c r="V339" s="56"/>
+      <c r="R339" s="59"/>
+      <c r="S339" s="59"/>
+      <c r="T339" s="59"/>
+      <c r="U339" s="59"/>
+      <c r="V339" s="59"/>
     </row>
     <row r="340" spans="1:22" ht="56.25">
       <c r="A340" s="44" t="s">
@@ -22903,13 +22897,13 @@
       <c r="Q340" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R340" s="56" t="s">
+      <c r="R340" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S340" s="56"/>
-      <c r="T340" s="56"/>
-      <c r="U340" s="56"/>
-      <c r="V340" s="56"/>
+      <c r="S340" s="59"/>
+      <c r="T340" s="59"/>
+      <c r="U340" s="59"/>
+      <c r="V340" s="59"/>
     </row>
     <row r="341" spans="1:22" ht="56.25">
       <c r="A341" s="40" t="s">
@@ -22959,11 +22953,11 @@
       </c>
       <c r="P341" s="10"/>
       <c r="Q341" s="11"/>
-      <c r="R341" s="56"/>
-      <c r="S341" s="56"/>
-      <c r="T341" s="56"/>
-      <c r="U341" s="56"/>
-      <c r="V341" s="56"/>
+      <c r="R341" s="59"/>
+      <c r="S341" s="59"/>
+      <c r="T341" s="59"/>
+      <c r="U341" s="59"/>
+      <c r="V341" s="59"/>
     </row>
     <row r="342" spans="1:22" ht="56.25">
       <c r="A342" s="40" t="s">
@@ -23013,11 +23007,11 @@
       </c>
       <c r="P342" s="10"/>
       <c r="Q342" s="11"/>
-      <c r="R342" s="56"/>
-      <c r="S342" s="56"/>
-      <c r="T342" s="56"/>
-      <c r="U342" s="56"/>
-      <c r="V342" s="56"/>
+      <c r="R342" s="59"/>
+      <c r="S342" s="59"/>
+      <c r="T342" s="59"/>
+      <c r="U342" s="59"/>
+      <c r="V342" s="59"/>
     </row>
     <row r="343" spans="1:22" ht="75">
       <c r="A343" s="40" t="s">
@@ -23073,13 +23067,13 @@
       <c r="Q343" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R343" s="56" t="s">
+      <c r="R343" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S343" s="56"/>
-      <c r="T343" s="56"/>
-      <c r="U343" s="56"/>
-      <c r="V343" s="56"/>
+      <c r="S343" s="59"/>
+      <c r="T343" s="59"/>
+      <c r="U343" s="59"/>
+      <c r="V343" s="59"/>
     </row>
     <row r="344" spans="1:22" ht="75">
       <c r="A344" s="40" t="s">
@@ -23135,13 +23129,13 @@
       <c r="Q344" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R344" s="56" t="s">
+      <c r="R344" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S344" s="56"/>
-      <c r="T344" s="56"/>
-      <c r="U344" s="56"/>
-      <c r="V344" s="56"/>
+      <c r="S344" s="59"/>
+      <c r="T344" s="59"/>
+      <c r="U344" s="59"/>
+      <c r="V344" s="59"/>
     </row>
     <row r="345" spans="1:22" ht="75">
       <c r="A345" s="40" t="s">
@@ -23197,13 +23191,13 @@
       <c r="Q345" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R345" s="56" t="s">
+      <c r="R345" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S345" s="56"/>
-      <c r="T345" s="56"/>
-      <c r="U345" s="56"/>
-      <c r="V345" s="56"/>
+      <c r="S345" s="59"/>
+      <c r="T345" s="59"/>
+      <c r="U345" s="59"/>
+      <c r="V345" s="59"/>
     </row>
     <row r="346" spans="1:22" ht="56.25">
       <c r="A346" s="40" t="s">
@@ -23259,13 +23253,13 @@
       <c r="Q346" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R346" s="56" t="s">
+      <c r="R346" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S346" s="56"/>
-      <c r="T346" s="56"/>
-      <c r="U346" s="56"/>
-      <c r="V346" s="56"/>
+      <c r="S346" s="59"/>
+      <c r="T346" s="59"/>
+      <c r="U346" s="59"/>
+      <c r="V346" s="59"/>
     </row>
     <row r="347" spans="1:22" ht="56.25">
       <c r="A347" s="40" t="s">
@@ -23321,13 +23315,13 @@
       <c r="Q347" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R347" s="56" t="s">
+      <c r="R347" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S347" s="56"/>
-      <c r="T347" s="56"/>
-      <c r="U347" s="56"/>
-      <c r="V347" s="56"/>
+      <c r="S347" s="59"/>
+      <c r="T347" s="59"/>
+      <c r="U347" s="59"/>
+      <c r="V347" s="59"/>
     </row>
     <row r="348" spans="1:22" ht="75">
       <c r="A348" s="40" t="s">
@@ -23377,11 +23371,11 @@
       </c>
       <c r="P348" s="10"/>
       <c r="Q348" s="11"/>
-      <c r="R348" s="56"/>
-      <c r="S348" s="56"/>
-      <c r="T348" s="56"/>
-      <c r="U348" s="56"/>
-      <c r="V348" s="56"/>
+      <c r="R348" s="59"/>
+      <c r="S348" s="59"/>
+      <c r="T348" s="59"/>
+      <c r="U348" s="59"/>
+      <c r="V348" s="59"/>
     </row>
     <row r="349" spans="1:22" ht="37.5">
       <c r="A349" s="40" t="s">
@@ -23435,13 +23429,13 @@
         <v>50</v>
       </c>
       <c r="Q349" s="11"/>
-      <c r="R349" s="56" t="s">
+      <c r="R349" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S349" s="56"/>
-      <c r="T349" s="56"/>
-      <c r="U349" s="56"/>
-      <c r="V349" s="56"/>
+      <c r="S349" s="59"/>
+      <c r="T349" s="59"/>
+      <c r="U349" s="59"/>
+      <c r="V349" s="59"/>
     </row>
     <row r="350" spans="1:22" ht="56.25">
       <c r="A350" s="40" t="s">
@@ -23497,13 +23491,13 @@
       <c r="Q350" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R350" s="56" t="s">
+      <c r="R350" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S350" s="56"/>
-      <c r="T350" s="56"/>
-      <c r="U350" s="56"/>
-      <c r="V350" s="56"/>
+      <c r="S350" s="59"/>
+      <c r="T350" s="59"/>
+      <c r="U350" s="59"/>
+      <c r="V350" s="59"/>
     </row>
     <row r="351" spans="1:22" ht="56.25">
       <c r="A351" s="40" t="s">
@@ -23553,11 +23547,11 @@
       </c>
       <c r="P351" s="10"/>
       <c r="Q351" s="11"/>
-      <c r="R351" s="56"/>
-      <c r="S351" s="56"/>
-      <c r="T351" s="56"/>
-      <c r="U351" s="56"/>
-      <c r="V351" s="56"/>
+      <c r="R351" s="59"/>
+      <c r="S351" s="59"/>
+      <c r="T351" s="59"/>
+      <c r="U351" s="59"/>
+      <c r="V351" s="59"/>
     </row>
     <row r="352" spans="1:22" ht="37.5">
       <c r="A352" s="40" t="s">
@@ -23607,11 +23601,11 @@
       </c>
       <c r="P352" s="10"/>
       <c r="Q352" s="11"/>
-      <c r="R352" s="56"/>
-      <c r="S352" s="56"/>
-      <c r="T352" s="56"/>
-      <c r="U352" s="56"/>
-      <c r="V352" s="56"/>
+      <c r="R352" s="59"/>
+      <c r="S352" s="59"/>
+      <c r="T352" s="59"/>
+      <c r="U352" s="59"/>
+      <c r="V352" s="59"/>
     </row>
     <row r="353" spans="1:22" ht="75">
       <c r="A353" s="40" t="s">
@@ -23661,11 +23655,11 @@
       </c>
       <c r="P353" s="10"/>
       <c r="Q353" s="11"/>
-      <c r="R353" s="56"/>
-      <c r="S353" s="56"/>
-      <c r="T353" s="56"/>
-      <c r="U353" s="56"/>
-      <c r="V353" s="56"/>
+      <c r="R353" s="59"/>
+      <c r="S353" s="59"/>
+      <c r="T353" s="59"/>
+      <c r="U353" s="59"/>
+      <c r="V353" s="59"/>
     </row>
     <row r="354" spans="1:22" ht="56.25">
       <c r="A354" s="40" t="s">
@@ -23715,11 +23709,11 @@
       </c>
       <c r="P354" s="10"/>
       <c r="Q354" s="11"/>
-      <c r="R354" s="56"/>
-      <c r="S354" s="56"/>
-      <c r="T354" s="56"/>
-      <c r="U354" s="56"/>
-      <c r="V354" s="56"/>
+      <c r="R354" s="59"/>
+      <c r="S354" s="59"/>
+      <c r="T354" s="59"/>
+      <c r="U354" s="59"/>
+      <c r="V354" s="59"/>
     </row>
     <row r="355" spans="1:22" ht="37.5">
       <c r="A355" s="40" t="s">
@@ -23769,11 +23763,11 @@
       </c>
       <c r="P355" s="10"/>
       <c r="Q355" s="11"/>
-      <c r="R355" s="56"/>
-      <c r="S355" s="56"/>
-      <c r="T355" s="56"/>
-      <c r="U355" s="56"/>
-      <c r="V355" s="56"/>
+      <c r="R355" s="59"/>
+      <c r="S355" s="59"/>
+      <c r="T355" s="59"/>
+      <c r="U355" s="59"/>
+      <c r="V355" s="59"/>
     </row>
     <row r="356" spans="1:22" ht="56.25">
       <c r="A356" s="40" t="s">
@@ -23823,11 +23817,11 @@
       </c>
       <c r="P356" s="10"/>
       <c r="Q356" s="11"/>
-      <c r="R356" s="56"/>
-      <c r="S356" s="56"/>
-      <c r="T356" s="56"/>
-      <c r="U356" s="56"/>
-      <c r="V356" s="56"/>
+      <c r="R356" s="59"/>
+      <c r="S356" s="59"/>
+      <c r="T356" s="59"/>
+      <c r="U356" s="59"/>
+      <c r="V356" s="59"/>
     </row>
     <row r="357" spans="1:22" ht="37.5">
       <c r="A357" s="40" t="s">
@@ -23877,11 +23871,11 @@
       </c>
       <c r="P357" s="10"/>
       <c r="Q357" s="11"/>
-      <c r="R357" s="56"/>
-      <c r="S357" s="56"/>
-      <c r="T357" s="56"/>
-      <c r="U357" s="56"/>
-      <c r="V357" s="56"/>
+      <c r="R357" s="59"/>
+      <c r="S357" s="59"/>
+      <c r="T357" s="59"/>
+      <c r="U357" s="59"/>
+      <c r="V357" s="59"/>
     </row>
     <row r="358" spans="1:22" ht="56.25">
       <c r="A358" s="40" t="s">
@@ -23931,11 +23925,11 @@
       </c>
       <c r="P358" s="10"/>
       <c r="Q358" s="11"/>
-      <c r="R358" s="56"/>
-      <c r="S358" s="56"/>
-      <c r="T358" s="56"/>
-      <c r="U358" s="56"/>
-      <c r="V358" s="56"/>
+      <c r="R358" s="59"/>
+      <c r="S358" s="59"/>
+      <c r="T358" s="59"/>
+      <c r="U358" s="59"/>
+      <c r="V358" s="59"/>
     </row>
     <row r="359" spans="1:22" ht="37.5">
       <c r="A359" s="40" t="s">
@@ -23985,11 +23979,11 @@
       </c>
       <c r="P359" s="10"/>
       <c r="Q359" s="11"/>
-      <c r="R359" s="56"/>
-      <c r="S359" s="56"/>
-      <c r="T359" s="56"/>
-      <c r="U359" s="56"/>
-      <c r="V359" s="56"/>
+      <c r="R359" s="59"/>
+      <c r="S359" s="59"/>
+      <c r="T359" s="59"/>
+      <c r="U359" s="59"/>
+      <c r="V359" s="59"/>
     </row>
     <row r="360" spans="1:22" ht="37.5">
       <c r="A360" s="40" t="s">
@@ -24039,11 +24033,11 @@
       </c>
       <c r="P360" s="10"/>
       <c r="Q360" s="11"/>
-      <c r="R360" s="56"/>
-      <c r="S360" s="56"/>
-      <c r="T360" s="56"/>
-      <c r="U360" s="56"/>
-      <c r="V360" s="56"/>
+      <c r="R360" s="59"/>
+      <c r="S360" s="59"/>
+      <c r="T360" s="59"/>
+      <c r="U360" s="59"/>
+      <c r="V360" s="59"/>
     </row>
     <row r="361" spans="1:22" ht="37.5">
       <c r="A361" s="40" t="s">
@@ -24093,11 +24087,11 @@
       </c>
       <c r="P361" s="10"/>
       <c r="Q361" s="11"/>
-      <c r="R361" s="56"/>
-      <c r="S361" s="56"/>
-      <c r="T361" s="56"/>
-      <c r="U361" s="56"/>
-      <c r="V361" s="56"/>
+      <c r="R361" s="59"/>
+      <c r="S361" s="59"/>
+      <c r="T361" s="59"/>
+      <c r="U361" s="59"/>
+      <c r="V361" s="59"/>
     </row>
     <row r="362" spans="1:22" ht="37.5">
       <c r="A362" s="40" t="s">
@@ -24147,11 +24141,11 @@
       </c>
       <c r="P362" s="10"/>
       <c r="Q362" s="11"/>
-      <c r="R362" s="56"/>
-      <c r="S362" s="56"/>
-      <c r="T362" s="56"/>
-      <c r="U362" s="56"/>
-      <c r="V362" s="56"/>
+      <c r="R362" s="59"/>
+      <c r="S362" s="59"/>
+      <c r="T362" s="59"/>
+      <c r="U362" s="59"/>
+      <c r="V362" s="59"/>
     </row>
     <row r="363" spans="1:22" ht="37.5">
       <c r="A363" s="40" t="s">
@@ -24201,11 +24195,11 @@
       </c>
       <c r="P363" s="10"/>
       <c r="Q363" s="11"/>
-      <c r="R363" s="56"/>
-      <c r="S363" s="56"/>
-      <c r="T363" s="56"/>
-      <c r="U363" s="56"/>
-      <c r="V363" s="56"/>
+      <c r="R363" s="59"/>
+      <c r="S363" s="59"/>
+      <c r="T363" s="59"/>
+      <c r="U363" s="59"/>
+      <c r="V363" s="59"/>
     </row>
     <row r="364" spans="1:22" ht="37.5">
       <c r="A364" s="40" t="s">
@@ -24255,11 +24249,11 @@
       </c>
       <c r="P364" s="10"/>
       <c r="Q364" s="11"/>
-      <c r="R364" s="56"/>
-      <c r="S364" s="56"/>
-      <c r="T364" s="56"/>
-      <c r="U364" s="56"/>
-      <c r="V364" s="56"/>
+      <c r="R364" s="59"/>
+      <c r="S364" s="59"/>
+      <c r="T364" s="59"/>
+      <c r="U364" s="59"/>
+      <c r="V364" s="59"/>
     </row>
     <row r="365" spans="1:22" ht="37.5">
       <c r="A365" s="44" t="s">
@@ -24315,13 +24309,13 @@
       <c r="Q365" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R365" s="56" t="s">
+      <c r="R365" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S365" s="56"/>
-      <c r="T365" s="56"/>
-      <c r="U365" s="56"/>
-      <c r="V365" s="56"/>
+      <c r="S365" s="59"/>
+      <c r="T365" s="59"/>
+      <c r="U365" s="59"/>
+      <c r="V365" s="59"/>
     </row>
     <row r="366" spans="1:22" ht="37.5">
       <c r="A366" s="40" t="s">
@@ -24371,11 +24365,11 @@
       </c>
       <c r="P366" s="10"/>
       <c r="Q366" s="11"/>
-      <c r="R366" s="56"/>
-      <c r="S366" s="56"/>
-      <c r="T366" s="56"/>
-      <c r="U366" s="56"/>
-      <c r="V366" s="56"/>
+      <c r="R366" s="59"/>
+      <c r="S366" s="59"/>
+      <c r="T366" s="59"/>
+      <c r="U366" s="59"/>
+      <c r="V366" s="59"/>
     </row>
     <row r="367" spans="1:22" ht="75">
       <c r="A367" s="44" t="s">
@@ -24431,13 +24425,13 @@
       <c r="Q367" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R367" s="56" t="s">
+      <c r="R367" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S367" s="56"/>
-      <c r="T367" s="56"/>
-      <c r="U367" s="56"/>
-      <c r="V367" s="56"/>
+      <c r="S367" s="59"/>
+      <c r="T367" s="59"/>
+      <c r="U367" s="59"/>
+      <c r="V367" s="59"/>
     </row>
     <row r="368" spans="1:22" ht="56.25">
       <c r="A368" s="40" t="s">
@@ -24493,13 +24487,13 @@
       <c r="Q368" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R368" s="56" t="s">
+      <c r="R368" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S368" s="56"/>
-      <c r="T368" s="56"/>
-      <c r="U368" s="56"/>
-      <c r="V368" s="56"/>
+      <c r="S368" s="59"/>
+      <c r="T368" s="59"/>
+      <c r="U368" s="59"/>
+      <c r="V368" s="59"/>
     </row>
     <row r="369" spans="1:22" ht="56.25">
       <c r="A369" s="40" t="s">
@@ -24549,11 +24543,11 @@
       </c>
       <c r="P369" s="10"/>
       <c r="Q369" s="11"/>
-      <c r="R369" s="56"/>
-      <c r="S369" s="56"/>
-      <c r="T369" s="56"/>
-      <c r="U369" s="56"/>
-      <c r="V369" s="56"/>
+      <c r="R369" s="59"/>
+      <c r="S369" s="59"/>
+      <c r="T369" s="59"/>
+      <c r="U369" s="59"/>
+      <c r="V369" s="59"/>
     </row>
     <row r="370" spans="1:22" ht="37.5">
       <c r="A370" s="44" t="s">
@@ -24609,13 +24603,13 @@
       <c r="Q370" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R370" s="56" t="s">
+      <c r="R370" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S370" s="56"/>
-      <c r="T370" s="56"/>
-      <c r="U370" s="56"/>
-      <c r="V370" s="56"/>
+      <c r="S370" s="59"/>
+      <c r="T370" s="59"/>
+      <c r="U370" s="59"/>
+      <c r="V370" s="59"/>
     </row>
     <row r="371" spans="1:22" ht="56.25">
       <c r="A371" s="44" t="s">
@@ -24671,13 +24665,13 @@
       <c r="Q371" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R371" s="56" t="s">
+      <c r="R371" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S371" s="56"/>
-      <c r="T371" s="56"/>
-      <c r="U371" s="56"/>
-      <c r="V371" s="56"/>
+      <c r="S371" s="59"/>
+      <c r="T371" s="59"/>
+      <c r="U371" s="59"/>
+      <c r="V371" s="59"/>
     </row>
     <row r="372" spans="1:22" ht="56.25">
       <c r="A372" s="40" t="s">
@@ -24727,11 +24721,11 @@
       </c>
       <c r="P372" s="10"/>
       <c r="Q372" s="11"/>
-      <c r="R372" s="56"/>
-      <c r="S372" s="56"/>
-      <c r="T372" s="56"/>
-      <c r="U372" s="56"/>
-      <c r="V372" s="56"/>
+      <c r="R372" s="59"/>
+      <c r="S372" s="59"/>
+      <c r="T372" s="59"/>
+      <c r="U372" s="59"/>
+      <c r="V372" s="59"/>
     </row>
     <row r="373" spans="1:22" ht="56.25">
       <c r="A373" s="40" t="s">
@@ -24781,11 +24775,11 @@
       </c>
       <c r="P373" s="10"/>
       <c r="Q373" s="11"/>
-      <c r="R373" s="56"/>
-      <c r="S373" s="56"/>
-      <c r="T373" s="56"/>
-      <c r="U373" s="56"/>
-      <c r="V373" s="56"/>
+      <c r="R373" s="59"/>
+      <c r="S373" s="59"/>
+      <c r="T373" s="59"/>
+      <c r="U373" s="59"/>
+      <c r="V373" s="59"/>
     </row>
     <row r="374" spans="1:22" ht="37.5">
       <c r="A374" s="40" t="s">
@@ -24835,11 +24829,11 @@
       </c>
       <c r="P374" s="10"/>
       <c r="Q374" s="11"/>
-      <c r="R374" s="56"/>
-      <c r="S374" s="56"/>
-      <c r="T374" s="56"/>
-      <c r="U374" s="56"/>
-      <c r="V374" s="56"/>
+      <c r="R374" s="59"/>
+      <c r="S374" s="59"/>
+      <c r="T374" s="59"/>
+      <c r="U374" s="59"/>
+      <c r="V374" s="59"/>
     </row>
     <row r="375" spans="1:22" ht="56.25">
       <c r="A375" s="40" t="s">
@@ -24889,11 +24883,11 @@
       </c>
       <c r="P375" s="10"/>
       <c r="Q375" s="11"/>
-      <c r="R375" s="56"/>
-      <c r="S375" s="56"/>
-      <c r="T375" s="56"/>
-      <c r="U375" s="56"/>
-      <c r="V375" s="56"/>
+      <c r="R375" s="59"/>
+      <c r="S375" s="59"/>
+      <c r="T375" s="59"/>
+      <c r="U375" s="59"/>
+      <c r="V375" s="59"/>
     </row>
     <row r="376" spans="1:22" ht="56.25">
       <c r="A376" s="40" t="s">
@@ -24943,11 +24937,11 @@
       </c>
       <c r="P376" s="10"/>
       <c r="Q376" s="11"/>
-      <c r="R376" s="56"/>
-      <c r="S376" s="56"/>
-      <c r="T376" s="56"/>
-      <c r="U376" s="56"/>
-      <c r="V376" s="56"/>
+      <c r="R376" s="59"/>
+      <c r="S376" s="59"/>
+      <c r="T376" s="59"/>
+      <c r="U376" s="59"/>
+      <c r="V376" s="59"/>
     </row>
     <row r="377" spans="1:22" ht="75">
       <c r="A377" s="44" t="s">
@@ -25003,13 +24997,13 @@
       <c r="Q377" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R377" s="56" t="s">
+      <c r="R377" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S377" s="56"/>
-      <c r="T377" s="56"/>
-      <c r="U377" s="56"/>
-      <c r="V377" s="56"/>
+      <c r="S377" s="59"/>
+      <c r="T377" s="59"/>
+      <c r="U377" s="59"/>
+      <c r="V377" s="59"/>
     </row>
     <row r="378" spans="1:22" ht="75">
       <c r="A378" s="40" t="s">
@@ -25059,11 +25053,11 @@
       </c>
       <c r="P378" s="10"/>
       <c r="Q378" s="11"/>
-      <c r="R378" s="56"/>
-      <c r="S378" s="56"/>
-      <c r="T378" s="56"/>
-      <c r="U378" s="56"/>
-      <c r="V378" s="56"/>
+      <c r="R378" s="59"/>
+      <c r="S378" s="59"/>
+      <c r="T378" s="59"/>
+      <c r="U378" s="59"/>
+      <c r="V378" s="59"/>
     </row>
     <row r="379" spans="1:22" ht="75">
       <c r="A379" s="40" t="s">
@@ -25113,11 +25107,11 @@
       </c>
       <c r="P379" s="10"/>
       <c r="Q379" s="11"/>
-      <c r="R379" s="56"/>
-      <c r="S379" s="56"/>
-      <c r="T379" s="56"/>
-      <c r="U379" s="56"/>
-      <c r="V379" s="56"/>
+      <c r="R379" s="59"/>
+      <c r="S379" s="59"/>
+      <c r="T379" s="59"/>
+      <c r="U379" s="59"/>
+      <c r="V379" s="59"/>
     </row>
     <row r="380" spans="1:22" ht="37.5">
       <c r="A380" s="40" t="s">
@@ -25167,11 +25161,11 @@
       </c>
       <c r="P380" s="10"/>
       <c r="Q380" s="11"/>
-      <c r="R380" s="56"/>
-      <c r="S380" s="56"/>
-      <c r="T380" s="56"/>
-      <c r="U380" s="56"/>
-      <c r="V380" s="56"/>
+      <c r="R380" s="59"/>
+      <c r="S380" s="59"/>
+      <c r="T380" s="59"/>
+      <c r="U380" s="59"/>
+      <c r="V380" s="59"/>
     </row>
     <row r="381" spans="1:22" ht="37.5">
       <c r="A381" s="44" t="s">
@@ -25227,13 +25221,13 @@
       <c r="Q381" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R381" s="56" t="s">
+      <c r="R381" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S381" s="56"/>
-      <c r="T381" s="56"/>
-      <c r="U381" s="56"/>
-      <c r="V381" s="56"/>
+      <c r="S381" s="59"/>
+      <c r="T381" s="59"/>
+      <c r="U381" s="59"/>
+      <c r="V381" s="59"/>
     </row>
     <row r="382" spans="1:22" ht="37.5">
       <c r="A382" s="40" t="s">
@@ -25283,11 +25277,11 @@
       </c>
       <c r="P382" s="10"/>
       <c r="Q382" s="11"/>
-      <c r="R382" s="56"/>
-      <c r="S382" s="56"/>
-      <c r="T382" s="56"/>
-      <c r="U382" s="56"/>
-      <c r="V382" s="56"/>
+      <c r="R382" s="59"/>
+      <c r="S382" s="59"/>
+      <c r="T382" s="59"/>
+      <c r="U382" s="59"/>
+      <c r="V382" s="59"/>
     </row>
     <row r="383" spans="1:22" ht="37.5">
       <c r="A383" s="40" t="s">
@@ -25337,11 +25331,11 @@
       </c>
       <c r="P383" s="10"/>
       <c r="Q383" s="11"/>
-      <c r="R383" s="56"/>
-      <c r="S383" s="56"/>
-      <c r="T383" s="56"/>
-      <c r="U383" s="56"/>
-      <c r="V383" s="56"/>
+      <c r="R383" s="59"/>
+      <c r="S383" s="59"/>
+      <c r="T383" s="59"/>
+      <c r="U383" s="59"/>
+      <c r="V383" s="59"/>
     </row>
     <row r="384" spans="1:22" ht="37.5">
       <c r="A384" s="40" t="s">
@@ -25391,11 +25385,11 @@
       </c>
       <c r="P384" s="10"/>
       <c r="Q384" s="11"/>
-      <c r="R384" s="56"/>
-      <c r="S384" s="56"/>
-      <c r="T384" s="56"/>
-      <c r="U384" s="56"/>
-      <c r="V384" s="56"/>
+      <c r="R384" s="59"/>
+      <c r="S384" s="59"/>
+      <c r="T384" s="59"/>
+      <c r="U384" s="59"/>
+      <c r="V384" s="59"/>
     </row>
     <row r="385" spans="1:22" ht="37.5">
       <c r="A385" s="44" t="s">
@@ -25451,13 +25445,13 @@
       <c r="Q385" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R385" s="56" t="s">
+      <c r="R385" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S385" s="56"/>
-      <c r="T385" s="56"/>
-      <c r="U385" s="56"/>
-      <c r="V385" s="56"/>
+      <c r="S385" s="59"/>
+      <c r="T385" s="59"/>
+      <c r="U385" s="59"/>
+      <c r="V385" s="59"/>
     </row>
     <row r="386" spans="1:22" ht="56.25">
       <c r="A386" s="40" t="s">
@@ -25507,11 +25501,11 @@
       </c>
       <c r="P386" s="10"/>
       <c r="Q386" s="11"/>
-      <c r="R386" s="56"/>
-      <c r="S386" s="56"/>
-      <c r="T386" s="56"/>
-      <c r="U386" s="56"/>
-      <c r="V386" s="56"/>
+      <c r="R386" s="59"/>
+      <c r="S386" s="59"/>
+      <c r="T386" s="59"/>
+      <c r="U386" s="59"/>
+      <c r="V386" s="59"/>
     </row>
     <row r="387" spans="1:22" ht="56.25">
       <c r="A387" s="40" t="s">
@@ -25561,11 +25555,11 @@
       </c>
       <c r="P387" s="10"/>
       <c r="Q387" s="11"/>
-      <c r="R387" s="56"/>
-      <c r="S387" s="56"/>
-      <c r="T387" s="56"/>
-      <c r="U387" s="56"/>
-      <c r="V387" s="56"/>
+      <c r="R387" s="59"/>
+      <c r="S387" s="59"/>
+      <c r="T387" s="59"/>
+      <c r="U387" s="59"/>
+      <c r="V387" s="59"/>
     </row>
     <row r="388" spans="1:22" ht="56.25">
       <c r="A388" s="40" t="s">
@@ -25615,11 +25609,11 @@
       </c>
       <c r="P388" s="10"/>
       <c r="Q388" s="11"/>
-      <c r="R388" s="56"/>
-      <c r="S388" s="56"/>
-      <c r="T388" s="56"/>
-      <c r="U388" s="56"/>
-      <c r="V388" s="56"/>
+      <c r="R388" s="59"/>
+      <c r="S388" s="59"/>
+      <c r="T388" s="59"/>
+      <c r="U388" s="59"/>
+      <c r="V388" s="59"/>
     </row>
     <row r="389" spans="1:22" ht="56.25">
       <c r="A389" s="40" t="s">
@@ -25669,11 +25663,11 @@
       </c>
       <c r="P389" s="10"/>
       <c r="Q389" s="11"/>
-      <c r="R389" s="56"/>
-      <c r="S389" s="56"/>
-      <c r="T389" s="56"/>
-      <c r="U389" s="56"/>
-      <c r="V389" s="56"/>
+      <c r="R389" s="59"/>
+      <c r="S389" s="59"/>
+      <c r="T389" s="59"/>
+      <c r="U389" s="59"/>
+      <c r="V389" s="59"/>
     </row>
     <row r="390" spans="1:22" ht="56.25">
       <c r="A390" s="40" t="s">
@@ -25723,11 +25717,11 @@
       </c>
       <c r="P390" s="10"/>
       <c r="Q390" s="11"/>
-      <c r="R390" s="56"/>
-      <c r="S390" s="56"/>
-      <c r="T390" s="56"/>
-      <c r="U390" s="56"/>
-      <c r="V390" s="56"/>
+      <c r="R390" s="59"/>
+      <c r="S390" s="59"/>
+      <c r="T390" s="59"/>
+      <c r="U390" s="59"/>
+      <c r="V390" s="59"/>
     </row>
     <row r="391" spans="1:22" ht="56.25">
       <c r="A391" s="40" t="s">
@@ -25777,11 +25771,11 @@
       </c>
       <c r="P391" s="10"/>
       <c r="Q391" s="11"/>
-      <c r="R391" s="56"/>
-      <c r="S391" s="56"/>
-      <c r="T391" s="56"/>
-      <c r="U391" s="56"/>
-      <c r="V391" s="56"/>
+      <c r="R391" s="59"/>
+      <c r="S391" s="59"/>
+      <c r="T391" s="59"/>
+      <c r="U391" s="59"/>
+      <c r="V391" s="59"/>
     </row>
     <row r="392" spans="1:22" ht="56.25">
       <c r="A392" s="40" t="s">
@@ -25831,11 +25825,11 @@
       </c>
       <c r="P392" s="10"/>
       <c r="Q392" s="11"/>
-      <c r="R392" s="56"/>
-      <c r="S392" s="56"/>
-      <c r="T392" s="56"/>
-      <c r="U392" s="56"/>
-      <c r="V392" s="56"/>
+      <c r="R392" s="59"/>
+      <c r="S392" s="59"/>
+      <c r="T392" s="59"/>
+      <c r="U392" s="59"/>
+      <c r="V392" s="59"/>
     </row>
     <row r="393" spans="1:22" ht="56.25">
       <c r="A393" s="40" t="s">
@@ -25885,11 +25879,11 @@
       </c>
       <c r="P393" s="10"/>
       <c r="Q393" s="11"/>
-      <c r="R393" s="56"/>
-      <c r="S393" s="56"/>
-      <c r="T393" s="56"/>
-      <c r="U393" s="56"/>
-      <c r="V393" s="56"/>
+      <c r="R393" s="59"/>
+      <c r="S393" s="59"/>
+      <c r="T393" s="59"/>
+      <c r="U393" s="59"/>
+      <c r="V393" s="59"/>
     </row>
     <row r="394" spans="1:22" ht="56.25">
       <c r="A394" s="40" t="s">
@@ -25939,11 +25933,11 @@
       </c>
       <c r="P394" s="10"/>
       <c r="Q394" s="11"/>
-      <c r="R394" s="56"/>
-      <c r="S394" s="56"/>
-      <c r="T394" s="56"/>
-      <c r="U394" s="56"/>
-      <c r="V394" s="56"/>
+      <c r="R394" s="59"/>
+      <c r="S394" s="59"/>
+      <c r="T394" s="59"/>
+      <c r="U394" s="59"/>
+      <c r="V394" s="59"/>
     </row>
     <row r="395" spans="1:22" ht="56.25">
       <c r="A395" s="40" t="s">
@@ -25999,13 +25993,13 @@
       <c r="Q395" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R395" s="56" t="s">
+      <c r="R395" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S395" s="56"/>
-      <c r="T395" s="56"/>
-      <c r="U395" s="56"/>
-      <c r="V395" s="56"/>
+      <c r="S395" s="59"/>
+      <c r="T395" s="59"/>
+      <c r="U395" s="59"/>
+      <c r="V395" s="59"/>
     </row>
     <row r="396" spans="1:22" ht="56.25">
       <c r="A396" s="40" t="s">
@@ -26055,11 +26049,11 @@
       </c>
       <c r="P396" s="10"/>
       <c r="Q396" s="11"/>
-      <c r="R396" s="56"/>
-      <c r="S396" s="56"/>
-      <c r="T396" s="56"/>
-      <c r="U396" s="56"/>
-      <c r="V396" s="56"/>
+      <c r="R396" s="59"/>
+      <c r="S396" s="59"/>
+      <c r="T396" s="59"/>
+      <c r="U396" s="59"/>
+      <c r="V396" s="59"/>
     </row>
     <row r="397" spans="1:22" ht="37.5">
       <c r="A397" s="40" t="s">
@@ -26109,11 +26103,11 @@
       </c>
       <c r="P397" s="10"/>
       <c r="Q397" s="11"/>
-      <c r="R397" s="56"/>
-      <c r="S397" s="56"/>
-      <c r="T397" s="56"/>
-      <c r="U397" s="56"/>
-      <c r="V397" s="56"/>
+      <c r="R397" s="59"/>
+      <c r="S397" s="59"/>
+      <c r="T397" s="59"/>
+      <c r="U397" s="59"/>
+      <c r="V397" s="59"/>
     </row>
     <row r="398" spans="1:22" ht="37.5">
       <c r="A398" s="44" t="s">
@@ -26169,13 +26163,13 @@
       <c r="Q398" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R398" s="56" t="s">
+      <c r="R398" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S398" s="56"/>
-      <c r="T398" s="56"/>
-      <c r="U398" s="56"/>
-      <c r="V398" s="56"/>
+      <c r="S398" s="59"/>
+      <c r="T398" s="59"/>
+      <c r="U398" s="59"/>
+      <c r="V398" s="59"/>
     </row>
     <row r="399" spans="1:22" ht="56.25">
       <c r="A399" s="40" t="s">
@@ -26231,13 +26225,13 @@
       <c r="Q399" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R399" s="56" t="s">
+      <c r="R399" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S399" s="56"/>
-      <c r="T399" s="56"/>
-      <c r="U399" s="56"/>
-      <c r="V399" s="56"/>
+      <c r="S399" s="59"/>
+      <c r="T399" s="59"/>
+      <c r="U399" s="59"/>
+      <c r="V399" s="59"/>
     </row>
     <row r="400" spans="1:22" ht="37.5">
       <c r="A400" s="40" t="s">
@@ -26287,11 +26281,11 @@
       </c>
       <c r="P400" s="10"/>
       <c r="Q400" s="11"/>
-      <c r="R400" s="56"/>
-      <c r="S400" s="56"/>
-      <c r="T400" s="56"/>
-      <c r="U400" s="56"/>
-      <c r="V400" s="56"/>
+      <c r="R400" s="59"/>
+      <c r="S400" s="59"/>
+      <c r="T400" s="59"/>
+      <c r="U400" s="59"/>
+      <c r="V400" s="59"/>
     </row>
     <row r="401" spans="1:22" ht="37.5">
       <c r="A401" s="40" t="s">
@@ -26341,11 +26335,11 @@
       </c>
       <c r="P401" s="10"/>
       <c r="Q401" s="11"/>
-      <c r="R401" s="56"/>
-      <c r="S401" s="56"/>
-      <c r="T401" s="56"/>
-      <c r="U401" s="56"/>
-      <c r="V401" s="56"/>
+      <c r="R401" s="59"/>
+      <c r="S401" s="59"/>
+      <c r="T401" s="59"/>
+      <c r="U401" s="59"/>
+      <c r="V401" s="59"/>
     </row>
     <row r="402" spans="1:22" ht="56.25">
       <c r="A402" s="40" t="s">
@@ -26395,11 +26389,11 @@
       </c>
       <c r="P402" s="10"/>
       <c r="Q402" s="11"/>
-      <c r="R402" s="56"/>
-      <c r="S402" s="56"/>
-      <c r="T402" s="56"/>
-      <c r="U402" s="56"/>
-      <c r="V402" s="56"/>
+      <c r="R402" s="59"/>
+      <c r="S402" s="59"/>
+      <c r="T402" s="59"/>
+      <c r="U402" s="59"/>
+      <c r="V402" s="59"/>
     </row>
     <row r="403" spans="1:22" ht="56.25">
       <c r="A403" s="40" t="s">
@@ -26449,11 +26443,11 @@
       </c>
       <c r="P403" s="10"/>
       <c r="Q403" s="11"/>
-      <c r="R403" s="56"/>
-      <c r="S403" s="56"/>
-      <c r="T403" s="56"/>
-      <c r="U403" s="56"/>
-      <c r="V403" s="56"/>
+      <c r="R403" s="59"/>
+      <c r="S403" s="59"/>
+      <c r="T403" s="59"/>
+      <c r="U403" s="59"/>
+      <c r="V403" s="59"/>
     </row>
     <row r="404" spans="1:22" ht="56.25">
       <c r="A404" s="40" t="s">
@@ -26503,11 +26497,11 @@
       </c>
       <c r="P404" s="10"/>
       <c r="Q404" s="11"/>
-      <c r="R404" s="56"/>
-      <c r="S404" s="56"/>
-      <c r="T404" s="56"/>
-      <c r="U404" s="56"/>
-      <c r="V404" s="56"/>
+      <c r="R404" s="59"/>
+      <c r="S404" s="59"/>
+      <c r="T404" s="59"/>
+      <c r="U404" s="59"/>
+      <c r="V404" s="59"/>
     </row>
     <row r="405" spans="1:22" ht="56.25">
       <c r="A405" s="40" t="s">
@@ -26557,11 +26551,11 @@
       </c>
       <c r="P405" s="10"/>
       <c r="Q405" s="11"/>
-      <c r="R405" s="56"/>
-      <c r="S405" s="56"/>
-      <c r="T405" s="56"/>
-      <c r="U405" s="56"/>
-      <c r="V405" s="56"/>
+      <c r="R405" s="59"/>
+      <c r="S405" s="59"/>
+      <c r="T405" s="59"/>
+      <c r="U405" s="59"/>
+      <c r="V405" s="59"/>
     </row>
     <row r="406" spans="1:22" ht="37.5">
       <c r="A406" s="44" t="s">
@@ -26617,13 +26611,13 @@
       <c r="Q406" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R406" s="56" t="s">
+      <c r="R406" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S406" s="56"/>
-      <c r="T406" s="56"/>
-      <c r="U406" s="56"/>
-      <c r="V406" s="56"/>
+      <c r="S406" s="59"/>
+      <c r="T406" s="59"/>
+      <c r="U406" s="59"/>
+      <c r="V406" s="59"/>
     </row>
     <row r="407" spans="1:22" ht="56.25">
       <c r="A407" s="44" t="s">
@@ -26679,13 +26673,13 @@
       <c r="Q407" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R407" s="56" t="s">
+      <c r="R407" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S407" s="56"/>
-      <c r="T407" s="56"/>
-      <c r="U407" s="56"/>
-      <c r="V407" s="56"/>
+      <c r="S407" s="59"/>
+      <c r="T407" s="59"/>
+      <c r="U407" s="59"/>
+      <c r="V407" s="59"/>
     </row>
     <row r="408" spans="1:22" ht="56.25">
       <c r="A408" s="44" t="s">
@@ -26741,13 +26735,13 @@
       <c r="Q408" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R408" s="56" t="s">
+      <c r="R408" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S408" s="56"/>
-      <c r="T408" s="56"/>
-      <c r="U408" s="56"/>
-      <c r="V408" s="56"/>
+      <c r="S408" s="59"/>
+      <c r="T408" s="59"/>
+      <c r="U408" s="59"/>
+      <c r="V408" s="59"/>
     </row>
     <row r="409" spans="1:22" ht="56.25">
       <c r="A409" s="44" t="s">
@@ -26803,13 +26797,13 @@
       <c r="Q409" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R409" s="56" t="s">
+      <c r="R409" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S409" s="56"/>
-      <c r="T409" s="56"/>
-      <c r="U409" s="56"/>
-      <c r="V409" s="56"/>
+      <c r="S409" s="59"/>
+      <c r="T409" s="59"/>
+      <c r="U409" s="59"/>
+      <c r="V409" s="59"/>
     </row>
     <row r="410" spans="1:22" ht="56.25">
       <c r="A410" s="40" t="s">
@@ -26865,13 +26859,13 @@
       <c r="Q410" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R410" s="56" t="s">
+      <c r="R410" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S410" s="56"/>
-      <c r="T410" s="56"/>
-      <c r="U410" s="56"/>
-      <c r="V410" s="56"/>
+      <c r="S410" s="59"/>
+      <c r="T410" s="59"/>
+      <c r="U410" s="59"/>
+      <c r="V410" s="59"/>
     </row>
     <row r="411" spans="1:22" ht="56.25">
       <c r="A411" s="44" t="s">
@@ -26927,13 +26921,13 @@
       <c r="Q411" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R411" s="56" t="s">
+      <c r="R411" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S411" s="56"/>
-      <c r="T411" s="56"/>
-      <c r="U411" s="56"/>
-      <c r="V411" s="56"/>
+      <c r="S411" s="59"/>
+      <c r="T411" s="59"/>
+      <c r="U411" s="59"/>
+      <c r="V411" s="59"/>
     </row>
     <row r="412" spans="1:22" ht="56.25">
       <c r="A412" s="40" t="s">
@@ -26983,11 +26977,11 @@
       </c>
       <c r="P412" s="10"/>
       <c r="Q412" s="11"/>
-      <c r="R412" s="56"/>
-      <c r="S412" s="56"/>
-      <c r="T412" s="56"/>
-      <c r="U412" s="56"/>
-      <c r="V412" s="56"/>
+      <c r="R412" s="59"/>
+      <c r="S412" s="59"/>
+      <c r="T412" s="59"/>
+      <c r="U412" s="59"/>
+      <c r="V412" s="59"/>
     </row>
     <row r="413" spans="1:22" ht="37.5">
       <c r="A413" s="40" t="s">
@@ -27037,11 +27031,11 @@
       </c>
       <c r="P413" s="10"/>
       <c r="Q413" s="11"/>
-      <c r="R413" s="56"/>
-      <c r="S413" s="56"/>
-      <c r="T413" s="56"/>
-      <c r="U413" s="56"/>
-      <c r="V413" s="56"/>
+      <c r="R413" s="59"/>
+      <c r="S413" s="59"/>
+      <c r="T413" s="59"/>
+      <c r="U413" s="59"/>
+      <c r="V413" s="59"/>
     </row>
     <row r="414" spans="1:22" ht="37.5">
       <c r="A414" s="40" t="s">
@@ -27091,11 +27085,11 @@
       </c>
       <c r="P414" s="10"/>
       <c r="Q414" s="11"/>
-      <c r="R414" s="56"/>
-      <c r="S414" s="56"/>
-      <c r="T414" s="56"/>
-      <c r="U414" s="56"/>
-      <c r="V414" s="56"/>
+      <c r="R414" s="59"/>
+      <c r="S414" s="59"/>
+      <c r="T414" s="59"/>
+      <c r="U414" s="59"/>
+      <c r="V414" s="59"/>
     </row>
     <row r="415" spans="1:22" ht="37.5">
       <c r="A415" s="40" t="s">
@@ -27145,11 +27139,11 @@
       </c>
       <c r="P415" s="10"/>
       <c r="Q415" s="11"/>
-      <c r="R415" s="56"/>
-      <c r="S415" s="56"/>
-      <c r="T415" s="56"/>
-      <c r="U415" s="56"/>
-      <c r="V415" s="56"/>
+      <c r="R415" s="59"/>
+      <c r="S415" s="59"/>
+      <c r="T415" s="59"/>
+      <c r="U415" s="59"/>
+      <c r="V415" s="59"/>
     </row>
     <row r="416" spans="1:22" ht="56.25">
       <c r="A416" s="40" t="s">
@@ -27199,11 +27193,11 @@
       </c>
       <c r="P416" s="10"/>
       <c r="Q416" s="11"/>
-      <c r="R416" s="56"/>
-      <c r="S416" s="56"/>
-      <c r="T416" s="56"/>
-      <c r="U416" s="56"/>
-      <c r="V416" s="56"/>
+      <c r="R416" s="59"/>
+      <c r="S416" s="59"/>
+      <c r="T416" s="59"/>
+      <c r="U416" s="59"/>
+      <c r="V416" s="59"/>
     </row>
     <row r="417" spans="1:22" ht="37.5">
       <c r="A417" s="40" t="s">
@@ -27253,11 +27247,11 @@
       </c>
       <c r="P417" s="10"/>
       <c r="Q417" s="11"/>
-      <c r="R417" s="56"/>
-      <c r="S417" s="56"/>
-      <c r="T417" s="56"/>
-      <c r="U417" s="56"/>
-      <c r="V417" s="56"/>
+      <c r="R417" s="59"/>
+      <c r="S417" s="59"/>
+      <c r="T417" s="59"/>
+      <c r="U417" s="59"/>
+      <c r="V417" s="59"/>
     </row>
     <row r="418" spans="1:22" ht="37.5">
       <c r="A418" s="44" t="s">
@@ -27313,13 +27307,13 @@
       <c r="Q418" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R418" s="56" t="s">
+      <c r="R418" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S418" s="56"/>
-      <c r="T418" s="56"/>
-      <c r="U418" s="56"/>
-      <c r="V418" s="56"/>
+      <c r="S418" s="59"/>
+      <c r="T418" s="59"/>
+      <c r="U418" s="59"/>
+      <c r="V418" s="59"/>
     </row>
     <row r="419" spans="1:22" ht="37.5">
       <c r="A419" s="40" t="s">
@@ -27369,11 +27363,11 @@
       </c>
       <c r="P419" s="10"/>
       <c r="Q419" s="11"/>
-      <c r="R419" s="56"/>
-      <c r="S419" s="56"/>
-      <c r="T419" s="56"/>
-      <c r="U419" s="56"/>
-      <c r="V419" s="56"/>
+      <c r="R419" s="59"/>
+      <c r="S419" s="59"/>
+      <c r="T419" s="59"/>
+      <c r="U419" s="59"/>
+      <c r="V419" s="59"/>
     </row>
     <row r="420" spans="1:22" ht="56.25">
       <c r="A420" s="44" t="s">
@@ -27429,13 +27423,13 @@
       <c r="Q420" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R420" s="56" t="s">
+      <c r="R420" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S420" s="56"/>
-      <c r="T420" s="56"/>
-      <c r="U420" s="56"/>
-      <c r="V420" s="56"/>
+      <c r="S420" s="59"/>
+      <c r="T420" s="59"/>
+      <c r="U420" s="59"/>
+      <c r="V420" s="59"/>
     </row>
     <row r="421" spans="1:22">
       <c r="A421" s="44" t="s">
@@ -27491,13 +27485,13 @@
       <c r="Q421" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R421" s="56" t="s">
+      <c r="R421" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S421" s="56"/>
-      <c r="T421" s="56"/>
-      <c r="U421" s="56"/>
-      <c r="V421" s="56"/>
+      <c r="S421" s="59"/>
+      <c r="T421" s="59"/>
+      <c r="U421" s="59"/>
+      <c r="V421" s="59"/>
     </row>
     <row r="422" spans="1:22" ht="37.5">
       <c r="A422" s="44" t="s">
@@ -27553,13 +27547,13 @@
       <c r="Q422" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R422" s="56" t="s">
+      <c r="R422" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S422" s="56"/>
-      <c r="T422" s="56"/>
-      <c r="U422" s="56"/>
-      <c r="V422" s="56"/>
+      <c r="S422" s="59"/>
+      <c r="T422" s="59"/>
+      <c r="U422" s="59"/>
+      <c r="V422" s="59"/>
     </row>
     <row r="423" spans="1:22" ht="37.5">
       <c r="A423" s="40" t="s">
@@ -27609,11 +27603,11 @@
       </c>
       <c r="P423" s="10"/>
       <c r="Q423" s="11"/>
-      <c r="R423" s="56"/>
-      <c r="S423" s="56"/>
-      <c r="T423" s="56"/>
-      <c r="U423" s="56"/>
-      <c r="V423" s="56"/>
+      <c r="R423" s="59"/>
+      <c r="S423" s="59"/>
+      <c r="T423" s="59"/>
+      <c r="U423" s="59"/>
+      <c r="V423" s="59"/>
     </row>
     <row r="424" spans="1:22" ht="37.5">
       <c r="A424" s="44" t="s">
@@ -27669,13 +27663,13 @@
       <c r="Q424" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R424" s="56" t="s">
+      <c r="R424" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S424" s="56"/>
-      <c r="T424" s="56"/>
-      <c r="U424" s="56"/>
-      <c r="V424" s="56"/>
+      <c r="S424" s="59"/>
+      <c r="T424" s="59"/>
+      <c r="U424" s="59"/>
+      <c r="V424" s="59"/>
     </row>
     <row r="425" spans="1:22" ht="56.25">
       <c r="A425" s="40" t="s">
@@ -27725,11 +27719,11 @@
       </c>
       <c r="P425" s="10"/>
       <c r="Q425" s="11"/>
-      <c r="R425" s="56"/>
-      <c r="S425" s="56"/>
-      <c r="T425" s="56"/>
-      <c r="U425" s="56"/>
-      <c r="V425" s="56"/>
+      <c r="R425" s="59"/>
+      <c r="S425" s="59"/>
+      <c r="T425" s="59"/>
+      <c r="U425" s="59"/>
+      <c r="V425" s="59"/>
     </row>
     <row r="426" spans="1:22" ht="37.5">
       <c r="A426" s="40" t="s">
@@ -27785,13 +27779,13 @@
       <c r="Q426" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R426" s="56" t="s">
+      <c r="R426" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S426" s="56"/>
-      <c r="T426" s="56"/>
-      <c r="U426" s="56"/>
-      <c r="V426" s="56"/>
+      <c r="S426" s="59"/>
+      <c r="T426" s="59"/>
+      <c r="U426" s="59"/>
+      <c r="V426" s="59"/>
     </row>
     <row r="427" spans="1:22" ht="37.5">
       <c r="A427" s="40" t="s">
@@ -27841,11 +27835,11 @@
       </c>
       <c r="P427" s="10"/>
       <c r="Q427" s="11"/>
-      <c r="R427" s="56"/>
-      <c r="S427" s="56"/>
-      <c r="T427" s="56"/>
-      <c r="U427" s="56"/>
-      <c r="V427" s="56"/>
+      <c r="R427" s="59"/>
+      <c r="S427" s="59"/>
+      <c r="T427" s="59"/>
+      <c r="U427" s="59"/>
+      <c r="V427" s="59"/>
     </row>
     <row r="428" spans="1:22" ht="56.25">
       <c r="A428" s="40" t="s">
@@ -27895,11 +27889,11 @@
       </c>
       <c r="P428" s="10"/>
       <c r="Q428" s="11"/>
-      <c r="R428" s="56"/>
-      <c r="S428" s="56"/>
-      <c r="T428" s="56"/>
-      <c r="U428" s="56"/>
-      <c r="V428" s="56"/>
+      <c r="R428" s="59"/>
+      <c r="S428" s="59"/>
+      <c r="T428" s="59"/>
+      <c r="U428" s="59"/>
+      <c r="V428" s="59"/>
     </row>
     <row r="429" spans="1:22" ht="56.25">
       <c r="A429" s="40" t="s">
@@ -27949,11 +27943,11 @@
       </c>
       <c r="P429" s="10"/>
       <c r="Q429" s="11"/>
-      <c r="R429" s="56"/>
-      <c r="S429" s="56"/>
-      <c r="T429" s="56"/>
-      <c r="U429" s="56"/>
-      <c r="V429" s="56"/>
+      <c r="R429" s="59"/>
+      <c r="S429" s="59"/>
+      <c r="T429" s="59"/>
+      <c r="U429" s="59"/>
+      <c r="V429" s="59"/>
     </row>
     <row r="430" spans="1:22" ht="37.5">
       <c r="A430" s="40" t="s">
@@ -28003,11 +27997,11 @@
       </c>
       <c r="P430" s="10"/>
       <c r="Q430" s="11"/>
-      <c r="R430" s="56"/>
-      <c r="S430" s="56"/>
-      <c r="T430" s="56"/>
-      <c r="U430" s="56"/>
-      <c r="V430" s="56"/>
+      <c r="R430" s="59"/>
+      <c r="S430" s="59"/>
+      <c r="T430" s="59"/>
+      <c r="U430" s="59"/>
+      <c r="V430" s="59"/>
     </row>
     <row r="431" spans="1:22" ht="37.5">
       <c r="A431" s="40" t="s">
@@ -28057,11 +28051,11 @@
       </c>
       <c r="P431" s="10"/>
       <c r="Q431" s="11"/>
-      <c r="R431" s="56"/>
-      <c r="S431" s="56"/>
-      <c r="T431" s="56"/>
-      <c r="U431" s="56"/>
-      <c r="V431" s="56"/>
+      <c r="R431" s="59"/>
+      <c r="S431" s="59"/>
+      <c r="T431" s="59"/>
+      <c r="U431" s="59"/>
+      <c r="V431" s="59"/>
     </row>
     <row r="432" spans="1:22" ht="37.5">
       <c r="A432" s="44" t="s">
@@ -28117,13 +28111,13 @@
       <c r="Q432" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R432" s="56" t="s">
+      <c r="R432" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S432" s="56"/>
-      <c r="T432" s="56"/>
-      <c r="U432" s="56"/>
-      <c r="V432" s="56"/>
+      <c r="S432" s="59"/>
+      <c r="T432" s="59"/>
+      <c r="U432" s="59"/>
+      <c r="V432" s="59"/>
     </row>
     <row r="433" spans="1:22" ht="56.25">
       <c r="A433" s="40" t="s">
@@ -28173,11 +28167,11 @@
       </c>
       <c r="P433" s="10"/>
       <c r="Q433" s="11"/>
-      <c r="R433" s="56"/>
-      <c r="S433" s="56"/>
-      <c r="T433" s="56"/>
-      <c r="U433" s="56"/>
-      <c r="V433" s="56"/>
+      <c r="R433" s="59"/>
+      <c r="S433" s="59"/>
+      <c r="T433" s="59"/>
+      <c r="U433" s="59"/>
+      <c r="V433" s="59"/>
     </row>
     <row r="434" spans="1:22" ht="37.5">
       <c r="A434" s="40" t="s">
@@ -28233,13 +28227,13 @@
       <c r="Q434" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R434" s="56" t="s">
+      <c r="R434" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S434" s="56"/>
-      <c r="T434" s="56"/>
-      <c r="U434" s="56"/>
-      <c r="V434" s="56"/>
+      <c r="S434" s="59"/>
+      <c r="T434" s="59"/>
+      <c r="U434" s="59"/>
+      <c r="V434" s="59"/>
     </row>
     <row r="435" spans="1:22" ht="37.5">
       <c r="A435" s="44" t="s">
@@ -28295,13 +28289,13 @@
       <c r="Q435" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R435" s="56" t="s">
+      <c r="R435" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S435" s="56"/>
-      <c r="T435" s="56"/>
-      <c r="U435" s="56"/>
-      <c r="V435" s="56"/>
+      <c r="S435" s="59"/>
+      <c r="T435" s="59"/>
+      <c r="U435" s="59"/>
+      <c r="V435" s="59"/>
     </row>
     <row r="436" spans="1:22" ht="37.5">
       <c r="A436" s="40" t="s">
@@ -28351,11 +28345,11 @@
       </c>
       <c r="P436" s="10"/>
       <c r="Q436" s="11"/>
-      <c r="R436" s="56"/>
-      <c r="S436" s="56"/>
-      <c r="T436" s="56"/>
-      <c r="U436" s="56"/>
-      <c r="V436" s="56"/>
+      <c r="R436" s="59"/>
+      <c r="S436" s="59"/>
+      <c r="T436" s="59"/>
+      <c r="U436" s="59"/>
+      <c r="V436" s="59"/>
     </row>
     <row r="437" spans="1:22" ht="37.5">
       <c r="A437" s="40" t="s">
@@ -28405,11 +28399,11 @@
       </c>
       <c r="P437" s="10"/>
       <c r="Q437" s="11"/>
-      <c r="R437" s="56"/>
-      <c r="S437" s="56"/>
-      <c r="T437" s="56"/>
-      <c r="U437" s="56"/>
-      <c r="V437" s="56"/>
+      <c r="R437" s="59"/>
+      <c r="S437" s="59"/>
+      <c r="T437" s="59"/>
+      <c r="U437" s="59"/>
+      <c r="V437" s="59"/>
     </row>
     <row r="438" spans="1:22" ht="37.5">
       <c r="A438" s="40" t="s">
@@ -28465,13 +28459,13 @@
       <c r="Q438" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R438" s="56" t="s">
+      <c r="R438" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="S438" s="56"/>
-      <c r="T438" s="56"/>
-      <c r="U438" s="56"/>
-      <c r="V438" s="56"/>
+      <c r="S438" s="59"/>
+      <c r="T438" s="59"/>
+      <c r="U438" s="59"/>
+      <c r="V438" s="59"/>
     </row>
     <row r="439" spans="1:22" ht="37.5">
       <c r="A439" s="40" t="s">
@@ -28521,11 +28515,11 @@
       </c>
       <c r="P439" s="10"/>
       <c r="Q439" s="11"/>
-      <c r="R439" s="56"/>
-      <c r="S439" s="56"/>
-      <c r="T439" s="56"/>
-      <c r="U439" s="56"/>
-      <c r="V439" s="56"/>
+      <c r="R439" s="59"/>
+      <c r="S439" s="59"/>
+      <c r="T439" s="59"/>
+      <c r="U439" s="59"/>
+      <c r="V439" s="59"/>
     </row>
     <row r="440" spans="1:22" ht="37.5">
       <c r="A440" s="40" t="s">
@@ -28581,13 +28575,13 @@
       <c r="Q440" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="R440" s="57" t="s">
+      <c r="R440" s="60" t="s">
         <v>824</v>
       </c>
-      <c r="S440" s="57"/>
-      <c r="T440" s="57"/>
-      <c r="U440" s="57"/>
-      <c r="V440" s="57"/>
+      <c r="S440" s="60"/>
+      <c r="T440" s="60"/>
+      <c r="U440" s="60"/>
+      <c r="V440" s="60"/>
     </row>
     <row r="441" spans="1:22" ht="37.5">
       <c r="A441" s="44" t="s">
@@ -28643,13 +28637,13 @@
       <c r="Q441" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R441" s="56" t="s">
+      <c r="R441" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S441" s="56"/>
-      <c r="T441" s="56"/>
-      <c r="U441" s="56"/>
-      <c r="V441" s="56"/>
+      <c r="S441" s="59"/>
+      <c r="T441" s="59"/>
+      <c r="U441" s="59"/>
+      <c r="V441" s="59"/>
     </row>
     <row r="442" spans="1:22" ht="37.5">
       <c r="A442" s="40" t="s">
@@ -28699,11 +28693,11 @@
       </c>
       <c r="P442" s="10"/>
       <c r="Q442" s="11"/>
-      <c r="R442" s="56"/>
-      <c r="S442" s="56"/>
-      <c r="T442" s="56"/>
-      <c r="U442" s="56"/>
-      <c r="V442" s="56"/>
+      <c r="R442" s="59"/>
+      <c r="S442" s="59"/>
+      <c r="T442" s="59"/>
+      <c r="U442" s="59"/>
+      <c r="V442" s="59"/>
     </row>
     <row r="443" spans="1:22" ht="37.5">
       <c r="A443" s="44" t="s">
@@ -28759,13 +28753,13 @@
       <c r="Q443" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R443" s="56" t="s">
+      <c r="R443" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S443" s="56"/>
-      <c r="T443" s="56"/>
-      <c r="U443" s="56"/>
-      <c r="V443" s="56"/>
+      <c r="S443" s="59"/>
+      <c r="T443" s="59"/>
+      <c r="U443" s="59"/>
+      <c r="V443" s="59"/>
     </row>
     <row r="444" spans="1:22" ht="56.25">
       <c r="A444" s="40" t="s">
@@ -28815,11 +28809,11 @@
       </c>
       <c r="P444" s="10"/>
       <c r="Q444" s="11"/>
-      <c r="R444" s="56"/>
-      <c r="S444" s="56"/>
-      <c r="T444" s="56"/>
-      <c r="U444" s="56"/>
-      <c r="V444" s="56"/>
+      <c r="R444" s="59"/>
+      <c r="S444" s="59"/>
+      <c r="T444" s="59"/>
+      <c r="U444" s="59"/>
+      <c r="V444" s="59"/>
     </row>
     <row r="445" spans="1:22" ht="37.5">
       <c r="A445" s="44" t="s">
@@ -28875,13 +28869,13 @@
       <c r="Q445" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="R445" s="56" t="s">
+      <c r="R445" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="S445" s="56"/>
-      <c r="T445" s="56"/>
-      <c r="U445" s="56"/>
-      <c r="V445" s="56"/>
+      <c r="S445" s="59"/>
+      <c r="T445" s="59"/>
+      <c r="U445" s="59"/>
+      <c r="V445" s="59"/>
     </row>
     <row r="446" spans="1:22" ht="37.5">
       <c r="A446" s="40" t="s">
@@ -28931,11 +28925,11 @@
       </c>
       <c r="P446" s="10"/>
       <c r="Q446" s="11"/>
-      <c r="R446" s="56"/>
-      <c r="S446" s="56"/>
-      <c r="T446" s="56"/>
-      <c r="U446" s="56"/>
-      <c r="V446" s="56"/>
+      <c r="R446" s="59"/>
+      <c r="S446" s="59"/>
+      <c r="T446" s="59"/>
+      <c r="U446" s="59"/>
+      <c r="V446" s="59"/>
     </row>
     <row r="447" spans="1:22" ht="37.5">
       <c r="A447" s="40" t="s">
@@ -28985,11 +28979,11 @@
       </c>
       <c r="P447" s="10"/>
       <c r="Q447" s="11"/>
-      <c r="R447" s="56"/>
-      <c r="S447" s="56"/>
-      <c r="T447" s="56"/>
-      <c r="U447" s="56"/>
-      <c r="V447" s="56"/>
+      <c r="R447" s="59"/>
+      <c r="S447" s="59"/>
+      <c r="T447" s="59"/>
+      <c r="U447" s="59"/>
+      <c r="V447" s="59"/>
     </row>
     <row r="448" spans="1:22" ht="37.5">
       <c r="A448" s="40" t="s">
@@ -29039,11 +29033,11 @@
       </c>
       <c r="P448" s="10"/>
       <c r="Q448" s="11"/>
-      <c r="R448" s="56"/>
-      <c r="S448" s="56"/>
-      <c r="T448" s="56"/>
-      <c r="U448" s="56"/>
-      <c r="V448" s="56"/>
+      <c r="R448" s="59"/>
+      <c r="S448" s="59"/>
+      <c r="T448" s="59"/>
+      <c r="U448" s="59"/>
+      <c r="V448" s="59"/>
     </row>
     <row r="449" spans="1:22" ht="37.5">
       <c r="A449" s="40" t="s">
@@ -29093,11 +29087,11 @@
       </c>
       <c r="P449" s="10"/>
       <c r="Q449" s="11"/>
-      <c r="R449" s="56"/>
-      <c r="S449" s="56"/>
-      <c r="T449" s="56"/>
-      <c r="U449" s="56"/>
-      <c r="V449" s="56"/>
+      <c r="R449" s="59"/>
+      <c r="S449" s="59"/>
+      <c r="T449" s="59"/>
+      <c r="U449" s="59"/>
+      <c r="V449" s="59"/>
     </row>
     <row r="450" spans="1:22" ht="37.5">
       <c r="A450" s="40" t="s">
@@ -29147,11 +29141,11 @@
       </c>
       <c r="P450" s="10"/>
       <c r="Q450" s="11"/>
-      <c r="R450" s="56"/>
-      <c r="S450" s="56"/>
-      <c r="T450" s="56"/>
-      <c r="U450" s="56"/>
-      <c r="V450" s="56"/>
+      <c r="R450" s="59"/>
+      <c r="S450" s="59"/>
+      <c r="T450" s="59"/>
+      <c r="U450" s="59"/>
+      <c r="V450" s="59"/>
     </row>
     <row r="451" spans="1:22" ht="37.5">
       <c r="A451" s="40" t="s">
@@ -29201,11 +29195,11 @@
       </c>
       <c r="P451" s="10"/>
       <c r="Q451" s="11"/>
-      <c r="R451" s="56"/>
-      <c r="S451" s="56"/>
-      <c r="T451" s="56"/>
-      <c r="U451" s="56"/>
-      <c r="V451" s="56"/>
+      <c r="R451" s="59"/>
+      <c r="S451" s="59"/>
+      <c r="T451" s="59"/>
+      <c r="U451" s="59"/>
+      <c r="V451" s="59"/>
     </row>
     <row r="452" spans="1:22">
       <c r="A452" s="40" t="s">
@@ -29255,11 +29249,11 @@
       </c>
       <c r="P452" s="10"/>
       <c r="Q452" s="11"/>
-      <c r="R452" s="56"/>
-      <c r="S452" s="56"/>
-      <c r="T452" s="56"/>
-      <c r="U452" s="56"/>
-      <c r="V452" s="56"/>
+      <c r="R452" s="59"/>
+      <c r="S452" s="59"/>
+      <c r="T452" s="59"/>
+      <c r="U452" s="59"/>
+      <c r="V452" s="59"/>
     </row>
     <row r="453" spans="1:22" ht="37.5">
       <c r="A453" s="40" t="s">
@@ -29309,11 +29303,11 @@
       </c>
       <c r="P453" s="10"/>
       <c r="Q453" s="11"/>
-      <c r="R453" s="56"/>
-      <c r="S453" s="56"/>
-      <c r="T453" s="56"/>
-      <c r="U453" s="56"/>
-      <c r="V453" s="56"/>
+      <c r="R453" s="59"/>
+      <c r="S453" s="59"/>
+      <c r="T453" s="59"/>
+      <c r="U453" s="59"/>
+      <c r="V453" s="59"/>
     </row>
     <row r="454" spans="1:22" ht="56.25">
       <c r="A454" s="40" t="s">
@@ -29369,13 +29363,13 @@
       <c r="Q454" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R454" s="56" t="s">
+      <c r="R454" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S454" s="56"/>
-      <c r="T454" s="56"/>
-      <c r="U454" s="56"/>
-      <c r="V454" s="56"/>
+      <c r="S454" s="59"/>
+      <c r="T454" s="59"/>
+      <c r="U454" s="59"/>
+      <c r="V454" s="59"/>
     </row>
     <row r="455" spans="1:22" ht="56.25">
       <c r="A455" s="40" t="s">
@@ -29425,11 +29419,11 @@
       </c>
       <c r="P455" s="10"/>
       <c r="Q455" s="11"/>
-      <c r="R455" s="56"/>
-      <c r="S455" s="56"/>
-      <c r="T455" s="56"/>
-      <c r="U455" s="56"/>
-      <c r="V455" s="56"/>
+      <c r="R455" s="59"/>
+      <c r="S455" s="59"/>
+      <c r="T455" s="59"/>
+      <c r="U455" s="59"/>
+      <c r="V455" s="59"/>
     </row>
     <row r="456" spans="1:22" ht="56.25">
       <c r="A456" s="40" t="s">
@@ -29479,11 +29473,11 @@
       </c>
       <c r="P456" s="10"/>
       <c r="Q456" s="11"/>
-      <c r="R456" s="56"/>
-      <c r="S456" s="56"/>
-      <c r="T456" s="56"/>
-      <c r="U456" s="56"/>
-      <c r="V456" s="56"/>
+      <c r="R456" s="59"/>
+      <c r="S456" s="59"/>
+      <c r="T456" s="59"/>
+      <c r="U456" s="59"/>
+      <c r="V456" s="59"/>
     </row>
     <row r="457" spans="1:22" ht="56.25">
       <c r="A457" s="40" t="s">
@@ -29533,11 +29527,11 @@
       </c>
       <c r="P457" s="10"/>
       <c r="Q457" s="11"/>
-      <c r="R457" s="56"/>
-      <c r="S457" s="56"/>
-      <c r="T457" s="56"/>
-      <c r="U457" s="56"/>
-      <c r="V457" s="56"/>
+      <c r="R457" s="59"/>
+      <c r="S457" s="59"/>
+      <c r="T457" s="59"/>
+      <c r="U457" s="59"/>
+      <c r="V457" s="59"/>
     </row>
     <row r="458" spans="1:22" ht="56.25">
       <c r="A458" s="40" t="s">
@@ -29587,11 +29581,11 @@
       </c>
       <c r="P458" s="10"/>
       <c r="Q458" s="11"/>
-      <c r="R458" s="56"/>
-      <c r="S458" s="56"/>
-      <c r="T458" s="56"/>
-      <c r="U458" s="56"/>
-      <c r="V458" s="56"/>
+      <c r="R458" s="59"/>
+      <c r="S458" s="59"/>
+      <c r="T458" s="59"/>
+      <c r="U458" s="59"/>
+      <c r="V458" s="59"/>
     </row>
     <row r="459" spans="1:22" ht="56.25">
       <c r="A459" s="40" t="s">
@@ -29641,11 +29635,11 @@
       </c>
       <c r="P459" s="10"/>
       <c r="Q459" s="11"/>
-      <c r="R459" s="56"/>
-      <c r="S459" s="56"/>
-      <c r="T459" s="56"/>
-      <c r="U459" s="56"/>
-      <c r="V459" s="56"/>
+      <c r="R459" s="59"/>
+      <c r="S459" s="59"/>
+      <c r="T459" s="59"/>
+      <c r="U459" s="59"/>
+      <c r="V459" s="59"/>
     </row>
     <row r="460" spans="1:22" ht="56.25">
       <c r="A460" s="40" t="s">
@@ -29695,11 +29689,11 @@
       </c>
       <c r="P460" s="10"/>
       <c r="Q460" s="11"/>
-      <c r="R460" s="56"/>
-      <c r="S460" s="56"/>
-      <c r="T460" s="56"/>
-      <c r="U460" s="56"/>
-      <c r="V460" s="56"/>
+      <c r="R460" s="59"/>
+      <c r="S460" s="59"/>
+      <c r="T460" s="59"/>
+      <c r="U460" s="59"/>
+      <c r="V460" s="59"/>
     </row>
     <row r="461" spans="1:22" ht="56.25">
       <c r="A461" s="40" t="s">
@@ -29749,11 +29743,11 @@
       </c>
       <c r="P461" s="10"/>
       <c r="Q461" s="11"/>
-      <c r="R461" s="56"/>
-      <c r="S461" s="56"/>
-      <c r="T461" s="56"/>
-      <c r="U461" s="56"/>
-      <c r="V461" s="56"/>
+      <c r="R461" s="59"/>
+      <c r="S461" s="59"/>
+      <c r="T461" s="59"/>
+      <c r="U461" s="59"/>
+      <c r="V461" s="59"/>
     </row>
     <row r="462" spans="1:22" ht="56.25">
       <c r="A462" s="40" t="s">
@@ -29803,11 +29797,11 @@
       </c>
       <c r="P462" s="10"/>
       <c r="Q462" s="11"/>
-      <c r="R462" s="56"/>
-      <c r="S462" s="56"/>
-      <c r="T462" s="56"/>
-      <c r="U462" s="56"/>
-      <c r="V462" s="56"/>
+      <c r="R462" s="59"/>
+      <c r="S462" s="59"/>
+      <c r="T462" s="59"/>
+      <c r="U462" s="59"/>
+      <c r="V462" s="59"/>
     </row>
     <row r="463" spans="1:22" ht="37.5">
       <c r="A463" s="40" t="s">
@@ -29857,11 +29851,11 @@
       </c>
       <c r="P463" s="10"/>
       <c r="Q463" s="11"/>
-      <c r="R463" s="56"/>
-      <c r="S463" s="56"/>
-      <c r="T463" s="56"/>
-      <c r="U463" s="56"/>
-      <c r="V463" s="56"/>
+      <c r="R463" s="59"/>
+      <c r="S463" s="59"/>
+      <c r="T463" s="59"/>
+      <c r="U463" s="59"/>
+      <c r="V463" s="59"/>
     </row>
     <row r="464" spans="1:22" ht="56.25">
       <c r="A464" s="40" t="s">
@@ -29911,11 +29905,11 @@
       </c>
       <c r="P464" s="10"/>
       <c r="Q464" s="11"/>
-      <c r="R464" s="56"/>
-      <c r="S464" s="56"/>
-      <c r="T464" s="56"/>
-      <c r="U464" s="56"/>
-      <c r="V464" s="56"/>
+      <c r="R464" s="59"/>
+      <c r="S464" s="59"/>
+      <c r="T464" s="59"/>
+      <c r="U464" s="59"/>
+      <c r="V464" s="59"/>
     </row>
     <row r="465" spans="1:22" ht="37.5">
       <c r="A465" s="40" t="s">
@@ -29965,11 +29959,11 @@
       </c>
       <c r="P465" s="10"/>
       <c r="Q465" s="11"/>
-      <c r="R465" s="56"/>
-      <c r="S465" s="56"/>
-      <c r="T465" s="56"/>
-      <c r="U465" s="56"/>
-      <c r="V465" s="56"/>
+      <c r="R465" s="59"/>
+      <c r="S465" s="59"/>
+      <c r="T465" s="59"/>
+      <c r="U465" s="59"/>
+      <c r="V465" s="59"/>
     </row>
     <row r="466" spans="1:22" ht="56.25">
       <c r="A466" s="40" t="s">
@@ -30025,13 +30019,13 @@
       <c r="Q466" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="R466" s="57" t="s">
+      <c r="R466" s="60" t="s">
         <v>867</v>
       </c>
-      <c r="S466" s="57"/>
-      <c r="T466" s="57"/>
-      <c r="U466" s="57"/>
-      <c r="V466" s="57"/>
+      <c r="S466" s="60"/>
+      <c r="T466" s="60"/>
+      <c r="U466" s="60"/>
+      <c r="V466" s="60"/>
     </row>
     <row r="467" spans="1:22" ht="56.25">
       <c r="A467" s="40" t="s">
@@ -30081,11 +30075,11 @@
       </c>
       <c r="P467" s="10"/>
       <c r="Q467" s="11"/>
-      <c r="R467" s="56"/>
-      <c r="S467" s="56"/>
-      <c r="T467" s="56"/>
-      <c r="U467" s="56"/>
-      <c r="V467" s="56"/>
+      <c r="R467" s="59"/>
+      <c r="S467" s="59"/>
+      <c r="T467" s="59"/>
+      <c r="U467" s="59"/>
+      <c r="V467" s="59"/>
     </row>
     <row r="468" spans="1:22" ht="56.25">
       <c r="A468" s="40" t="s">
@@ -30135,11 +30129,11 @@
       </c>
       <c r="P468" s="10"/>
       <c r="Q468" s="11"/>
-      <c r="R468" s="56"/>
-      <c r="S468" s="56"/>
-      <c r="T468" s="56"/>
-      <c r="U468" s="56"/>
-      <c r="V468" s="56"/>
+      <c r="R468" s="59"/>
+      <c r="S468" s="59"/>
+      <c r="T468" s="59"/>
+      <c r="U468" s="59"/>
+      <c r="V468" s="59"/>
     </row>
     <row r="469" spans="1:22" ht="56.25">
       <c r="A469" s="40" t="s">
@@ -30189,11 +30183,11 @@
       </c>
       <c r="P469" s="10"/>
       <c r="Q469" s="11"/>
-      <c r="R469" s="56"/>
-      <c r="S469" s="56"/>
-      <c r="T469" s="56"/>
-      <c r="U469" s="56"/>
-      <c r="V469" s="56"/>
+      <c r="R469" s="59"/>
+      <c r="S469" s="59"/>
+      <c r="T469" s="59"/>
+      <c r="U469" s="59"/>
+      <c r="V469" s="59"/>
     </row>
     <row r="470" spans="1:22" ht="56.25">
       <c r="A470" s="40" t="s">
@@ -30243,11 +30237,11 @@
       </c>
       <c r="P470" s="10"/>
       <c r="Q470" s="11"/>
-      <c r="R470" s="56"/>
-      <c r="S470" s="56"/>
-      <c r="T470" s="56"/>
-      <c r="U470" s="56"/>
-      <c r="V470" s="56"/>
+      <c r="R470" s="59"/>
+      <c r="S470" s="59"/>
+      <c r="T470" s="59"/>
+      <c r="U470" s="59"/>
+      <c r="V470" s="59"/>
     </row>
     <row r="471" spans="1:22" ht="56.25">
       <c r="A471" s="40" t="s">
@@ -30297,11 +30291,11 @@
       </c>
       <c r="P471" s="10"/>
       <c r="Q471" s="11"/>
-      <c r="R471" s="56"/>
-      <c r="S471" s="56"/>
-      <c r="T471" s="56"/>
-      <c r="U471" s="56"/>
-      <c r="V471" s="56"/>
+      <c r="R471" s="59"/>
+      <c r="S471" s="59"/>
+      <c r="T471" s="59"/>
+      <c r="U471" s="59"/>
+      <c r="V471" s="59"/>
     </row>
     <row r="472" spans="1:22" ht="37.5">
       <c r="A472" s="40" t="s">
@@ -30351,11 +30345,11 @@
       </c>
       <c r="P472" s="10"/>
       <c r="Q472" s="11"/>
-      <c r="R472" s="56"/>
-      <c r="S472" s="56"/>
-      <c r="T472" s="56"/>
-      <c r="U472" s="56"/>
-      <c r="V472" s="56"/>
+      <c r="R472" s="59"/>
+      <c r="S472" s="59"/>
+      <c r="T472" s="59"/>
+      <c r="U472" s="59"/>
+      <c r="V472" s="59"/>
     </row>
     <row r="473" spans="1:22" ht="37.5">
       <c r="A473" s="40" t="s">
@@ -30405,11 +30399,11 @@
       </c>
       <c r="P473" s="10"/>
       <c r="Q473" s="11"/>
-      <c r="R473" s="56"/>
-      <c r="S473" s="56"/>
-      <c r="T473" s="56"/>
-      <c r="U473" s="56"/>
-      <c r="V473" s="56"/>
+      <c r="R473" s="59"/>
+      <c r="S473" s="59"/>
+      <c r="T473" s="59"/>
+      <c r="U473" s="59"/>
+      <c r="V473" s="59"/>
     </row>
     <row r="474" spans="1:22" ht="37.5">
       <c r="A474" s="40" t="s">
@@ -30459,11 +30453,11 @@
       </c>
       <c r="P474" s="10"/>
       <c r="Q474" s="11"/>
-      <c r="R474" s="56"/>
-      <c r="S474" s="56"/>
-      <c r="T474" s="56"/>
-      <c r="U474" s="56"/>
-      <c r="V474" s="56"/>
+      <c r="R474" s="59"/>
+      <c r="S474" s="59"/>
+      <c r="T474" s="59"/>
+      <c r="U474" s="59"/>
+      <c r="V474" s="59"/>
     </row>
     <row r="475" spans="1:22" ht="56.25">
       <c r="A475" s="40" t="s">
@@ -30513,11 +30507,11 @@
       </c>
       <c r="P475" s="10"/>
       <c r="Q475" s="11"/>
-      <c r="R475" s="56"/>
-      <c r="S475" s="56"/>
-      <c r="T475" s="56"/>
-      <c r="U475" s="56"/>
-      <c r="V475" s="56"/>
+      <c r="R475" s="59"/>
+      <c r="S475" s="59"/>
+      <c r="T475" s="59"/>
+      <c r="U475" s="59"/>
+      <c r="V475" s="59"/>
     </row>
     <row r="476" spans="1:22" ht="37.5">
       <c r="A476" s="40" t="s">
@@ -30567,11 +30561,11 @@
       </c>
       <c r="P476" s="10"/>
       <c r="Q476" s="11"/>
-      <c r="R476" s="56"/>
-      <c r="S476" s="56"/>
-      <c r="T476" s="56"/>
-      <c r="U476" s="56"/>
-      <c r="V476" s="56"/>
+      <c r="R476" s="59"/>
+      <c r="S476" s="59"/>
+      <c r="T476" s="59"/>
+      <c r="U476" s="59"/>
+      <c r="V476" s="59"/>
     </row>
     <row r="477" spans="1:22" ht="56.25">
       <c r="A477" s="40" t="s">
@@ -30621,11 +30615,11 @@
       </c>
       <c r="P477" s="10"/>
       <c r="Q477" s="11"/>
-      <c r="R477" s="56"/>
-      <c r="S477" s="56"/>
-      <c r="T477" s="56"/>
-      <c r="U477" s="56"/>
-      <c r="V477" s="56"/>
+      <c r="R477" s="59"/>
+      <c r="S477" s="59"/>
+      <c r="T477" s="59"/>
+      <c r="U477" s="59"/>
+      <c r="V477" s="59"/>
     </row>
     <row r="478" spans="1:22" ht="37.5">
       <c r="A478" s="40" t="s">
@@ -30675,11 +30669,11 @@
       </c>
       <c r="P478" s="10"/>
       <c r="Q478" s="11"/>
-      <c r="R478" s="56"/>
-      <c r="S478" s="56"/>
-      <c r="T478" s="56"/>
-      <c r="U478" s="56"/>
-      <c r="V478" s="56"/>
+      <c r="R478" s="59"/>
+      <c r="S478" s="59"/>
+      <c r="T478" s="59"/>
+      <c r="U478" s="59"/>
+      <c r="V478" s="59"/>
     </row>
     <row r="479" spans="1:22" ht="37.5">
       <c r="A479" s="46" t="s">
@@ -30729,11 +30723,11 @@
       </c>
       <c r="P479" s="13"/>
       <c r="Q479" s="11"/>
-      <c r="R479" s="56"/>
-      <c r="S479" s="56"/>
-      <c r="T479" s="56"/>
-      <c r="U479" s="56"/>
-      <c r="V479" s="56"/>
+      <c r="R479" s="59"/>
+      <c r="S479" s="59"/>
+      <c r="T479" s="59"/>
+      <c r="U479" s="59"/>
+      <c r="V479" s="59"/>
     </row>
     <row r="480" spans="1:22" ht="37.5">
       <c r="A480" s="46" t="s">
@@ -30783,11 +30777,11 @@
       </c>
       <c r="P480" s="13"/>
       <c r="Q480" s="11"/>
-      <c r="R480" s="56"/>
-      <c r="S480" s="56"/>
-      <c r="T480" s="56"/>
-      <c r="U480" s="56"/>
-      <c r="V480" s="56"/>
+      <c r="R480" s="59"/>
+      <c r="S480" s="59"/>
+      <c r="T480" s="59"/>
+      <c r="U480" s="59"/>
+      <c r="V480" s="59"/>
     </row>
     <row r="481" spans="1:22" ht="37.5">
       <c r="A481" s="46" t="s">
@@ -30837,11 +30831,11 @@
       </c>
       <c r="P481" s="13"/>
       <c r="Q481" s="11"/>
-      <c r="R481" s="56"/>
-      <c r="S481" s="56"/>
-      <c r="T481" s="56"/>
-      <c r="U481" s="56"/>
-      <c r="V481" s="56"/>
+      <c r="R481" s="59"/>
+      <c r="S481" s="59"/>
+      <c r="T481" s="59"/>
+      <c r="U481" s="59"/>
+      <c r="V481" s="59"/>
     </row>
     <row r="482" spans="1:22" ht="37.5">
       <c r="A482" s="46" t="s">
@@ -30891,11 +30885,11 @@
       </c>
       <c r="P482" s="13"/>
       <c r="Q482" s="11"/>
-      <c r="R482" s="56"/>
-      <c r="S482" s="56"/>
-      <c r="T482" s="56"/>
-      <c r="U482" s="56"/>
-      <c r="V482" s="56"/>
+      <c r="R482" s="59"/>
+      <c r="S482" s="59"/>
+      <c r="T482" s="59"/>
+      <c r="U482" s="59"/>
+      <c r="V482" s="59"/>
     </row>
     <row r="483" spans="1:22" s="1" customFormat="1" ht="19.5" thickBot="1">
       <c r="A483" s="50" t="s">
@@ -30944,29 +30938,29 @@
       </c>
       <c r="P483" s="17"/>
       <c r="Q483" s="18"/>
-      <c r="R483" s="56"/>
-      <c r="S483" s="56"/>
-      <c r="T483" s="56"/>
-      <c r="U483" s="56"/>
-      <c r="V483" s="56"/>
+      <c r="R483" s="59"/>
+      <c r="S483" s="59"/>
+      <c r="T483" s="59"/>
+      <c r="U483" s="59"/>
+      <c r="V483" s="59"/>
     </row>
     <row r="484" spans="1:22" s="2" customFormat="1">
-      <c r="A484" s="75" t="s">
+      <c r="A484" s="52" t="s">
         <v>891</v>
       </c>
-      <c r="B484" s="76"/>
-      <c r="C484" s="76"/>
-      <c r="D484" s="76"/>
-      <c r="E484" s="76"/>
-      <c r="F484" s="76"/>
-      <c r="G484" s="76"/>
-      <c r="H484" s="76"/>
-      <c r="I484" s="76"/>
-      <c r="J484" s="76"/>
-      <c r="K484" s="76"/>
-      <c r="L484" s="76"/>
-      <c r="M484" s="76"/>
-      <c r="N484" s="77"/>
+      <c r="B484" s="53"/>
+      <c r="C484" s="53"/>
+      <c r="D484" s="53"/>
+      <c r="E484" s="53"/>
+      <c r="F484" s="53"/>
+      <c r="G484" s="53"/>
+      <c r="H484" s="53"/>
+      <c r="I484" s="53"/>
+      <c r="J484" s="53"/>
+      <c r="K484" s="53"/>
+      <c r="L484" s="53"/>
+      <c r="M484" s="53"/>
+      <c r="N484" s="54"/>
       <c r="O484" s="19">
         <f>+SUM(O485:O501)</f>
         <v>279584261</v>
@@ -31506,22 +31500,22 @@
       <c r="V501" s="11"/>
     </row>
     <row r="502" spans="1:22" s="2" customFormat="1">
-      <c r="A502" s="72" t="s">
+      <c r="A502" s="75" t="s">
         <v>913</v>
       </c>
-      <c r="B502" s="73"/>
-      <c r="C502" s="73"/>
-      <c r="D502" s="73"/>
-      <c r="E502" s="73"/>
-      <c r="F502" s="73"/>
-      <c r="G502" s="73"/>
-      <c r="H502" s="73"/>
-      <c r="I502" s="73"/>
-      <c r="J502" s="73"/>
-      <c r="K502" s="73"/>
-      <c r="L502" s="73"/>
-      <c r="M502" s="73"/>
-      <c r="N502" s="74"/>
+      <c r="B502" s="76"/>
+      <c r="C502" s="76"/>
+      <c r="D502" s="76"/>
+      <c r="E502" s="76"/>
+      <c r="F502" s="76"/>
+      <c r="G502" s="76"/>
+      <c r="H502" s="76"/>
+      <c r="I502" s="76"/>
+      <c r="J502" s="76"/>
+      <c r="K502" s="76"/>
+      <c r="L502" s="76"/>
+      <c r="M502" s="76"/>
+      <c r="N502" s="77"/>
       <c r="O502" s="35">
         <v>10900000</v>
       </c>
@@ -31534,37 +31528,37 @@
       <c r="V502" s="21"/>
     </row>
     <row r="503" spans="1:22" s="3" customFormat="1" ht="51.75" thickBot="1">
-      <c r="A503" s="69" t="s">
+      <c r="A503" s="72" t="s">
         <v>914</v>
       </c>
-      <c r="B503" s="70"/>
-      <c r="C503" s="70"/>
-      <c r="D503" s="71"/>
+      <c r="B503" s="73"/>
+      <c r="C503" s="73"/>
+      <c r="D503" s="74"/>
       <c r="E503" s="38"/>
-      <c r="F503" s="66"/>
-      <c r="G503" s="67"/>
-      <c r="H503" s="67"/>
-      <c r="I503" s="67"/>
-      <c r="J503" s="68"/>
-      <c r="K503" s="63">
+      <c r="F503" s="69"/>
+      <c r="G503" s="70"/>
+      <c r="H503" s="70"/>
+      <c r="I503" s="70"/>
+      <c r="J503" s="71"/>
+      <c r="K503" s="66">
         <f>+N483-O483-O484-O502</f>
         <v>-33690011</v>
       </c>
-      <c r="L503" s="64"/>
-      <c r="M503" s="64"/>
-      <c r="N503" s="64"/>
-      <c r="O503" s="64"/>
-      <c r="P503" s="65"/>
+      <c r="L503" s="67"/>
+      <c r="M503" s="67"/>
+      <c r="N503" s="67"/>
+      <c r="O503" s="67"/>
+      <c r="P503" s="68"/>
       <c r="Q503" s="39" t="s">
         <v>915</v>
       </c>
-      <c r="R503" s="60">
+      <c r="R503" s="63">
         <v>22560000</v>
       </c>
-      <c r="S503" s="61"/>
-      <c r="T503" s="61"/>
-      <c r="U503" s="61"/>
-      <c r="V503" s="62"/>
+      <c r="S503" s="64"/>
+      <c r="T503" s="64"/>
+      <c r="U503" s="64"/>
+      <c r="V503" s="65"/>
     </row>
     <row r="504" spans="1:22">
       <c r="K504" s="9"/>
@@ -31588,13 +31582,12 @@
     <filterColumn colId="19" showButton="0"/>
     <filterColumn colId="20" showButton="0"/>
   </autoFilter>
-  <mergeCells count="501">
+  <mergeCells count="500">
     <mergeCell ref="R503:V503"/>
     <mergeCell ref="K503:P503"/>
     <mergeCell ref="F503:J503"/>
     <mergeCell ref="A503:D503"/>
     <mergeCell ref="A502:N502"/>
-    <mergeCell ref="A484:N484"/>
     <mergeCell ref="R7:V7"/>
     <mergeCell ref="R8:V8"/>
     <mergeCell ref="R9:V9"/>
